--- a/Record-Data.xlsx
+++ b/Record-Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="197">
   <si>
     <t>Daily as on Apr 1, 16:00</t>
   </si>
@@ -56,6 +56,555 @@
   </si>
   <si>
     <t>Bajaj Auto</t>
+  </si>
+  <si>
+    <t>IDFC First Bank</t>
+  </si>
+  <si>
+    <t>National Peroxide</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Philips Carbon</t>
+  </si>
+  <si>
+    <t>HEG</t>
+  </si>
+  <si>
+    <t>Bhartiya Airtel</t>
+  </si>
+  <si>
+    <t>Coal India</t>
+  </si>
+  <si>
+    <t>Wipro</t>
+  </si>
+  <si>
+    <t>I Bull Housing Finance</t>
+  </si>
+  <si>
+    <t>Idea</t>
+  </si>
+  <si>
+    <t>Indus Ind Bank</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>IRCTC</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>L&amp;T</t>
+  </si>
+  <si>
+    <t>M&amp;M Finance</t>
+  </si>
+  <si>
+    <t>Manapuram</t>
+  </si>
+  <si>
+    <t>Muthood Finance</t>
+  </si>
+  <si>
+    <t>PFC</t>
+  </si>
+  <si>
+    <t>SBI Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBI  </t>
+  </si>
+  <si>
+    <t>Tata Powers</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>Tata Chemicals</t>
+  </si>
+  <si>
+    <t>Hindal Co</t>
+  </si>
+  <si>
+    <t>Asian Paints</t>
+  </si>
+  <si>
+    <t>Adani Port</t>
+  </si>
+  <si>
+    <t>Sunpharma</t>
+  </si>
+  <si>
+    <t>Tata Steels</t>
+  </si>
+  <si>
+    <t>Deepak Nitrite</t>
+  </si>
+  <si>
+    <t>45.45</t>
+  </si>
+  <si>
+    <t>50.20</t>
+  </si>
+  <si>
+    <t>47.16</t>
+  </si>
+  <si>
+    <t>54.05</t>
+  </si>
+  <si>
+    <t>45.62</t>
+  </si>
+  <si>
+    <t>48.23</t>
+  </si>
+  <si>
+    <t>51.49</t>
+  </si>
+  <si>
+    <t>41.03</t>
+  </si>
+  <si>
+    <t>49.99</t>
+  </si>
+  <si>
+    <t>43.07</t>
+  </si>
+  <si>
+    <t>- -</t>
+  </si>
+  <si>
+    <t>50.76</t>
+  </si>
+  <si>
+    <t>52.29</t>
+  </si>
+  <si>
+    <t>59.05</t>
+  </si>
+  <si>
+    <t>41.86</t>
+  </si>
+  <si>
+    <t>39.57</t>
+  </si>
+  <si>
+    <t>48.86</t>
+  </si>
+  <si>
+    <t>42.67</t>
+  </si>
+  <si>
+    <t>47.21</t>
+  </si>
+  <si>
+    <t>48.65</t>
+  </si>
+  <si>
+    <t>41.16</t>
+  </si>
+  <si>
+    <t>45.84</t>
+  </si>
+  <si>
+    <t>57.52</t>
+  </si>
+  <si>
+    <t>50.63</t>
+  </si>
+  <si>
+    <t>50.27</t>
+  </si>
+  <si>
+    <t>45.61</t>
+  </si>
+  <si>
+    <t>43.41</t>
+  </si>
+  <si>
+    <t>37.58</t>
+  </si>
+  <si>
+    <t>47.48</t>
+  </si>
+  <si>
+    <t>49.80</t>
+  </si>
+  <si>
+    <t>56.54</t>
+  </si>
+  <si>
+    <t>58.02</t>
+  </si>
+  <si>
+    <t>64.37</t>
+  </si>
+  <si>
+    <t>53.14</t>
+  </si>
+  <si>
+    <t>59.65</t>
+  </si>
+  <si>
+    <t>60.25</t>
+  </si>
+  <si>
+    <t>55.37</t>
+  </si>
+  <si>
+    <t>71.78</t>
+  </si>
+  <si>
+    <t>67.78</t>
+  </si>
+  <si>
+    <t>50.84</t>
+  </si>
+  <si>
+    <t>68.29</t>
+  </si>
+  <si>
+    <t>59.15</t>
+  </si>
+  <si>
+    <t>61.93</t>
+  </si>
+  <si>
+    <t>58.41</t>
+  </si>
+  <si>
+    <t>56.84</t>
+  </si>
+  <si>
+    <t>55.32</t>
+  </si>
+  <si>
+    <t>46.38</t>
+  </si>
+  <si>
+    <t>57.04</t>
+  </si>
+  <si>
+    <t>64.20</t>
+  </si>
+  <si>
+    <t>57.24</t>
+  </si>
+  <si>
+    <t>61.90</t>
+  </si>
+  <si>
+    <t>70.13</t>
+  </si>
+  <si>
+    <t>48.42</t>
+  </si>
+  <si>
+    <t>47.30</t>
+  </si>
+  <si>
+    <t>60.51</t>
+  </si>
+  <si>
+    <t>49.42</t>
+  </si>
+  <si>
+    <t>48.51</t>
+  </si>
+  <si>
+    <t>58.94</t>
+  </si>
+  <si>
+    <t>49.86</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>55.79</t>
+  </si>
+  <si>
+    <t>62.99</t>
+  </si>
+  <si>
+    <t>61.15</t>
+  </si>
+  <si>
+    <t>46.27</t>
+  </si>
+  <si>
+    <t>51.38</t>
+  </si>
+  <si>
+    <t>50.35</t>
+  </si>
+  <si>
+    <t>52.75</t>
+  </si>
+  <si>
+    <t>67.21</t>
+  </si>
+  <si>
+    <t>70.90</t>
+  </si>
+  <si>
+    <t>64.01</t>
+  </si>
+  <si>
+    <t>78.21</t>
+  </si>
+  <si>
+    <t>57.16</t>
+  </si>
+  <si>
+    <t>60.22</t>
+  </si>
+  <si>
+    <t>77.12</t>
+  </si>
+  <si>
+    <t>58.23</t>
+  </si>
+  <si>
+    <t>78.07</t>
+  </si>
+  <si>
+    <t>82.81</t>
+  </si>
+  <si>
+    <t>61.83</t>
+  </si>
+  <si>
+    <t>64.87</t>
+  </si>
+  <si>
+    <t>65.02</t>
+  </si>
+  <si>
+    <t>63.58</t>
+  </si>
+  <si>
+    <t>64.90</t>
+  </si>
+  <si>
+    <t>64.17</t>
+  </si>
+  <si>
+    <t>60.82</t>
+  </si>
+  <si>
+    <t>51.47</t>
+  </si>
+  <si>
+    <t>61.89</t>
+  </si>
+  <si>
+    <t>62.09</t>
+  </si>
+  <si>
+    <t>50.58</t>
+  </si>
+  <si>
+    <t>64.61</t>
+  </si>
+  <si>
+    <t>57.07</t>
+  </si>
+  <si>
+    <t>57.57</t>
+  </si>
+  <si>
+    <t>38.95</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>40.10</t>
+  </si>
+  <si>
+    <t>41.98</t>
+  </si>
+  <si>
+    <t>49.63</t>
+  </si>
+  <si>
+    <t>42.01</t>
+  </si>
+  <si>
+    <t>66.70</t>
+  </si>
+  <si>
+    <t>50.10</t>
+  </si>
+  <si>
+    <t>60.98</t>
+  </si>
+  <si>
+    <t>54.38</t>
+  </si>
+  <si>
+    <t>53.05</t>
+  </si>
+  <si>
+    <t>62.44</t>
+  </si>
+  <si>
+    <t>54.19</t>
+  </si>
+  <si>
+    <t>55.61</t>
+  </si>
+  <si>
+    <t>62.51</t>
+  </si>
+  <si>
+    <t>71.82</t>
+  </si>
+  <si>
+    <t>71.58</t>
+  </si>
+  <si>
+    <t>66.12</t>
+  </si>
+  <si>
+    <t>46.15</t>
+  </si>
+  <si>
+    <t>68.20</t>
+  </si>
+  <si>
+    <t>78.35</t>
+  </si>
+  <si>
+    <t>61.76</t>
+  </si>
+  <si>
+    <t>72.71</t>
+  </si>
+  <si>
+    <t>89.49</t>
+  </si>
+  <si>
+    <t>2021.85</t>
+  </si>
+  <si>
+    <t>307.75</t>
+  </si>
+  <si>
+    <t>5272.15</t>
+  </si>
+  <si>
+    <t>9789.50</t>
+  </si>
+  <si>
+    <t>1486.75</t>
+  </si>
+  <si>
+    <t>691.00</t>
+  </si>
+  <si>
+    <t>2963.35</t>
+  </si>
+  <si>
+    <t>6923.90</t>
+  </si>
+  <si>
+    <t>3743.05</t>
+  </si>
+  <si>
+    <t>57.05</t>
+  </si>
+  <si>
+    <t>299.95</t>
+  </si>
+  <si>
+    <t>198.70</t>
+  </si>
+  <si>
+    <t>1580.90</t>
+  </si>
+  <si>
+    <t>520.80</t>
+  </si>
+  <si>
+    <t>132.15</t>
+  </si>
+  <si>
+    <t>416.40</t>
+  </si>
+  <si>
+    <t>204.65</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>993.30</t>
+  </si>
+  <si>
+    <t>93.15</t>
+  </si>
+  <si>
+    <t>1751.75</t>
+  </si>
+  <si>
+    <t>220.05</t>
+  </si>
+  <si>
+    <t>1444.60</t>
+  </si>
+  <si>
+    <t>204.30</t>
+  </si>
+  <si>
+    <t>157.30</t>
+  </si>
+  <si>
+    <t>1214.35</t>
+  </si>
+  <si>
+    <t>114.40</t>
+  </si>
+  <si>
+    <t>883.45</t>
+  </si>
+  <si>
+    <t>370.65</t>
+  </si>
+  <si>
+    <t>105.05</t>
+  </si>
+  <si>
+    <t>3165.00</t>
+  </si>
+  <si>
+    <t>779.10</t>
+  </si>
+  <si>
+    <t>8.45</t>
+  </si>
+  <si>
+    <t>2551.75</t>
+  </si>
+  <si>
+    <t>736.25</t>
+  </si>
+  <si>
+    <t>610.75</t>
+  </si>
+  <si>
+    <t>863.05</t>
+  </si>
+  <si>
+    <t>1646.75</t>
   </si>
 </sst>
 </file>
@@ -413,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,153 +989,660 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>45.45</v>
-      </c>
-      <c r="C2">
-        <v>50.84</v>
-      </c>
-      <c r="D2">
-        <v>61.83</v>
-      </c>
-      <c r="E2">
-        <v>2021.85</v>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>50.2</v>
-      </c>
-      <c r="C3">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="D3">
-        <v>64.87</v>
-      </c>
-      <c r="E3">
-        <v>307.75</v>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>47.16</v>
-      </c>
-      <c r="C4">
-        <v>59.15</v>
-      </c>
-      <c r="D4">
-        <v>65.02</v>
-      </c>
-      <c r="E4">
-        <v>5272.15</v>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>54.05</v>
-      </c>
-      <c r="C5">
-        <v>61.93</v>
-      </c>
-      <c r="D5">
-        <v>63.58</v>
-      </c>
-      <c r="E5">
-        <v>9789.5</v>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>45.62</v>
-      </c>
-      <c r="C6">
-        <v>58.41</v>
-      </c>
-      <c r="D6">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="E6">
-        <v>1486.75</v>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>48.23</v>
-      </c>
-      <c r="C7">
-        <v>56.84</v>
-      </c>
-      <c r="D7">
-        <v>64.17</v>
-      </c>
-      <c r="E7">
-        <v>691</v>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>51.49</v>
-      </c>
-      <c r="C8">
-        <v>55.32</v>
-      </c>
-      <c r="D8">
-        <v>60.82</v>
-      </c>
-      <c r="E8">
-        <v>2963.35</v>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>41.03</v>
-      </c>
-      <c r="C9">
-        <v>46.38</v>
-      </c>
-      <c r="D9">
-        <v>51.47</v>
-      </c>
-      <c r="E9">
-        <v>6923.9</v>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>49.99</v>
-      </c>
-      <c r="C10">
-        <v>57.04</v>
-      </c>
-      <c r="D10">
-        <v>61.89</v>
-      </c>
-      <c r="E10">
-        <v>3743.05</v>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Record-Data.xlsx
+++ b/Record-Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="171">
   <si>
     <t>Daily as on Apr 1, 16:00</t>
   </si>
@@ -28,6 +28,42 @@
     <t>Closing as on Apr 1, 16:00</t>
   </si>
   <si>
+    <t>Daily as on Apr 5, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 5, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 5, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 5, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 6, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 6, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 6, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 6, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 7, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 7, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 7, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 7, 16:00</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -491,120 +527,6 @@
   </si>
   <si>
     <t>89.49</t>
-  </si>
-  <si>
-    <t>2021.85</t>
-  </si>
-  <si>
-    <t>307.75</t>
-  </si>
-  <si>
-    <t>5272.15</t>
-  </si>
-  <si>
-    <t>9789.50</t>
-  </si>
-  <si>
-    <t>1486.75</t>
-  </si>
-  <si>
-    <t>691.00</t>
-  </si>
-  <si>
-    <t>2963.35</t>
-  </si>
-  <si>
-    <t>6923.90</t>
-  </si>
-  <si>
-    <t>3743.05</t>
-  </si>
-  <si>
-    <t>57.05</t>
-  </si>
-  <si>
-    <t>299.95</t>
-  </si>
-  <si>
-    <t>198.70</t>
-  </si>
-  <si>
-    <t>1580.90</t>
-  </si>
-  <si>
-    <t>520.80</t>
-  </si>
-  <si>
-    <t>132.15</t>
-  </si>
-  <si>
-    <t>416.40</t>
-  </si>
-  <si>
-    <t>204.65</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>993.30</t>
-  </si>
-  <si>
-    <t>93.15</t>
-  </si>
-  <si>
-    <t>1751.75</t>
-  </si>
-  <si>
-    <t>220.05</t>
-  </si>
-  <si>
-    <t>1444.60</t>
-  </si>
-  <si>
-    <t>204.30</t>
-  </si>
-  <si>
-    <t>157.30</t>
-  </si>
-  <si>
-    <t>1214.35</t>
-  </si>
-  <si>
-    <t>114.40</t>
-  </si>
-  <si>
-    <t>883.45</t>
-  </si>
-  <si>
-    <t>370.65</t>
-  </si>
-  <si>
-    <t>105.05</t>
-  </si>
-  <si>
-    <t>3165.00</t>
-  </si>
-  <si>
-    <t>779.10</t>
-  </si>
-  <si>
-    <t>8.45</t>
-  </si>
-  <si>
-    <t>2551.75</t>
-  </si>
-  <si>
-    <t>736.25</t>
-  </si>
-  <si>
-    <t>610.75</t>
-  </si>
-  <si>
-    <t>863.05</t>
-  </si>
-  <si>
-    <t>1646.75</t>
   </si>
 </sst>
 </file>
@@ -962,15 +884,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -984,665 +906,2069 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2">
+        <v>2021.85</v>
+      </c>
+      <c r="F2">
+        <v>42.33</v>
+      </c>
+      <c r="G2">
+        <v>49.01</v>
+      </c>
+      <c r="H2">
+        <v>61</v>
+      </c>
+      <c r="I2">
+        <v>1992.6</v>
+      </c>
+      <c r="J2">
+        <v>41.46</v>
+      </c>
+      <c r="K2">
+        <v>48.51</v>
+      </c>
+      <c r="L2">
+        <v>60.7</v>
+      </c>
+      <c r="M2">
+        <v>1984.3</v>
+      </c>
+      <c r="N2">
+        <v>44.22</v>
+      </c>
+      <c r="O2">
+        <v>49.64</v>
+      </c>
+      <c r="P2">
+        <v>61.38</v>
+      </c>
+      <c r="Q2">
+        <v>2002.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3">
+        <v>307.75</v>
+      </c>
+      <c r="F3">
+        <v>48.7</v>
+      </c>
+      <c r="G3">
+        <v>67.27</v>
+      </c>
+      <c r="H3">
+        <v>64.62</v>
+      </c>
+      <c r="I3">
+        <v>305.05</v>
+      </c>
+      <c r="J3">
+        <v>50.3</v>
+      </c>
+      <c r="K3">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="L3">
+        <v>64.87</v>
+      </c>
+      <c r="M3">
+        <v>307.75</v>
+      </c>
+      <c r="N3">
+        <v>50.33</v>
+      </c>
+      <c r="O3">
+        <v>68.3</v>
+      </c>
+      <c r="P3">
+        <v>64.88</v>
+      </c>
+      <c r="Q3">
+        <v>307.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4">
+        <v>5272.15</v>
+      </c>
+      <c r="F4">
+        <v>36.18</v>
+      </c>
+      <c r="G4">
+        <v>52.58</v>
+      </c>
+      <c r="H4">
+        <v>62.01</v>
+      </c>
+      <c r="I4">
+        <v>4962.5</v>
+      </c>
+      <c r="J4">
+        <v>37.72</v>
+      </c>
+      <c r="K4">
+        <v>53.17</v>
+      </c>
+      <c r="L4">
+        <v>62.36</v>
+      </c>
+      <c r="M4">
+        <v>4993.1</v>
+      </c>
+      <c r="N4">
+        <v>41.88</v>
+      </c>
+      <c r="O4">
+        <v>54.84</v>
+      </c>
+      <c r="P4">
+        <v>63.34</v>
+      </c>
+      <c r="Q4">
+        <v>5077.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5">
+        <v>9789.5</v>
+      </c>
+      <c r="F5">
+        <v>46.46</v>
+      </c>
+      <c r="G5">
+        <v>57.9</v>
+      </c>
+      <c r="H5">
+        <v>61.84</v>
+      </c>
+      <c r="I5">
+        <v>9481.65</v>
+      </c>
+      <c r="J5">
+        <v>47.44</v>
+      </c>
+      <c r="K5">
+        <v>58.36</v>
+      </c>
+      <c r="L5">
+        <v>62.09</v>
+      </c>
+      <c r="M5">
+        <v>9519.5</v>
+      </c>
+      <c r="N5">
+        <v>47.98</v>
+      </c>
+      <c r="O5">
+        <v>58.61</v>
+      </c>
+      <c r="P5">
+        <v>62.23</v>
+      </c>
+      <c r="Q5">
+        <v>9539.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6">
+        <v>1486.75</v>
+      </c>
+      <c r="F6">
+        <v>41.01</v>
+      </c>
+      <c r="G6">
+        <v>54.15</v>
+      </c>
+      <c r="H6">
+        <v>62.55</v>
+      </c>
+      <c r="I6">
+        <v>1449.6</v>
+      </c>
+      <c r="J6">
+        <v>39.91</v>
+      </c>
+      <c r="K6">
+        <v>53.17</v>
+      </c>
+      <c r="L6">
+        <v>61.99</v>
+      </c>
+      <c r="M6">
+        <v>1440.25</v>
+      </c>
+      <c r="N6">
+        <v>41.17</v>
+      </c>
+      <c r="O6">
+        <v>53.89</v>
+      </c>
+      <c r="P6">
+        <v>62.41</v>
+      </c>
+      <c r="Q6">
+        <v>1447.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7">
+        <v>691</v>
+      </c>
+      <c r="F7">
+        <v>44.88</v>
+      </c>
+      <c r="G7">
+        <v>54.48</v>
+      </c>
+      <c r="H7">
+        <v>62.95</v>
+      </c>
+      <c r="I7">
+        <v>682.15</v>
+      </c>
+      <c r="J7">
+        <v>51.08</v>
+      </c>
+      <c r="K7">
+        <v>58.1</v>
+      </c>
+      <c r="L7">
+        <v>64.98</v>
+      </c>
+      <c r="M7">
+        <v>697.15</v>
+      </c>
+      <c r="N7">
+        <v>52.13</v>
+      </c>
+      <c r="O7">
+        <v>58.63</v>
+      </c>
+      <c r="P7">
+        <v>65.19</v>
+      </c>
+      <c r="Q7">
+        <v>699.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8">
+        <v>2963.35</v>
+      </c>
+      <c r="F8">
+        <v>45.92</v>
+      </c>
+      <c r="G8">
+        <v>52.83</v>
+      </c>
+      <c r="H8">
+        <v>59.59</v>
+      </c>
+      <c r="I8">
+        <v>2902.35</v>
+      </c>
+      <c r="J8">
+        <v>44.28</v>
+      </c>
+      <c r="K8">
+        <v>52.08</v>
+      </c>
+      <c r="L8">
+        <v>59.08</v>
+      </c>
+      <c r="M8">
+        <v>2882.9</v>
+      </c>
+      <c r="N8">
+        <v>46.03</v>
+      </c>
+      <c r="O8">
+        <v>52.71</v>
+      </c>
+      <c r="P8">
+        <v>59.51</v>
+      </c>
+      <c r="Q8">
+        <v>2899.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9">
+        <v>6923.9</v>
+      </c>
+      <c r="F9">
+        <v>35.54</v>
+      </c>
+      <c r="G9">
+        <v>44.12</v>
+      </c>
+      <c r="H9">
+        <v>50.11</v>
+      </c>
+      <c r="I9">
+        <v>6768.55</v>
+      </c>
+      <c r="J9">
+        <v>34.98</v>
+      </c>
+      <c r="K9">
+        <v>43.89</v>
+      </c>
+      <c r="L9">
+        <v>49.96</v>
+      </c>
+      <c r="M9">
+        <v>6751.3</v>
+      </c>
+      <c r="N9">
+        <v>41.52</v>
+      </c>
+      <c r="O9">
+        <v>45.49</v>
+      </c>
+      <c r="P9">
+        <v>50.96</v>
+      </c>
+      <c r="Q9">
+        <v>6865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10">
+        <v>3743.05</v>
+      </c>
+      <c r="F10">
+        <v>41.65</v>
+      </c>
+      <c r="G10">
+        <v>51.76</v>
+      </c>
+      <c r="H10">
+        <v>59.25</v>
+      </c>
+      <c r="I10">
+        <v>3598.5</v>
+      </c>
+      <c r="J10">
+        <v>42.86</v>
+      </c>
+      <c r="K10">
+        <v>52.33</v>
+      </c>
+      <c r="L10">
+        <v>59.62</v>
+      </c>
+      <c r="M10">
+        <v>3615.5</v>
+      </c>
+      <c r="N10">
+        <v>47.33</v>
+      </c>
+      <c r="O10">
+        <v>54.62</v>
+      </c>
+      <c r="P10">
+        <v>60.99</v>
+      </c>
+      <c r="Q10">
+        <v>3680.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11">
+        <v>57.05</v>
+      </c>
+      <c r="F11">
+        <v>37.22</v>
+      </c>
+      <c r="G11">
+        <v>59.16</v>
+      </c>
+      <c r="H11">
+        <v>60.03</v>
+      </c>
+      <c r="I11">
+        <v>54.3</v>
+      </c>
+      <c r="J11">
+        <v>40.39</v>
+      </c>
+      <c r="K11">
+        <v>60.9</v>
+      </c>
+      <c r="L11">
+        <v>60.94</v>
+      </c>
+      <c r="M11">
+        <v>55.3</v>
+      </c>
+      <c r="N11">
+        <v>47.52</v>
+      </c>
+      <c r="O11">
+        <v>65.02</v>
+      </c>
+      <c r="P11">
+        <v>62.52</v>
+      </c>
+      <c r="Q11">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13">
+        <v>299.95</v>
+      </c>
+      <c r="F13">
+        <v>54.14</v>
+      </c>
+      <c r="G13">
+        <v>58.86</v>
+      </c>
+      <c r="H13">
+        <v>51.12</v>
+      </c>
+      <c r="I13">
+        <v>307.05</v>
+      </c>
+      <c r="J13">
+        <v>62.05</v>
+      </c>
+      <c r="K13">
+        <v>62.82</v>
+      </c>
+      <c r="L13">
+        <v>52.57</v>
+      </c>
+      <c r="M13">
+        <v>327.1</v>
+      </c>
+      <c r="N13">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="O13">
+        <v>65.11</v>
+      </c>
+      <c r="P13">
+        <v>53.52</v>
+      </c>
+      <c r="Q13">
+        <v>340.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14">
+        <v>198.7</v>
+      </c>
+      <c r="F14">
+        <v>44.46</v>
+      </c>
+      <c r="G14">
+        <v>56.3</v>
+      </c>
+      <c r="H14">
+        <v>62.31</v>
+      </c>
+      <c r="I14">
+        <v>188.6</v>
+      </c>
+      <c r="J14">
+        <v>55.04</v>
+      </c>
+      <c r="K14">
+        <v>63.57</v>
+      </c>
+      <c r="L14">
+        <v>65.45</v>
+      </c>
+      <c r="M14">
+        <v>203.35</v>
+      </c>
+      <c r="N14">
+        <v>57.1</v>
+      </c>
+      <c r="O14">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="P14">
+        <v>66.06</v>
+      </c>
+      <c r="Q14">
+        <v>206.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15">
+        <v>1580.9</v>
+      </c>
+      <c r="F15">
+        <v>54.97</v>
+      </c>
+      <c r="G15">
+        <v>67.42</v>
+      </c>
+      <c r="H15">
+        <v>56.33</v>
+      </c>
+      <c r="I15">
+        <v>1537.9</v>
+      </c>
+      <c r="J15">
+        <v>69.67</v>
+      </c>
+      <c r="K15">
+        <v>75.55</v>
+      </c>
+      <c r="L15">
+        <v>60.71</v>
+      </c>
+      <c r="M15">
+        <v>1818.1</v>
+      </c>
+      <c r="N15">
+        <v>78.64</v>
+      </c>
+      <c r="O15">
+        <v>80.53</v>
+      </c>
+      <c r="P15">
+        <v>64.91</v>
+      </c>
+      <c r="Q15">
+        <v>2152.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16">
+        <v>520.8</v>
+      </c>
+      <c r="F16">
+        <v>46.58</v>
+      </c>
+      <c r="G16">
+        <v>50.24</v>
+      </c>
+      <c r="H16">
+        <v>58.32</v>
+      </c>
+      <c r="I16">
+        <v>528.25</v>
+      </c>
+      <c r="J16">
+        <v>48.95</v>
+      </c>
+      <c r="K16">
+        <v>51.15</v>
+      </c>
+      <c r="L16">
+        <v>58.71</v>
+      </c>
+      <c r="M16">
+        <v>532.2</v>
+      </c>
+      <c r="N16">
+        <v>54.15</v>
+      </c>
+      <c r="O16">
+        <v>53.2</v>
+      </c>
+      <c r="P16">
+        <v>59.6</v>
+      </c>
+      <c r="Q16">
+        <v>541.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17">
+        <v>132.15</v>
+      </c>
+      <c r="F17">
+        <v>36.79</v>
+      </c>
+      <c r="G17">
+        <v>45.93</v>
+      </c>
+      <c r="H17">
+        <v>38.2</v>
+      </c>
+      <c r="I17">
+        <v>129.8</v>
+      </c>
+      <c r="J17">
+        <v>37.79</v>
+      </c>
+      <c r="K17">
+        <v>46.21</v>
+      </c>
+      <c r="L17">
+        <v>38.31</v>
+      </c>
+      <c r="M17">
+        <v>130.3</v>
+      </c>
+      <c r="N17">
+        <v>39.74</v>
+      </c>
+      <c r="O17">
+        <v>46.77</v>
+      </c>
+      <c r="P17">
+        <v>38.64</v>
+      </c>
+      <c r="Q17">
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18">
+        <v>416.4</v>
+      </c>
+      <c r="F18">
+        <v>54.4</v>
+      </c>
+      <c r="G18">
+        <v>62.67</v>
+      </c>
+      <c r="H18">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="I18">
+        <v>425.45</v>
+      </c>
+      <c r="J18">
+        <v>55.38</v>
+      </c>
+      <c r="K18">
+        <v>63.05</v>
+      </c>
+      <c r="L18">
+        <v>76.06999999999999</v>
+      </c>
+      <c r="M18">
+        <v>427.15</v>
+      </c>
+      <c r="N18">
+        <v>61.11</v>
+      </c>
+      <c r="O18">
+        <v>65.3</v>
+      </c>
+      <c r="P18">
+        <v>77.06</v>
+      </c>
+      <c r="Q18">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19">
+        <v>204.65</v>
+      </c>
+      <c r="F19">
+        <v>35.97</v>
+      </c>
+      <c r="G19">
+        <v>46.4</v>
+      </c>
+      <c r="H19">
+        <v>39.29</v>
+      </c>
+      <c r="I19">
+        <v>193.4</v>
+      </c>
+      <c r="J19">
+        <v>37.61</v>
+      </c>
+      <c r="K19">
+        <v>46.85</v>
+      </c>
+      <c r="L19">
+        <v>39.38</v>
+      </c>
+      <c r="M19">
+        <v>195.15</v>
+      </c>
+      <c r="N19">
+        <v>38.15</v>
+      </c>
+      <c r="O19">
+        <v>46.99</v>
+      </c>
+      <c r="P19">
+        <v>39.41</v>
+      </c>
+      <c r="Q19">
+        <v>195.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>42.12</v>
+      </c>
+      <c r="G20">
+        <v>46.33</v>
+      </c>
+      <c r="H20">
+        <v>40.91</v>
+      </c>
+      <c r="I20">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="J20">
+        <v>44.28</v>
+      </c>
+      <c r="K20">
+        <v>47.04</v>
+      </c>
+      <c r="L20">
+        <v>41.27</v>
+      </c>
+      <c r="M20">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="N20">
+        <v>45.01</v>
+      </c>
+      <c r="O20">
+        <v>47.28</v>
+      </c>
+      <c r="P20">
+        <v>41.39</v>
+      </c>
+      <c r="Q20">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21">
+        <v>993.3</v>
+      </c>
+      <c r="F21">
+        <v>39.53</v>
+      </c>
+      <c r="G21">
+        <v>53.48</v>
+      </c>
+      <c r="H21">
+        <v>47.97</v>
+      </c>
+      <c r="I21">
+        <v>937.35</v>
+      </c>
+      <c r="J21">
+        <v>38.14</v>
+      </c>
+      <c r="K21">
+        <v>52.6</v>
+      </c>
+      <c r="L21">
+        <v>47.69</v>
+      </c>
+      <c r="M21">
+        <v>927.25</v>
+      </c>
+      <c r="N21">
+        <v>42.11</v>
+      </c>
+      <c r="O21">
+        <v>54.21</v>
+      </c>
+      <c r="P21">
+        <v>48.21</v>
+      </c>
+      <c r="Q21">
+        <v>945.55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22">
+        <v>93.15000000000001</v>
+      </c>
+      <c r="F22">
+        <v>36.55</v>
+      </c>
+      <c r="G22">
+        <v>47.35</v>
+      </c>
+      <c r="H22">
+        <v>40.79</v>
+      </c>
+      <c r="I22">
+        <v>90.75</v>
+      </c>
+      <c r="J22">
+        <v>37.8</v>
+      </c>
+      <c r="K22">
+        <v>47.75</v>
+      </c>
+      <c r="L22">
+        <v>40.96</v>
+      </c>
+      <c r="M22">
+        <v>91.15000000000001</v>
+      </c>
+      <c r="N22">
+        <v>42.53</v>
+      </c>
+      <c r="O22">
+        <v>49.37</v>
+      </c>
+      <c r="P22">
+        <v>41.75</v>
+      </c>
+      <c r="Q22">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23">
+        <v>1751.75</v>
+      </c>
+      <c r="F23">
+        <v>41.31</v>
+      </c>
+      <c r="G23">
+        <v>56.36</v>
+      </c>
+      <c r="H23">
+        <v>65.13</v>
+      </c>
+      <c r="I23">
+        <v>1702.65</v>
+      </c>
+      <c r="J23">
+        <v>40.09</v>
+      </c>
+      <c r="K23">
+        <v>55.51</v>
+      </c>
+      <c r="L23">
+        <v>64.7</v>
+      </c>
+      <c r="M23">
+        <v>1688.55</v>
+      </c>
+      <c r="N23">
+        <v>42.74</v>
+      </c>
+      <c r="O23">
+        <v>56.74</v>
+      </c>
+      <c r="P23">
+        <v>65.33</v>
+      </c>
+      <c r="Q23">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24">
+        <v>220.05</v>
+      </c>
+      <c r="F24">
+        <v>48.08</v>
+      </c>
+      <c r="G24">
+        <v>52.55</v>
+      </c>
+      <c r="H24">
+        <v>47.74</v>
+      </c>
+      <c r="I24">
+        <v>212.55</v>
+      </c>
+      <c r="J24">
+        <v>48.2</v>
+      </c>
+      <c r="K24">
+        <v>52.59</v>
+      </c>
+      <c r="L24">
+        <v>47.77</v>
+      </c>
+      <c r="M24">
+        <v>212.65</v>
+      </c>
+      <c r="N24">
+        <v>49.67</v>
+      </c>
+      <c r="O24">
+        <v>53.06</v>
+      </c>
+      <c r="P24">
+        <v>48.12</v>
+      </c>
+      <c r="Q24">
+        <v>213.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25">
+        <v>1444.6</v>
+      </c>
+      <c r="F25">
+        <v>43.69</v>
+      </c>
+      <c r="G25">
+        <v>58.79</v>
+      </c>
+      <c r="H25">
+        <v>59.25</v>
+      </c>
+      <c r="I25">
+        <v>1403.8</v>
+      </c>
+      <c r="J25">
+        <v>43.25</v>
+      </c>
+      <c r="K25">
+        <v>58.53</v>
+      </c>
+      <c r="L25">
+        <v>59.1</v>
+      </c>
+      <c r="M25">
+        <v>1401</v>
+      </c>
+      <c r="N25">
+        <v>43.93</v>
+      </c>
+      <c r="O25">
+        <v>58.83</v>
+      </c>
+      <c r="P25">
+        <v>59.26</v>
+      </c>
+      <c r="Q25">
+        <v>1404.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26">
+        <v>204.3</v>
+      </c>
+      <c r="F26">
+        <v>44.62</v>
+      </c>
+      <c r="G26">
+        <v>56.7</v>
+      </c>
+      <c r="H26">
+        <v>52.85</v>
+      </c>
+      <c r="I26">
+        <v>195.5</v>
+      </c>
+      <c r="J26">
+        <v>46.82</v>
+      </c>
+      <c r="K26">
+        <v>58.14</v>
+      </c>
+      <c r="L26">
+        <v>53.42</v>
+      </c>
+      <c r="M26">
+        <v>198.5</v>
+      </c>
+      <c r="N26">
+        <v>46.32</v>
+      </c>
+      <c r="O26">
+        <v>57.78</v>
+      </c>
+      <c r="P26">
+        <v>53.27</v>
+      </c>
+      <c r="Q26">
+        <v>197.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27">
+        <v>157.3</v>
+      </c>
+      <c r="F27">
+        <v>43.08</v>
+      </c>
+      <c r="G27">
+        <v>45.1</v>
+      </c>
+      <c r="H27">
+        <v>52.59</v>
+      </c>
+      <c r="I27">
+        <v>155.1</v>
+      </c>
+      <c r="J27">
+        <v>41.72</v>
+      </c>
+      <c r="K27">
+        <v>44.49</v>
+      </c>
+      <c r="L27">
+        <v>52.34</v>
+      </c>
+      <c r="M27">
+        <v>153.9</v>
+      </c>
+      <c r="N27">
+        <v>46.28</v>
+      </c>
+      <c r="O27">
+        <v>46.05</v>
+      </c>
+      <c r="P27">
+        <v>52.96</v>
+      </c>
+      <c r="Q27">
+        <v>156.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28">
+        <v>1214.35</v>
+      </c>
+      <c r="F28">
+        <v>38.48</v>
+      </c>
+      <c r="G28">
+        <v>48.36</v>
+      </c>
+      <c r="H28">
+        <v>61.05</v>
+      </c>
+      <c r="I28">
+        <v>1184.2</v>
+      </c>
+      <c r="J28">
+        <v>43.12</v>
+      </c>
+      <c r="K28">
+        <v>50.33</v>
+      </c>
+      <c r="L28">
+        <v>62.09</v>
+      </c>
+      <c r="M28">
+        <v>1204.3</v>
+      </c>
+      <c r="N28">
+        <v>43.42</v>
+      </c>
+      <c r="O28">
+        <v>50.47</v>
+      </c>
+      <c r="P28">
+        <v>62.16</v>
+      </c>
+      <c r="Q28">
+        <v>1205.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B29" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C29" t="s">
         <v>121</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D29" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E29">
+        <v>114.4</v>
+      </c>
+      <c r="F29">
+        <v>34.7</v>
+      </c>
+      <c r="G29">
+        <v>48.18</v>
+      </c>
+      <c r="H29">
+        <v>52.94</v>
+      </c>
+      <c r="I29">
+        <v>111.45</v>
+      </c>
+      <c r="J29">
+        <v>39.59</v>
+      </c>
+      <c r="K29">
+        <v>50.31</v>
+      </c>
+      <c r="L29">
+        <v>54.17</v>
+      </c>
+      <c r="M29">
+        <v>114.35</v>
+      </c>
+      <c r="N29">
+        <v>43.08</v>
+      </c>
+      <c r="O29">
+        <v>51.93</v>
+      </c>
+      <c r="P29">
+        <v>54.98</v>
+      </c>
+      <c r="Q29">
+        <v>116.55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C30" t="s">
         <v>122</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D30" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E30">
+        <v>883.45</v>
+      </c>
+      <c r="F30">
+        <v>44.3</v>
+      </c>
+      <c r="G30">
+        <v>50.66</v>
+      </c>
+      <c r="H30">
+        <v>54.76</v>
+      </c>
+      <c r="I30">
+        <v>872.55</v>
+      </c>
+      <c r="J30">
+        <v>52.2</v>
+      </c>
+      <c r="K30">
+        <v>55.14</v>
+      </c>
+      <c r="L30">
+        <v>56.53</v>
+      </c>
+      <c r="M30">
+        <v>897.55</v>
+      </c>
+      <c r="N30">
+        <v>57.62</v>
+      </c>
+      <c r="O30">
+        <v>58.28</v>
+      </c>
+      <c r="P30">
+        <v>57.82</v>
+      </c>
+      <c r="Q30">
+        <v>918.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B31" t="s">
         <v>85</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C31" t="s">
         <v>123</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D31" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E31">
+        <v>370.65</v>
+      </c>
+      <c r="F31">
+        <v>40.7</v>
+      </c>
+      <c r="G31">
+        <v>61.22</v>
+      </c>
+      <c r="H31">
+        <v>60.25</v>
+      </c>
+      <c r="I31">
+        <v>353.55</v>
+      </c>
+      <c r="J31">
+        <v>39.35</v>
+      </c>
+      <c r="K31">
+        <v>60.27</v>
+      </c>
+      <c r="L31">
+        <v>59.8</v>
+      </c>
+      <c r="M31">
+        <v>350.55</v>
+      </c>
+      <c r="N31">
+        <v>44.65</v>
+      </c>
+      <c r="O31">
+        <v>62.86</v>
+      </c>
+      <c r="P31">
+        <v>61.01</v>
+      </c>
+      <c r="Q31">
+        <v>358.55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B32" t="s">
         <v>86</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C32" t="s">
         <v>124</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D32" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E32">
+        <v>105.05</v>
+      </c>
+      <c r="F32">
+        <v>53.39</v>
+      </c>
+      <c r="G32">
+        <v>68.73999999999999</v>
+      </c>
+      <c r="H32">
+        <v>71.27</v>
+      </c>
+      <c r="I32">
+        <v>103.35</v>
+      </c>
+      <c r="J32">
+        <v>55.51</v>
+      </c>
+      <c r="K32">
+        <v>70.44</v>
+      </c>
+      <c r="L32">
+        <v>71.7</v>
+      </c>
+      <c r="M32">
+        <v>104.7</v>
+      </c>
+      <c r="N32">
+        <v>55.01</v>
+      </c>
+      <c r="O32">
+        <v>70.12</v>
+      </c>
+      <c r="P32">
+        <v>71.63</v>
+      </c>
+      <c r="Q32">
+        <v>104.45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B33" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C33" t="s">
         <v>125</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D33" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E33">
+        <v>3165</v>
+      </c>
+      <c r="F33">
+        <v>63.91</v>
+      </c>
+      <c r="G33">
+        <v>66.56</v>
+      </c>
+      <c r="H33">
+        <v>72.95</v>
+      </c>
+      <c r="I33">
+        <v>3238.9</v>
+      </c>
+      <c r="J33">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="K33">
+        <v>67.36</v>
+      </c>
+      <c r="L33">
+        <v>73.31</v>
+      </c>
+      <c r="M33">
+        <v>3264.7</v>
+      </c>
+      <c r="N33">
+        <v>66.19</v>
+      </c>
+      <c r="O33">
+        <v>67.56</v>
+      </c>
+      <c r="P33">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="Q33">
+        <v>3271.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B34" t="s">
         <v>88</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C34" t="s">
         <v>126</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D34" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E34">
+        <v>779.1</v>
+      </c>
+      <c r="F34">
+        <v>59.15</v>
+      </c>
+      <c r="G34">
+        <v>74.89</v>
+      </c>
+      <c r="H34">
+        <v>65.38</v>
+      </c>
+      <c r="I34">
+        <v>761.75</v>
+      </c>
+      <c r="J34">
+        <v>67.02</v>
+      </c>
+      <c r="K34">
+        <v>79.76000000000001</v>
+      </c>
+      <c r="L34">
+        <v>67.34</v>
+      </c>
+      <c r="M34">
+        <v>809.1</v>
+      </c>
+      <c r="N34">
+        <v>67.43000000000001</v>
+      </c>
+      <c r="O34">
+        <v>79.89</v>
+      </c>
+      <c r="P34">
+        <v>67.45</v>
+      </c>
+      <c r="Q34">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B35" t="s">
         <v>89</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C35" t="s">
         <v>127</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D35" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E35">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="F35">
+        <v>53.14</v>
+      </c>
+      <c r="G35">
+        <v>57.16</v>
+      </c>
+      <c r="H35">
+        <v>46.15</v>
+      </c>
+      <c r="I35">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="J35">
+        <v>49.19</v>
+      </c>
+      <c r="K35">
+        <v>54.76</v>
+      </c>
+      <c r="L35">
+        <v>45.42</v>
+      </c>
+      <c r="M35">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="N35">
+        <v>46.93</v>
+      </c>
+      <c r="O35">
+        <v>53.41</v>
+      </c>
+      <c r="P35">
+        <v>44.97</v>
+      </c>
+      <c r="Q35">
+        <v>8.050000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B36" t="s">
         <v>90</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C36" t="s">
         <v>128</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D36" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E36">
+        <v>2551.75</v>
+      </c>
+      <c r="F36">
+        <v>55.19</v>
+      </c>
+      <c r="G36">
+        <v>57.77</v>
+      </c>
+      <c r="H36">
+        <v>66.95</v>
+      </c>
+      <c r="I36">
+        <v>2510.65</v>
+      </c>
+      <c r="J36">
+        <v>62.59</v>
+      </c>
+      <c r="K36">
+        <v>62.53</v>
+      </c>
+      <c r="L36">
+        <v>69.22</v>
+      </c>
+      <c r="M36">
+        <v>2611.6</v>
+      </c>
+      <c r="N36">
+        <v>63.67</v>
+      </c>
+      <c r="O36">
+        <v>63.14</v>
+      </c>
+      <c r="P36">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="Q36">
+        <v>2628.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B37" t="s">
         <v>91</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C37" t="s">
         <v>129</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D37" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E37">
+        <v>736.25</v>
+      </c>
+      <c r="F37">
+        <v>61.37</v>
+      </c>
+      <c r="G37">
+        <v>77.52</v>
+      </c>
+      <c r="H37">
+        <v>78.58</v>
+      </c>
+      <c r="I37">
+        <v>742.25</v>
+      </c>
+      <c r="J37">
+        <v>73.83</v>
+      </c>
+      <c r="K37">
+        <v>82.3</v>
+      </c>
+      <c r="L37">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="M37">
+        <v>835.55</v>
+      </c>
+      <c r="N37">
+        <v>68.52</v>
+      </c>
+      <c r="O37">
+        <v>81.42</v>
+      </c>
+      <c r="P37">
+        <v>81.01000000000001</v>
+      </c>
+      <c r="Q37">
+        <v>814.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B38" t="s">
         <v>92</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C38" t="s">
         <v>130</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D38" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E38">
+        <v>610.75</v>
+      </c>
+      <c r="F38">
+        <v>54.39</v>
+      </c>
+      <c r="G38">
+        <v>57.75</v>
+      </c>
+      <c r="H38">
+        <v>61.58</v>
+      </c>
+      <c r="I38">
+        <v>608.8</v>
+      </c>
+      <c r="J38">
+        <v>59.07</v>
+      </c>
+      <c r="K38">
+        <v>59.88</v>
+      </c>
+      <c r="L38">
+        <v>62.61</v>
+      </c>
+      <c r="M38">
+        <v>620.45</v>
+      </c>
+      <c r="N38">
+        <v>59.3</v>
+      </c>
+      <c r="O38">
+        <v>59.97</v>
+      </c>
+      <c r="P38">
+        <v>62.66</v>
+      </c>
+      <c r="Q38">
+        <v>621.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39">
+        <v>863.05</v>
+      </c>
+      <c r="F39">
+        <v>72.25</v>
+      </c>
+      <c r="G39">
+        <v>78.31</v>
+      </c>
+      <c r="H39">
+        <v>72.87</v>
+      </c>
+      <c r="I39">
+        <v>867.75</v>
+      </c>
+      <c r="J39">
+        <v>70.93000000000001</v>
+      </c>
+      <c r="K39">
+        <v>78.03</v>
+      </c>
+      <c r="L39">
+        <v>72.70999999999999</v>
+      </c>
+      <c r="M39">
+        <v>862.85</v>
+      </c>
+      <c r="N39">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="O39">
+        <v>78.67</v>
+      </c>
+      <c r="P39">
+        <v>73.11</v>
+      </c>
+      <c r="Q39">
+        <v>874.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B40" t="s">
         <v>94</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C40" t="s">
         <v>132</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D40" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" t="s">
-        <v>151</v>
-      </c>
-      <c r="E33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" t="s">
-        <v>156</v>
-      </c>
-      <c r="E38" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" t="s">
-        <v>158</v>
-      </c>
-      <c r="E40" t="s">
-        <v>196</v>
+      <c r="E40">
+        <v>1646.75</v>
+      </c>
+      <c r="F40">
+        <v>63.37</v>
+      </c>
+      <c r="G40">
+        <v>79.84999999999999</v>
+      </c>
+      <c r="H40">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="I40">
+        <v>1617.15</v>
+      </c>
+      <c r="J40">
+        <v>66.54000000000001</v>
+      </c>
+      <c r="K40">
+        <v>83.04000000000001</v>
+      </c>
+      <c r="L40">
+        <v>90.2</v>
+      </c>
+      <c r="M40">
+        <v>1657.15</v>
+      </c>
+      <c r="N40">
+        <v>69.44</v>
+      </c>
+      <c r="O40">
+        <v>83.84999999999999</v>
+      </c>
+      <c r="P40">
+        <v>90.52</v>
+      </c>
+      <c r="Q40">
+        <v>1697.95</v>
       </c>
     </row>
   </sheetData>

--- a/Record-Data.xlsx
+++ b/Record-Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="187">
   <si>
     <t>Daily as on Apr 1, 16:00</t>
   </si>
@@ -62,6 +62,54 @@
   </si>
   <si>
     <t>Closing as on Apr 7, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 8, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 8, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 8, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 8, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 9, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 9, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 9, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 9, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 12, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 12, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 12, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 12, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 13, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 13, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 13, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 13, 16:00</t>
   </si>
   <si>
     <t>Name</t>
@@ -884,15 +932,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -942,19 +990,67 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E2">
         <v>2021.85</v>
@@ -995,19 +1091,67 @@
       <c r="Q2">
         <v>2002.85</v>
       </c>
+      <c r="R2">
+        <v>44.6</v>
+      </c>
+      <c r="S2">
+        <v>49.79</v>
+      </c>
+      <c r="T2">
+        <v>61.45</v>
+      </c>
+      <c r="U2">
+        <v>2005.35</v>
+      </c>
+      <c r="V2">
+        <v>41.75</v>
+      </c>
+      <c r="W2">
+        <v>48.38</v>
+      </c>
+      <c r="X2">
+        <v>60.62</v>
+      </c>
+      <c r="Y2">
+        <v>1982.05</v>
+      </c>
+      <c r="Z2">
+        <v>34.53</v>
+      </c>
+      <c r="AA2">
+        <v>44.27</v>
+      </c>
+      <c r="AB2">
+        <v>58.14</v>
+      </c>
+      <c r="AC2">
+        <v>1911.15</v>
+      </c>
+      <c r="AD2">
+        <v>37.9</v>
+      </c>
+      <c r="AE2">
+        <v>45.39</v>
+      </c>
+      <c r="AF2">
+        <v>58.84</v>
+      </c>
+      <c r="AG2">
+        <v>1931.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E3">
         <v>307.75</v>
@@ -1048,19 +1192,67 @@
       <c r="Q3">
         <v>307.8</v>
       </c>
+      <c r="R3">
+        <v>54.11</v>
+      </c>
+      <c r="S3">
+        <v>69.37</v>
+      </c>
+      <c r="T3">
+        <v>65.45</v>
+      </c>
+      <c r="U3">
+        <v>313.95</v>
+      </c>
+      <c r="V3">
+        <v>56.57</v>
+      </c>
+      <c r="W3">
+        <v>70.06</v>
+      </c>
+      <c r="X3">
+        <v>65.84</v>
+      </c>
+      <c r="Y3">
+        <v>318.2</v>
+      </c>
+      <c r="Z3">
+        <v>39.56</v>
+      </c>
+      <c r="AA3">
+        <v>59.29</v>
+      </c>
+      <c r="AB3">
+        <v>61.71</v>
+      </c>
+      <c r="AC3">
+        <v>286.55</v>
+      </c>
+      <c r="AD3">
+        <v>48.2</v>
+      </c>
+      <c r="AE3">
+        <v>64.39</v>
+      </c>
+      <c r="AF3">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="AG3">
+        <v>302.85</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E4">
         <v>5272.15</v>
@@ -1101,19 +1293,67 @@
       <c r="Q4">
         <v>5077.1</v>
       </c>
+      <c r="R4">
+        <v>40.24</v>
+      </c>
+      <c r="S4">
+        <v>53.88</v>
+      </c>
+      <c r="T4">
+        <v>62.78</v>
+      </c>
+      <c r="U4">
+        <v>5029.5</v>
+      </c>
+      <c r="V4">
+        <v>35.32</v>
+      </c>
+      <c r="W4">
+        <v>50.94</v>
+      </c>
+      <c r="X4">
+        <v>61.01</v>
+      </c>
+      <c r="Y4">
+        <v>4872.3</v>
+      </c>
+      <c r="Z4">
+        <v>27.12</v>
+      </c>
+      <c r="AA4">
+        <v>44.87</v>
+      </c>
+      <c r="AB4">
+        <v>57.29</v>
+      </c>
+      <c r="AC4">
+        <v>4511</v>
+      </c>
+      <c r="AD4">
+        <v>36.67</v>
+      </c>
+      <c r="AE4">
+        <v>48.34</v>
+      </c>
+      <c r="AF4">
+        <v>59.47</v>
+      </c>
+      <c r="AG4">
+        <v>4728.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E5">
         <v>9789.5</v>
@@ -1154,19 +1394,67 @@
       <c r="Q5">
         <v>9539.6</v>
       </c>
+      <c r="R5">
+        <v>51.1</v>
+      </c>
+      <c r="S5">
+        <v>60.1</v>
+      </c>
+      <c r="T5">
+        <v>63.01</v>
+      </c>
+      <c r="U5">
+        <v>9654.799999999999</v>
+      </c>
+      <c r="V5">
+        <v>50.37</v>
+      </c>
+      <c r="W5">
+        <v>59.76</v>
+      </c>
+      <c r="X5">
+        <v>62.83</v>
+      </c>
+      <c r="Y5">
+        <v>9629.049999999999</v>
+      </c>
+      <c r="Z5">
+        <v>39.44</v>
+      </c>
+      <c r="AA5">
+        <v>53.86</v>
+      </c>
+      <c r="AB5">
+        <v>59.81</v>
+      </c>
+      <c r="AC5">
+        <v>9163.15</v>
+      </c>
+      <c r="AD5">
+        <v>54.22</v>
+      </c>
+      <c r="AE5">
+        <v>61.37</v>
+      </c>
+      <c r="AF5">
+        <v>63.65</v>
+      </c>
+      <c r="AG5">
+        <v>9806.700000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E6">
         <v>1486.75</v>
@@ -1207,19 +1495,67 @@
       <c r="Q6">
         <v>1447.2</v>
       </c>
+      <c r="R6">
+        <v>39.34</v>
+      </c>
+      <c r="S6">
+        <v>52.42</v>
+      </c>
+      <c r="T6">
+        <v>61.54</v>
+      </c>
+      <c r="U6">
+        <v>1432.8</v>
+      </c>
+      <c r="V6">
+        <v>37.94</v>
+      </c>
+      <c r="W6">
+        <v>51.34</v>
+      </c>
+      <c r="X6">
+        <v>60.9</v>
+      </c>
+      <c r="Y6">
+        <v>1421.75</v>
+      </c>
+      <c r="Z6">
+        <v>31.9</v>
+      </c>
+      <c r="AA6">
+        <v>46.26</v>
+      </c>
+      <c r="AB6">
+        <v>57.89</v>
+      </c>
+      <c r="AC6">
+        <v>1367.05</v>
+      </c>
+      <c r="AD6">
+        <v>38.33</v>
+      </c>
+      <c r="AE6">
+        <v>49.22</v>
+      </c>
+      <c r="AF6">
+        <v>59.69</v>
+      </c>
+      <c r="AG6">
+        <v>1400.35</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E7">
         <v>691</v>
@@ -1260,19 +1596,67 @@
       <c r="Q7">
         <v>699.85</v>
       </c>
+      <c r="R7">
+        <v>52.77</v>
+      </c>
+      <c r="S7">
+        <v>58.94</v>
+      </c>
+      <c r="T7">
+        <v>65.31</v>
+      </c>
+      <c r="U7">
+        <v>701.45</v>
+      </c>
+      <c r="V7">
+        <v>49.8</v>
+      </c>
+      <c r="W7">
+        <v>57.64</v>
+      </c>
+      <c r="X7">
+        <v>64.72</v>
+      </c>
+      <c r="Y7">
+        <v>694.85</v>
+      </c>
+      <c r="Z7">
+        <v>46.57</v>
+      </c>
+      <c r="AA7">
+        <v>55.47</v>
+      </c>
+      <c r="AB7">
+        <v>63.66</v>
+      </c>
+      <c r="AC7">
+        <v>687.3</v>
+      </c>
+      <c r="AD7">
+        <v>54.49</v>
+      </c>
+      <c r="AE7">
+        <v>59.97</v>
+      </c>
+      <c r="AF7">
+        <v>65.66</v>
+      </c>
+      <c r="AG7">
+        <v>706.1</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="E8">
         <v>2963.35</v>
@@ -1313,19 +1697,67 @@
       <c r="Q8">
         <v>2899.3</v>
       </c>
+      <c r="R8">
+        <v>55.74</v>
+      </c>
+      <c r="S8">
+        <v>56.73</v>
+      </c>
+      <c r="T8">
+        <v>61.53</v>
+      </c>
+      <c r="U8">
+        <v>3005.4</v>
+      </c>
+      <c r="V8">
+        <v>50.78</v>
+      </c>
+      <c r="W8">
+        <v>54.84</v>
+      </c>
+      <c r="X8">
+        <v>60.62</v>
+      </c>
+      <c r="Y8">
+        <v>2951.95</v>
+      </c>
+      <c r="Z8">
+        <v>42.6</v>
+      </c>
+      <c r="AA8">
+        <v>50.38</v>
+      </c>
+      <c r="AB8">
+        <v>58.1</v>
+      </c>
+      <c r="AC8">
+        <v>2844.7</v>
+      </c>
+      <c r="AD8">
+        <v>45.11</v>
+      </c>
+      <c r="AE8">
+        <v>51.49</v>
+      </c>
+      <c r="AF8">
+        <v>58.83</v>
+      </c>
+      <c r="AG8">
+        <v>2873</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="E9">
         <v>6923.9</v>
@@ -1366,19 +1798,67 @@
       <c r="Q9">
         <v>6865</v>
       </c>
+      <c r="R9">
+        <v>40.06</v>
+      </c>
+      <c r="S9">
+        <v>44.94</v>
+      </c>
+      <c r="T9">
+        <v>50.62</v>
+      </c>
+      <c r="U9">
+        <v>6826.85</v>
+      </c>
+      <c r="V9">
+        <v>40.08</v>
+      </c>
+      <c r="W9">
+        <v>44.95</v>
+      </c>
+      <c r="X9">
+        <v>50.63</v>
+      </c>
+      <c r="Y9">
+        <v>6827.1</v>
+      </c>
+      <c r="Z9">
+        <v>30.21</v>
+      </c>
+      <c r="AA9">
+        <v>40.67</v>
+      </c>
+      <c r="AB9">
+        <v>48.05</v>
+      </c>
+      <c r="AC9">
+        <v>6520.6</v>
+      </c>
+      <c r="AD9">
+        <v>44.41</v>
+      </c>
+      <c r="AE9">
+        <v>44.77</v>
+      </c>
+      <c r="AF9">
+        <v>50.53</v>
+      </c>
+      <c r="AG9">
+        <v>6815.8</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E10">
         <v>3743.05</v>
@@ -1419,19 +1899,67 @@
       <c r="Q10">
         <v>3680.2</v>
       </c>
+      <c r="R10">
+        <v>45.52</v>
+      </c>
+      <c r="S10">
+        <v>53.52</v>
+      </c>
+      <c r="T10">
+        <v>60.38</v>
+      </c>
+      <c r="U10">
+        <v>3649.8</v>
+      </c>
+      <c r="V10">
+        <v>45.63</v>
+      </c>
+      <c r="W10">
+        <v>53.57</v>
+      </c>
+      <c r="X10">
+        <v>60.42</v>
+      </c>
+      <c r="Y10">
+        <v>3651.3</v>
+      </c>
+      <c r="Z10">
+        <v>39.35</v>
+      </c>
+      <c r="AA10">
+        <v>49.66</v>
+      </c>
+      <c r="AB10">
+        <v>58.04</v>
+      </c>
+      <c r="AC10">
+        <v>3541</v>
+      </c>
+      <c r="AD10">
+        <v>43.98</v>
+      </c>
+      <c r="AE10">
+        <v>51.77</v>
+      </c>
+      <c r="AF10">
+        <v>59.34</v>
+      </c>
+      <c r="AG10">
+        <v>3602.45</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E11">
         <v>57.05</v>
@@ -1472,33 +2000,81 @@
       <c r="Q11">
         <v>57.8</v>
       </c>
+      <c r="R11">
+        <v>46.68</v>
+      </c>
+      <c r="S11">
+        <v>64.64</v>
+      </c>
+      <c r="T11">
+        <v>62.32</v>
+      </c>
+      <c r="U11">
+        <v>57.45</v>
+      </c>
+      <c r="V11">
+        <v>42.83</v>
+      </c>
+      <c r="W11">
+        <v>61.81</v>
+      </c>
+      <c r="X11">
+        <v>61.37</v>
+      </c>
+      <c r="Y11">
+        <v>55.8</v>
+      </c>
+      <c r="Z11">
+        <v>33.39</v>
+      </c>
+      <c r="AA11">
+        <v>52.88</v>
+      </c>
+      <c r="AB11">
+        <v>56.85</v>
+      </c>
+      <c r="AC11">
+        <v>50.55</v>
+      </c>
+      <c r="AD11">
+        <v>42.49</v>
+      </c>
+      <c r="AE11">
+        <v>58.51</v>
+      </c>
+      <c r="AF11">
+        <v>59.81</v>
+      </c>
+      <c r="AG11">
+        <v>54.05</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="E13">
         <v>299.95</v>
@@ -1539,19 +2115,67 @@
       <c r="Q13">
         <v>340.75</v>
       </c>
+      <c r="R13">
+        <v>68.44</v>
+      </c>
+      <c r="S13">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="T13">
+        <v>54.03</v>
+      </c>
+      <c r="U13">
+        <v>348.35</v>
+      </c>
+      <c r="V13">
+        <v>61.36</v>
+      </c>
+      <c r="W13">
+        <v>64.25</v>
+      </c>
+      <c r="X13">
+        <v>53.16</v>
+      </c>
+      <c r="Y13">
+        <v>335.45</v>
+      </c>
+      <c r="Z13">
+        <v>53.61</v>
+      </c>
+      <c r="AA13">
+        <v>59.31</v>
+      </c>
+      <c r="AB13">
+        <v>51.98</v>
+      </c>
+      <c r="AC13">
+        <v>318.7</v>
+      </c>
+      <c r="AD13">
+        <v>49.98</v>
+      </c>
+      <c r="AE13">
+        <v>56.97</v>
+      </c>
+      <c r="AF13">
+        <v>51.32</v>
+      </c>
+      <c r="AG13">
+        <v>309.75</v>
+      </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E14">
         <v>198.7</v>
@@ -1592,19 +2216,67 @@
       <c r="Q14">
         <v>206.8</v>
       </c>
+      <c r="R14">
+        <v>57.52</v>
+      </c>
+      <c r="S14">
+        <v>64.94</v>
+      </c>
+      <c r="T14">
+        <v>66.17</v>
+      </c>
+      <c r="U14">
+        <v>207.5</v>
+      </c>
+      <c r="V14">
+        <v>54.34</v>
+      </c>
+      <c r="W14">
+        <v>63.67</v>
+      </c>
+      <c r="X14">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="Y14">
+        <v>203.65</v>
+      </c>
+      <c r="Z14">
+        <v>42.3</v>
+      </c>
+      <c r="AA14">
+        <v>53.71</v>
+      </c>
+      <c r="AB14">
+        <v>61.22</v>
+      </c>
+      <c r="AC14">
+        <v>185.3</v>
+      </c>
+      <c r="AD14">
+        <v>45.43</v>
+      </c>
+      <c r="AE14">
+        <v>55.8</v>
+      </c>
+      <c r="AF14">
+        <v>62.69</v>
+      </c>
+      <c r="AG14">
+        <v>189.7</v>
+      </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E15">
         <v>1580.9</v>
@@ -1645,19 +2317,67 @@
       <c r="Q15">
         <v>2152.95</v>
       </c>
+      <c r="R15">
+        <v>82.25</v>
+      </c>
+      <c r="S15">
+        <v>82.77</v>
+      </c>
+      <c r="T15">
+        <v>67.15000000000001</v>
+      </c>
+      <c r="U15">
+        <v>2366.4</v>
+      </c>
+      <c r="V15">
+        <v>76.13</v>
+      </c>
+      <c r="W15">
+        <v>81.84999999999999</v>
+      </c>
+      <c r="X15">
+        <v>66.2</v>
+      </c>
+      <c r="Y15">
+        <v>2272</v>
+      </c>
+      <c r="Z15">
+        <v>63.82</v>
+      </c>
+      <c r="AA15">
+        <v>71.87</v>
+      </c>
+      <c r="AB15">
+        <v>63.66</v>
+      </c>
+      <c r="AC15">
+        <v>2044.8</v>
+      </c>
+      <c r="AD15">
+        <v>64.36</v>
+      </c>
+      <c r="AE15">
+        <v>72.64</v>
+      </c>
+      <c r="AF15">
+        <v>63.89</v>
+      </c>
+      <c r="AG15">
+        <v>2064.7</v>
+      </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E16">
         <v>520.8</v>
@@ -1698,19 +2418,67 @@
       <c r="Q16">
         <v>541.6</v>
       </c>
+      <c r="R16">
+        <v>54.89</v>
+      </c>
+      <c r="S16">
+        <v>53.49</v>
+      </c>
+      <c r="T16">
+        <v>59.73</v>
+      </c>
+      <c r="U16">
+        <v>543</v>
+      </c>
+      <c r="V16">
+        <v>56.11</v>
+      </c>
+      <c r="W16">
+        <v>53.95</v>
+      </c>
+      <c r="X16">
+        <v>59.94</v>
+      </c>
+      <c r="Y16">
+        <v>545.25</v>
+      </c>
+      <c r="Z16">
+        <v>43.31</v>
+      </c>
+      <c r="AA16">
+        <v>48.71</v>
+      </c>
+      <c r="AB16">
+        <v>57.73</v>
+      </c>
+      <c r="AC16">
+        <v>522.45</v>
+      </c>
+      <c r="AD16">
+        <v>50.6</v>
+      </c>
+      <c r="AE16">
+        <v>51.73</v>
+      </c>
+      <c r="AF16">
+        <v>59.09</v>
+      </c>
+      <c r="AG16">
+        <v>536.15</v>
+      </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E17">
         <v>132.15</v>
@@ -1751,19 +2519,67 @@
       <c r="Q17">
         <v>131.25</v>
       </c>
+      <c r="R17">
+        <v>40.59</v>
+      </c>
+      <c r="S17">
+        <v>47</v>
+      </c>
+      <c r="T17">
+        <v>38.78</v>
+      </c>
+      <c r="U17">
+        <v>131.65</v>
+      </c>
+      <c r="V17">
+        <v>37.54</v>
+      </c>
+      <c r="W17">
+        <v>45.76</v>
+      </c>
+      <c r="X17">
+        <v>38.14</v>
+      </c>
+      <c r="Y17">
+        <v>129.5</v>
+      </c>
+      <c r="Z17">
+        <v>31.79</v>
+      </c>
+      <c r="AA17">
+        <v>43.02</v>
+      </c>
+      <c r="AB17">
+        <v>37.13</v>
+      </c>
+      <c r="AC17">
+        <v>124.7</v>
+      </c>
+      <c r="AD17">
+        <v>38.64</v>
+      </c>
+      <c r="AE17">
+        <v>44.84</v>
+      </c>
+      <c r="AF17">
+        <v>37.8</v>
+      </c>
+      <c r="AG17">
+        <v>127.95</v>
+      </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E18">
         <v>416.4</v>
@@ -1804,19 +2620,67 @@
       <c r="Q18">
         <v>438</v>
       </c>
+      <c r="R18">
+        <v>63.05</v>
+      </c>
+      <c r="S18">
+        <v>66.08</v>
+      </c>
+      <c r="T18">
+        <v>77.41</v>
+      </c>
+      <c r="U18">
+        <v>442.1</v>
+      </c>
+      <c r="V18">
+        <v>66.54000000000001</v>
+      </c>
+      <c r="W18">
+        <v>67.5</v>
+      </c>
+      <c r="X18">
+        <v>78.06999999999999</v>
+      </c>
+      <c r="Y18">
+        <v>450.1</v>
+      </c>
+      <c r="Z18">
+        <v>54.42</v>
+      </c>
+      <c r="AA18">
+        <v>61.42</v>
+      </c>
+      <c r="AB18">
+        <v>76.58</v>
+      </c>
+      <c r="AC18">
+        <v>432.6</v>
+      </c>
+      <c r="AD18">
+        <v>47.2</v>
+      </c>
+      <c r="AE18">
+        <v>57.39</v>
+      </c>
+      <c r="AF18">
+        <v>75.26000000000001</v>
+      </c>
+      <c r="AG18">
+        <v>418.95</v>
+      </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E19">
         <v>204.65</v>
@@ -1857,19 +2721,67 @@
       <c r="Q19">
         <v>195.7</v>
       </c>
+      <c r="R19">
+        <v>35.49</v>
+      </c>
+      <c r="S19">
+        <v>45.87</v>
+      </c>
+      <c r="T19">
+        <v>39.18</v>
+      </c>
+      <c r="U19">
+        <v>191.25</v>
+      </c>
+      <c r="V19">
+        <v>36.56</v>
+      </c>
+      <c r="W19">
+        <v>46.11</v>
+      </c>
+      <c r="X19">
+        <v>39.24</v>
+      </c>
+      <c r="Y19">
+        <v>192.25</v>
+      </c>
+      <c r="Z19">
+        <v>36.56</v>
+      </c>
+      <c r="AA19">
+        <v>40.54</v>
+      </c>
+      <c r="AB19">
+        <v>38.06</v>
+      </c>
+      <c r="AC19">
+        <v>168.6</v>
+      </c>
+      <c r="AD19">
+        <v>28.83</v>
+      </c>
+      <c r="AE19">
+        <v>41.23</v>
+      </c>
+      <c r="AF19">
+        <v>38.22</v>
+      </c>
+      <c r="AG19">
+        <v>171.85</v>
+      </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -1910,19 +2822,67 @@
       <c r="Q20">
         <v>9.75</v>
       </c>
+      <c r="R20">
+        <v>40.94</v>
+      </c>
+      <c r="S20">
+        <v>45.65</v>
+      </c>
+      <c r="T20">
+        <v>40.54</v>
+      </c>
+      <c r="U20">
+        <v>9.4</v>
+      </c>
+      <c r="V20">
+        <v>40.94</v>
+      </c>
+      <c r="W20">
+        <v>45.65</v>
+      </c>
+      <c r="X20">
+        <v>40.54</v>
+      </c>
+      <c r="Y20">
+        <v>9.4</v>
+      </c>
+      <c r="Z20">
+        <v>34.26</v>
+      </c>
+      <c r="AA20">
+        <v>42.71</v>
+      </c>
+      <c r="AB20">
+        <v>39.35</v>
+      </c>
+      <c r="AC20">
+        <v>8.75</v>
+      </c>
+      <c r="AD20">
+        <v>37.63</v>
+      </c>
+      <c r="AE20">
+        <v>43.57</v>
+      </c>
+      <c r="AF20">
+        <v>39.68</v>
+      </c>
+      <c r="AG20">
+        <v>8.949999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E21">
         <v>993.3</v>
@@ -1963,19 +2923,67 @@
       <c r="Q21">
         <v>945.55</v>
       </c>
+      <c r="R21">
+        <v>40.48</v>
+      </c>
+      <c r="S21">
+        <v>53.26</v>
+      </c>
+      <c r="T21">
+        <v>47.9</v>
+      </c>
+      <c r="U21">
+        <v>934.9</v>
+      </c>
+      <c r="V21">
+        <v>38.77</v>
+      </c>
+      <c r="W21">
+        <v>52.29</v>
+      </c>
+      <c r="X21">
+        <v>47.59</v>
+      </c>
+      <c r="Y21">
+        <v>923.65</v>
+      </c>
+      <c r="Z21">
+        <v>29.38</v>
+      </c>
+      <c r="AA21">
+        <v>45.94</v>
+      </c>
+      <c r="AB21">
+        <v>45.48</v>
+      </c>
+      <c r="AC21">
+        <v>844.4</v>
+      </c>
+      <c r="AD21">
+        <v>36.3</v>
+      </c>
+      <c r="AE21">
+        <v>48.38</v>
+      </c>
+      <c r="AF21">
+        <v>46.34</v>
+      </c>
+      <c r="AG21">
+        <v>877.4</v>
+      </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E22">
         <v>93.15000000000001</v>
@@ -2016,19 +3024,67 @@
       <c r="Q22">
         <v>92.7</v>
       </c>
+      <c r="R22">
+        <v>43.28</v>
+      </c>
+      <c r="S22">
+        <v>49.64</v>
+      </c>
+      <c r="T22">
+        <v>41.89</v>
+      </c>
+      <c r="U22">
+        <v>92.95</v>
+      </c>
+      <c r="V22">
+        <v>40.44</v>
+      </c>
+      <c r="W22">
+        <v>48.31</v>
+      </c>
+      <c r="X22">
+        <v>41.18</v>
+      </c>
+      <c r="Y22">
+        <v>91.7</v>
+      </c>
+      <c r="Z22">
+        <v>31.95</v>
+      </c>
+      <c r="AA22">
+        <v>43.58</v>
+      </c>
+      <c r="AB22">
+        <v>39.32</v>
+      </c>
+      <c r="AC22">
+        <v>87</v>
+      </c>
+      <c r="AD22">
+        <v>37.37</v>
+      </c>
+      <c r="AE22">
+        <v>45.28</v>
+      </c>
+      <c r="AF22">
+        <v>40.01</v>
+      </c>
+      <c r="AG22">
+        <v>88.8</v>
+      </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E23">
         <v>1751.75</v>
@@ -2069,19 +3125,67 @@
       <c r="Q23">
         <v>1709</v>
       </c>
+      <c r="R23">
+        <v>44.97</v>
+      </c>
+      <c r="S23">
+        <v>57.83</v>
+      </c>
+      <c r="T23">
+        <v>65.88</v>
+      </c>
+      <c r="U23">
+        <v>1726.4</v>
+      </c>
+      <c r="V23">
+        <v>45.56</v>
+      </c>
+      <c r="W23">
+        <v>58.12</v>
+      </c>
+      <c r="X23">
+        <v>66.02</v>
+      </c>
+      <c r="Y23">
+        <v>1730.9</v>
+      </c>
+      <c r="Z23">
+        <v>32.95</v>
+      </c>
+      <c r="AA23">
+        <v>49.34</v>
+      </c>
+      <c r="AB23">
+        <v>61.58</v>
+      </c>
+      <c r="AC23">
+        <v>1582</v>
+      </c>
+      <c r="AD23">
+        <v>36.71</v>
+      </c>
+      <c r="AE23">
+        <v>50.87</v>
+      </c>
+      <c r="AF23">
+        <v>62.42</v>
+      </c>
+      <c r="AG23">
+        <v>1611.65</v>
+      </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="E24">
         <v>220.05</v>
@@ -2122,19 +3226,67 @@
       <c r="Q24">
         <v>213.8</v>
       </c>
+      <c r="R24">
+        <v>48.95</v>
+      </c>
+      <c r="S24">
+        <v>52.84</v>
+      </c>
+      <c r="T24">
+        <v>47.95</v>
+      </c>
+      <c r="U24">
+        <v>213.25</v>
+      </c>
+      <c r="V24">
+        <v>48.75</v>
+      </c>
+      <c r="W24">
+        <v>52.77</v>
+      </c>
+      <c r="X24">
+        <v>47.9</v>
+      </c>
+      <c r="Y24">
+        <v>213.1</v>
+      </c>
+      <c r="Z24">
+        <v>39.46</v>
+      </c>
+      <c r="AA24">
+        <v>49.54</v>
+      </c>
+      <c r="AB24">
+        <v>45.66</v>
+      </c>
+      <c r="AC24">
+        <v>205.3</v>
+      </c>
+      <c r="AD24">
+        <v>44.43</v>
+      </c>
+      <c r="AE24">
+        <v>50.9</v>
+      </c>
+      <c r="AF24">
+        <v>46.61</v>
+      </c>
+      <c r="AG24">
+        <v>208.7</v>
+      </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E25">
         <v>1444.6</v>
@@ -2175,19 +3327,67 @@
       <c r="Q25">
         <v>1404.15</v>
       </c>
+      <c r="R25">
+        <v>47.18</v>
+      </c>
+      <c r="S25">
+        <v>60.31</v>
+      </c>
+      <c r="T25">
+        <v>60.07</v>
+      </c>
+      <c r="U25">
+        <v>1419.15</v>
+      </c>
+      <c r="V25">
+        <v>44.4</v>
+      </c>
+      <c r="W25">
+        <v>58.82</v>
+      </c>
+      <c r="X25">
+        <v>59.26</v>
+      </c>
+      <c r="Y25">
+        <v>1404.1</v>
+      </c>
+      <c r="Z25">
+        <v>35.56</v>
+      </c>
+      <c r="AA25">
+        <v>53.3</v>
+      </c>
+      <c r="AB25">
+        <v>56.27</v>
+      </c>
+      <c r="AC25">
+        <v>1345.15</v>
+      </c>
+      <c r="AD25">
+        <v>41.62</v>
+      </c>
+      <c r="AE25">
+        <v>55.84</v>
+      </c>
+      <c r="AF25">
+        <v>57.68</v>
+      </c>
+      <c r="AG25">
+        <v>1373.7</v>
+      </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E26">
         <v>204.3</v>
@@ -2228,19 +3428,67 @@
       <c r="Q26">
         <v>197.75</v>
       </c>
+      <c r="R26">
+        <v>44.53</v>
+      </c>
+      <c r="S26">
+        <v>56.51</v>
+      </c>
+      <c r="T26">
+        <v>52.77</v>
+      </c>
+      <c r="U26">
+        <v>195.1</v>
+      </c>
+      <c r="V26">
+        <v>43.05</v>
+      </c>
+      <c r="W26">
+        <v>55.51</v>
+      </c>
+      <c r="X26">
+        <v>52.36</v>
+      </c>
+      <c r="Y26">
+        <v>192.9</v>
+      </c>
+      <c r="Z26">
+        <v>31.68</v>
+      </c>
+      <c r="AA26">
+        <v>46.59</v>
+      </c>
+      <c r="AB26">
+        <v>48.6</v>
+      </c>
+      <c r="AC26">
+        <v>170.95</v>
+      </c>
+      <c r="AD26">
+        <v>36.42</v>
+      </c>
+      <c r="AE26">
+        <v>48.64</v>
+      </c>
+      <c r="AF26">
+        <v>49.53</v>
+      </c>
+      <c r="AG26">
+        <v>176.7</v>
+      </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="E27">
         <v>157.3</v>
@@ -2281,19 +3529,67 @@
       <c r="Q27">
         <v>156.9</v>
       </c>
+      <c r="R27">
+        <v>47.18</v>
+      </c>
+      <c r="S27">
+        <v>46.4</v>
+      </c>
+      <c r="T27">
+        <v>53.09</v>
+      </c>
+      <c r="U27">
+        <v>157.5</v>
+      </c>
+      <c r="V27">
+        <v>46.62</v>
+      </c>
+      <c r="W27">
+        <v>46.16</v>
+      </c>
+      <c r="X27">
+        <v>53</v>
+      </c>
+      <c r="Y27">
+        <v>157.1</v>
+      </c>
+      <c r="Z27">
+        <v>34.05</v>
+      </c>
+      <c r="AA27">
+        <v>40.25</v>
+      </c>
+      <c r="AB27">
+        <v>50.46</v>
+      </c>
+      <c r="AC27">
+        <v>145.45</v>
+      </c>
+      <c r="AD27">
+        <v>38.71</v>
+      </c>
+      <c r="AE27">
+        <v>41.64</v>
+      </c>
+      <c r="AF27">
+        <v>51.16</v>
+      </c>
+      <c r="AG27">
+        <v>148.5</v>
+      </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="E28">
         <v>1214.35</v>
@@ -2334,19 +3630,67 @@
       <c r="Q28">
         <v>1205.65</v>
       </c>
+      <c r="R28">
+        <v>50.18</v>
+      </c>
+      <c r="S28">
+        <v>53.56</v>
+      </c>
+      <c r="T28">
+        <v>63.15</v>
+      </c>
+      <c r="U28">
+        <v>1237</v>
+      </c>
+      <c r="V28">
+        <v>49.54</v>
+      </c>
+      <c r="W28">
+        <v>53.27</v>
+      </c>
+      <c r="X28">
+        <v>63.05</v>
+      </c>
+      <c r="Y28">
+        <v>1233.85</v>
+      </c>
+      <c r="Z28">
+        <v>37.46</v>
+      </c>
+      <c r="AA28">
+        <v>45.98</v>
+      </c>
+      <c r="AB28">
+        <v>59.84</v>
+      </c>
+      <c r="AC28">
+        <v>1159.95</v>
+      </c>
+      <c r="AD28">
+        <v>40.31</v>
+      </c>
+      <c r="AE28">
+        <v>47.15</v>
+      </c>
+      <c r="AF28">
+        <v>60.5</v>
+      </c>
+      <c r="AG28">
+        <v>1173.35</v>
+      </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E29">
         <v>114.4</v>
@@ -2387,19 +3731,67 @@
       <c r="Q29">
         <v>116.55</v>
       </c>
+      <c r="R29">
+        <v>41.44</v>
+      </c>
+      <c r="S29">
+        <v>50.91</v>
+      </c>
+      <c r="T29">
+        <v>54.47</v>
+      </c>
+      <c r="U29">
+        <v>115.15</v>
+      </c>
+      <c r="V29">
+        <v>39.98</v>
+      </c>
+      <c r="W29">
+        <v>49.97</v>
+      </c>
+      <c r="X29">
+        <v>54</v>
+      </c>
+      <c r="Y29">
+        <v>113.9</v>
+      </c>
+      <c r="Z29">
+        <v>31.28</v>
+      </c>
+      <c r="AA29">
+        <v>43.47</v>
+      </c>
+      <c r="AB29">
+        <v>50.22</v>
+      </c>
+      <c r="AC29">
+        <v>104.75</v>
+      </c>
+      <c r="AD29">
+        <v>39.36</v>
+      </c>
+      <c r="AE29">
+        <v>46.94</v>
+      </c>
+      <c r="AF29">
+        <v>52.31</v>
+      </c>
+      <c r="AG29">
+        <v>109.95</v>
+      </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:33">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="E30">
         <v>883.45</v>
@@ -2440,19 +3832,67 @@
       <c r="Q30">
         <v>918.5</v>
       </c>
+      <c r="R30">
+        <v>54.45</v>
+      </c>
+      <c r="S30">
+        <v>56.84</v>
+      </c>
+      <c r="T30">
+        <v>57.22</v>
+      </c>
+      <c r="U30">
+        <v>908.5</v>
+      </c>
+      <c r="V30">
+        <v>54.88</v>
+      </c>
+      <c r="W30">
+        <v>57.07</v>
+      </c>
+      <c r="X30">
+        <v>57.31</v>
+      </c>
+      <c r="Y30">
+        <v>910.1</v>
+      </c>
+      <c r="Z30">
+        <v>44.32</v>
+      </c>
+      <c r="AA30">
+        <v>50.1</v>
+      </c>
+      <c r="AB30">
+        <v>54.75</v>
+      </c>
+      <c r="AC30">
+        <v>872.45</v>
+      </c>
+      <c r="AD30">
+        <v>51.13</v>
+      </c>
+      <c r="AE30">
+        <v>54.59</v>
+      </c>
+      <c r="AF30">
+        <v>56.55</v>
+      </c>
+      <c r="AG30">
+        <v>897.8</v>
+      </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="E31">
         <v>370.65</v>
@@ -2493,19 +3933,67 @@
       <c r="Q31">
         <v>358.55</v>
       </c>
+      <c r="R31">
+        <v>43.15</v>
+      </c>
+      <c r="S31">
+        <v>61.88</v>
+      </c>
+      <c r="T31">
+        <v>60.56</v>
+      </c>
+      <c r="U31">
+        <v>355.6</v>
+      </c>
+      <c r="V31">
+        <v>41.82</v>
+      </c>
+      <c r="W31">
+        <v>61.04</v>
+      </c>
+      <c r="X31">
+        <v>60.17</v>
+      </c>
+      <c r="Y31">
+        <v>353</v>
+      </c>
+      <c r="Z31">
+        <v>31.96</v>
+      </c>
+      <c r="AA31">
+        <v>53.76</v>
+      </c>
+      <c r="AB31">
+        <v>56.77</v>
+      </c>
+      <c r="AC31">
+        <v>328.85</v>
+      </c>
+      <c r="AD31">
+        <v>39.67</v>
+      </c>
+      <c r="AE31">
+        <v>57.19</v>
+      </c>
+      <c r="AF31">
+        <v>58.43</v>
+      </c>
+      <c r="AG31">
+        <v>341</v>
+      </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="E32">
         <v>105.05</v>
@@ -2546,19 +4034,67 @@
       <c r="Q32">
         <v>104.45</v>
       </c>
+      <c r="R32">
+        <v>55.86</v>
+      </c>
+      <c r="S32">
+        <v>70.77</v>
+      </c>
+      <c r="T32">
+        <v>71.78</v>
+      </c>
+      <c r="U32">
+        <v>104.95</v>
+      </c>
+      <c r="V32">
+        <v>53.99</v>
+      </c>
+      <c r="W32">
+        <v>69.67</v>
+      </c>
+      <c r="X32">
+        <v>71.51000000000001</v>
+      </c>
+      <c r="Y32">
+        <v>104.1</v>
+      </c>
+      <c r="Z32">
+        <v>35.86</v>
+      </c>
+      <c r="AA32">
+        <v>56.51</v>
+      </c>
+      <c r="AB32">
+        <v>63.27</v>
+      </c>
+      <c r="AC32">
+        <v>92.2</v>
+      </c>
+      <c r="AD32">
+        <v>42.26</v>
+      </c>
+      <c r="AE32">
+        <v>59.99</v>
+      </c>
+      <c r="AF32">
+        <v>65.7</v>
+      </c>
+      <c r="AG32">
+        <v>95.84999999999999</v>
+      </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="E33">
         <v>3165</v>
@@ -2599,19 +4135,67 @@
       <c r="Q33">
         <v>3271.4</v>
       </c>
+      <c r="R33">
+        <v>69.31</v>
+      </c>
+      <c r="S33">
+        <v>68.89</v>
+      </c>
+      <c r="T33">
+        <v>74</v>
+      </c>
+      <c r="U33">
+        <v>3317.35</v>
+      </c>
+      <c r="V33">
+        <v>69.64</v>
+      </c>
+      <c r="W33">
+        <v>69.02</v>
+      </c>
+      <c r="X33">
+        <v>74.06999999999999</v>
+      </c>
+      <c r="Y33">
+        <v>3322.25</v>
+      </c>
+      <c r="Z33">
+        <v>59.27</v>
+      </c>
+      <c r="AA33">
+        <v>64.38</v>
+      </c>
+      <c r="AB33">
+        <v>73.06</v>
+      </c>
+      <c r="AC33">
+        <v>3246.55</v>
+      </c>
+      <c r="AD33">
+        <v>45.53</v>
+      </c>
+      <c r="AE33">
+        <v>57.13</v>
+      </c>
+      <c r="AF33">
+        <v>69.34</v>
+      </c>
+      <c r="AG33">
+        <v>3104.05</v>
+      </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="E34">
         <v>779.1</v>
@@ -2652,19 +4236,67 @@
       <c r="Q34">
         <v>812</v>
       </c>
+      <c r="R34">
+        <v>68.52</v>
+      </c>
+      <c r="S34">
+        <v>80.23999999999999</v>
+      </c>
+      <c r="T34">
+        <v>67.73</v>
+      </c>
+      <c r="U34">
+        <v>819.45</v>
+      </c>
+      <c r="V34">
+        <v>64.11</v>
+      </c>
+      <c r="W34">
+        <v>79.56999999999999</v>
+      </c>
+      <c r="X34">
+        <v>67.18000000000001</v>
+      </c>
+      <c r="Y34">
+        <v>805.25</v>
+      </c>
+      <c r="Z34">
+        <v>50.54</v>
+      </c>
+      <c r="AA34">
+        <v>69.7</v>
+      </c>
+      <c r="AB34">
+        <v>64.81</v>
+      </c>
+      <c r="AC34">
+        <v>750.3</v>
+      </c>
+      <c r="AD34">
+        <v>52.3</v>
+      </c>
+      <c r="AE34">
+        <v>71.12</v>
+      </c>
+      <c r="AF34">
+        <v>65.27</v>
+      </c>
+      <c r="AG34">
+        <v>759.15</v>
+      </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E35">
         <v>8.449999999999999</v>
@@ -2705,19 +4337,67 @@
       <c r="Q35">
         <v>8.050000000000001</v>
       </c>
+      <c r="R35">
+        <v>46.93</v>
+      </c>
+      <c r="S35">
+        <v>53.41</v>
+      </c>
+      <c r="T35">
+        <v>44.97</v>
+      </c>
+      <c r="U35">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="V35">
+        <v>47.85</v>
+      </c>
+      <c r="W35">
+        <v>53.85</v>
+      </c>
+      <c r="X35">
+        <v>45.12</v>
+      </c>
+      <c r="Y35">
+        <v>8.1</v>
+      </c>
+      <c r="Z35">
+        <v>39.67</v>
+      </c>
+      <c r="AA35">
+        <v>49.04</v>
+      </c>
+      <c r="AB35">
+        <v>43.77</v>
+      </c>
+      <c r="AC35">
+        <v>7.55</v>
+      </c>
+      <c r="AD35">
+        <v>42.55</v>
+      </c>
+      <c r="AE35">
+        <v>50.26</v>
+      </c>
+      <c r="AF35">
+        <v>44.13</v>
+      </c>
+      <c r="AG35">
+        <v>7.7</v>
+      </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E36">
         <v>2551.75</v>
@@ -2758,19 +4438,67 @@
       <c r="Q36">
         <v>2628.6</v>
       </c>
+      <c r="R36">
+        <v>65.09</v>
+      </c>
+      <c r="S36">
+        <v>63.9</v>
+      </c>
+      <c r="T36">
+        <v>69.84999999999999</v>
+      </c>
+      <c r="U36">
+        <v>2650.65</v>
+      </c>
+      <c r="V36">
+        <v>62.72</v>
+      </c>
+      <c r="W36">
+        <v>63.22</v>
+      </c>
+      <c r="X36">
+        <v>69.53</v>
+      </c>
+      <c r="Y36">
+        <v>2630.8</v>
+      </c>
+      <c r="Z36">
+        <v>59.36</v>
+      </c>
+      <c r="AA36">
+        <v>61.42</v>
+      </c>
+      <c r="AB36">
+        <v>69.06</v>
+      </c>
+      <c r="AC36">
+        <v>2602.2</v>
+      </c>
+      <c r="AD36">
+        <v>55.82</v>
+      </c>
+      <c r="AE36">
+        <v>59.54</v>
+      </c>
+      <c r="AF36">
+        <v>68.53</v>
+      </c>
+      <c r="AG36">
+        <v>2570.7</v>
+      </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E37">
         <v>736.25</v>
@@ -2811,19 +4539,67 @@
       <c r="Q37">
         <v>814.75</v>
       </c>
+      <c r="R37">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="S37">
+        <v>81.78</v>
+      </c>
+      <c r="T37">
+        <v>81.25</v>
+      </c>
+      <c r="U37">
+        <v>823</v>
+      </c>
+      <c r="V37">
+        <v>69.53</v>
+      </c>
+      <c r="W37">
+        <v>81.81</v>
+      </c>
+      <c r="X37">
+        <v>81.27</v>
+      </c>
+      <c r="Y37">
+        <v>823.6</v>
+      </c>
+      <c r="Z37">
+        <v>52.29</v>
+      </c>
+      <c r="AA37">
+        <v>68.2</v>
+      </c>
+      <c r="AB37">
+        <v>78.67</v>
+      </c>
+      <c r="AC37">
+        <v>744.65</v>
+      </c>
+      <c r="AD37">
+        <v>49.99</v>
+      </c>
+      <c r="AE37">
+        <v>66.3</v>
+      </c>
+      <c r="AF37">
+        <v>78.15000000000001</v>
+      </c>
+      <c r="AG37">
+        <v>731.05</v>
+      </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:33">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E38">
         <v>610.75</v>
@@ -2864,19 +4640,67 @@
       <c r="Q38">
         <v>621.05</v>
       </c>
+      <c r="R38">
+        <v>55.47</v>
+      </c>
+      <c r="S38">
+        <v>58.84</v>
+      </c>
+      <c r="T38">
+        <v>62.07</v>
+      </c>
+      <c r="U38">
+        <v>614.25</v>
+      </c>
+      <c r="V38">
+        <v>63.8</v>
+      </c>
+      <c r="W38">
+        <v>62.37</v>
+      </c>
+      <c r="X38">
+        <v>63.96</v>
+      </c>
+      <c r="Y38">
+        <v>636.75</v>
+      </c>
+      <c r="Z38">
+        <v>55.2</v>
+      </c>
+      <c r="AA38">
+        <v>58.21</v>
+      </c>
+      <c r="AB38">
+        <v>62.52</v>
+      </c>
+      <c r="AC38">
+        <v>619.35</v>
+      </c>
+      <c r="AD38">
+        <v>58</v>
+      </c>
+      <c r="AE38">
+        <v>60.05</v>
+      </c>
+      <c r="AF38">
+        <v>63.19</v>
+      </c>
+      <c r="AG38">
+        <v>627.35</v>
+      </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:33">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="E39">
         <v>863.05</v>
@@ -2917,19 +4741,67 @@
       <c r="Q39">
         <v>874.85</v>
       </c>
+      <c r="R39">
+        <v>76.48</v>
+      </c>
+      <c r="S39">
+        <v>80.64</v>
+      </c>
+      <c r="T39">
+        <v>74.47</v>
+      </c>
+      <c r="U39">
+        <v>918.4</v>
+      </c>
+      <c r="V39">
+        <v>71.41</v>
+      </c>
+      <c r="W39">
+        <v>79.83</v>
+      </c>
+      <c r="X39">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="Y39">
+        <v>899.5</v>
+      </c>
+      <c r="Z39">
+        <v>60.45</v>
+      </c>
+      <c r="AA39">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="AB39">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="AC39">
+        <v>851.55</v>
+      </c>
+      <c r="AD39">
+        <v>63.87</v>
+      </c>
+      <c r="AE39">
+        <v>76.12</v>
+      </c>
+      <c r="AF39">
+        <v>73.25</v>
+      </c>
+      <c r="AG39">
+        <v>879</v>
+      </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:33">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E40">
         <v>1646.75</v>
@@ -2969,6 +4841,54 @@
       </c>
       <c r="Q40">
         <v>1697.95</v>
+      </c>
+      <c r="R40">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="S40">
+        <v>84.12</v>
+      </c>
+      <c r="T40">
+        <v>90.62</v>
+      </c>
+      <c r="U40">
+        <v>1712.1</v>
+      </c>
+      <c r="V40">
+        <v>65.56999999999999</v>
+      </c>
+      <c r="W40">
+        <v>83.53</v>
+      </c>
+      <c r="X40">
+        <v>90.39</v>
+      </c>
+      <c r="Y40">
+        <v>1681.25</v>
+      </c>
+      <c r="Z40">
+        <v>53.05</v>
+      </c>
+      <c r="AA40">
+        <v>74.09</v>
+      </c>
+      <c r="AB40">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="AC40">
+        <v>1582.8</v>
+      </c>
+      <c r="AD40">
+        <v>53.46</v>
+      </c>
+      <c r="AE40">
+        <v>74.45999999999999</v>
+      </c>
+      <c r="AF40">
+        <v>85.38</v>
+      </c>
+      <c r="AG40">
+        <v>1587.1</v>
       </c>
     </row>
   </sheetData>

--- a/Record-Data.xlsx
+++ b/Record-Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="219">
   <si>
     <t>Daily as on Apr 1, 16:00</t>
   </si>
@@ -110,6 +110,102 @@
   </si>
   <si>
     <t>Closing as on Apr 13, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 15, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 15, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 15, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 15, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 15, 15:58</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 15, 15:58</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 15, 15:58</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 15, 15:58</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 16, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 16, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 16, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 16, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 16, 15:48</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 16, 15:48</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 16, 15:48</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 16, 15:48</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 16, 15:52</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 16, 15:52</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 16, 15:52</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 16, 15:52</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 16, 15:55</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 16, 15:55</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 16, 15:55</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 16, 15:55</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 19, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 19, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 19, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 19, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 23, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 23, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 23, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 23, 16:00</t>
   </si>
   <si>
     <t>Name</t>
@@ -932,15 +1028,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:BM40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:65">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1038,19 +1134,115 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:65">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="E2">
         <v>2021.85</v>
@@ -1139,19 +1331,67 @@
       <c r="AG2">
         <v>1931.8</v>
       </c>
+      <c r="AH2">
+        <v>39.91</v>
+      </c>
+      <c r="AI2">
+        <v>46.1</v>
+      </c>
+      <c r="AJ2">
+        <v>59.27</v>
+      </c>
+      <c r="AK2">
+        <v>1944.3</v>
+      </c>
+      <c r="AP2">
+        <v>38.6</v>
+      </c>
+      <c r="AQ2">
+        <v>45.41</v>
+      </c>
+      <c r="AR2">
+        <v>58.85</v>
+      </c>
+      <c r="AS2">
+        <v>1932.1</v>
+      </c>
+      <c r="BF2">
+        <v>35.46</v>
+      </c>
+      <c r="BG2">
+        <v>43.65</v>
+      </c>
+      <c r="BH2">
+        <v>57.82</v>
+      </c>
+      <c r="BI2">
+        <v>1901.7</v>
+      </c>
+      <c r="BJ2">
+        <v>36.19</v>
+      </c>
+      <c r="BK2">
+        <v>43.8</v>
+      </c>
+      <c r="BL2">
+        <v>57.91</v>
+      </c>
+      <c r="BM2">
+        <v>1904.35</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:65">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="E3">
         <v>307.75</v>
@@ -1240,19 +1480,67 @@
       <c r="AG3">
         <v>302.85</v>
       </c>
+      <c r="AH3">
+        <v>48.52</v>
+      </c>
+      <c r="AI3">
+        <v>64.61</v>
+      </c>
+      <c r="AJ3">
+        <v>64.47</v>
+      </c>
+      <c r="AK3">
+        <v>303.5</v>
+      </c>
+      <c r="AP3">
+        <v>51.69</v>
+      </c>
+      <c r="AQ3">
+        <v>66.91</v>
+      </c>
+      <c r="AR3">
+        <v>65.09</v>
+      </c>
+      <c r="AS3">
+        <v>310</v>
+      </c>
+      <c r="BF3">
+        <v>47.52</v>
+      </c>
+      <c r="BG3">
+        <v>63.68</v>
+      </c>
+      <c r="BH3">
+        <v>64.23</v>
+      </c>
+      <c r="BI3">
+        <v>301.4</v>
+      </c>
+      <c r="BJ3">
+        <v>44.06</v>
+      </c>
+      <c r="BK3">
+        <v>61.14</v>
+      </c>
+      <c r="BL3">
+        <v>62.95</v>
+      </c>
+      <c r="BM3">
+        <v>294</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:65">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="E4">
         <v>5272.15</v>
@@ -1341,19 +1629,67 @@
       <c r="AG4">
         <v>4728.75</v>
       </c>
+      <c r="AH4">
+        <v>35.11</v>
+      </c>
+      <c r="AI4">
+        <v>47.2</v>
+      </c>
+      <c r="AJ4">
+        <v>58.77</v>
+      </c>
+      <c r="AK4">
+        <v>4660.3</v>
+      </c>
+      <c r="AP4">
+        <v>34.11</v>
+      </c>
+      <c r="AQ4">
+        <v>46.49</v>
+      </c>
+      <c r="AR4">
+        <v>58.33</v>
+      </c>
+      <c r="AS4">
+        <v>4616.6</v>
+      </c>
+      <c r="BF4">
+        <v>31.13</v>
+      </c>
+      <c r="BG4">
+        <v>44.26</v>
+      </c>
+      <c r="BH4">
+        <v>56.99</v>
+      </c>
+      <c r="BI4">
+        <v>4479.6</v>
+      </c>
+      <c r="BJ4">
+        <v>39.42</v>
+      </c>
+      <c r="BK4">
+        <v>47.48</v>
+      </c>
+      <c r="BL4">
+        <v>58.85</v>
+      </c>
+      <c r="BM4">
+        <v>4667.8</v>
+      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:65">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="E5">
         <v>9789.5</v>
@@ -1442,19 +1778,67 @@
       <c r="AG5">
         <v>9806.700000000001</v>
       </c>
+      <c r="AH5">
+        <v>52.77</v>
+      </c>
+      <c r="AI5">
+        <v>60.78</v>
+      </c>
+      <c r="AJ5">
+        <v>63.38</v>
+      </c>
+      <c r="AK5">
+        <v>9739.700000000001</v>
+      </c>
+      <c r="AP5">
+        <v>54.43</v>
+      </c>
+      <c r="AQ5">
+        <v>61.53</v>
+      </c>
+      <c r="AR5">
+        <v>63.72</v>
+      </c>
+      <c r="AS5">
+        <v>9824.75</v>
+      </c>
+      <c r="BF5">
+        <v>47.01</v>
+      </c>
+      <c r="BG5">
+        <v>56.66</v>
+      </c>
+      <c r="BH5">
+        <v>61.77</v>
+      </c>
+      <c r="BI5">
+        <v>9469.9</v>
+      </c>
+      <c r="BJ5">
+        <v>55.48</v>
+      </c>
+      <c r="BK5">
+        <v>62.36</v>
+      </c>
+      <c r="BL5">
+        <v>64.06999999999999</v>
+      </c>
+      <c r="BM5">
+        <v>9916.65</v>
+      </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:65">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="E6">
         <v>1486.75</v>
@@ -1543,19 +1927,67 @@
       <c r="AG6">
         <v>1400.35</v>
       </c>
+      <c r="AH6">
+        <v>43.47</v>
+      </c>
+      <c r="AI6">
+        <v>52.14</v>
+      </c>
+      <c r="AJ6">
+        <v>61.38</v>
+      </c>
+      <c r="AK6">
+        <v>1430.1</v>
+      </c>
+      <c r="AP6">
+        <v>43.28</v>
+      </c>
+      <c r="AQ6">
+        <v>52</v>
+      </c>
+      <c r="AR6">
+        <v>61.3</v>
+      </c>
+      <c r="AS6">
+        <v>1428.65</v>
+      </c>
+      <c r="BF6">
+        <v>41.12</v>
+      </c>
+      <c r="BG6">
+        <v>50.26</v>
+      </c>
+      <c r="BH6">
+        <v>60.36</v>
+      </c>
+      <c r="BI6">
+        <v>1412.4</v>
+      </c>
+      <c r="BJ6">
+        <v>43.06</v>
+      </c>
+      <c r="BK6">
+        <v>50.44</v>
+      </c>
+      <c r="BL6">
+        <v>60.46</v>
+      </c>
+      <c r="BM6">
+        <v>1414.15</v>
+      </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:65">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="E7">
         <v>691</v>
@@ -1644,19 +2076,67 @@
       <c r="AG7">
         <v>706.1</v>
       </c>
+      <c r="AH7">
+        <v>49.58</v>
+      </c>
+      <c r="AI7">
+        <v>57.52</v>
+      </c>
+      <c r="AJ7">
+        <v>64.66</v>
+      </c>
+      <c r="AK7">
+        <v>694.45</v>
+      </c>
+      <c r="AP7">
+        <v>48.06</v>
+      </c>
+      <c r="AQ7">
+        <v>56.41</v>
+      </c>
+      <c r="AR7">
+        <v>64.12</v>
+      </c>
+      <c r="AS7">
+        <v>690.65</v>
+      </c>
+      <c r="BF7">
+        <v>39.57</v>
+      </c>
+      <c r="BG7">
+        <v>49.71</v>
+      </c>
+      <c r="BH7">
+        <v>60.83</v>
+      </c>
+      <c r="BI7">
+        <v>665.95</v>
+      </c>
+      <c r="BJ7">
+        <v>48.18</v>
+      </c>
+      <c r="BK7">
+        <v>55.12</v>
+      </c>
+      <c r="BL7">
+        <v>63.52</v>
+      </c>
+      <c r="BM7">
+        <v>686.35</v>
+      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:65">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="E8">
         <v>2963.35</v>
@@ -1745,19 +2225,67 @@
       <c r="AG8">
         <v>2873</v>
       </c>
+      <c r="AH8">
+        <v>51.32</v>
+      </c>
+      <c r="AI8">
+        <v>54.73</v>
+      </c>
+      <c r="AJ8">
+        <v>60.58</v>
+      </c>
+      <c r="AK8">
+        <v>2949.5</v>
+      </c>
+      <c r="AP8">
+        <v>49.76</v>
+      </c>
+      <c r="AQ8">
+        <v>53.86</v>
+      </c>
+      <c r="AR8">
+        <v>60.23</v>
+      </c>
+      <c r="AS8">
+        <v>2929.8</v>
+      </c>
+      <c r="BF8">
+        <v>42.04</v>
+      </c>
+      <c r="BG8">
+        <v>49.12</v>
+      </c>
+      <c r="BH8">
+        <v>57.47</v>
+      </c>
+      <c r="BI8">
+        <v>2819.35</v>
+      </c>
+      <c r="BJ8">
+        <v>43.5</v>
+      </c>
+      <c r="BK8">
+        <v>49.24</v>
+      </c>
+      <c r="BL8">
+        <v>57.55</v>
+      </c>
+      <c r="BM8">
+        <v>2822.4</v>
+      </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:65">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="E9">
         <v>6923.9</v>
@@ -1846,19 +2374,67 @@
       <c r="AG9">
         <v>6815.8</v>
       </c>
+      <c r="AH9">
+        <v>39.39</v>
+      </c>
+      <c r="AI9">
+        <v>42.29</v>
+      </c>
+      <c r="AJ9">
+        <v>49.06</v>
+      </c>
+      <c r="AK9">
+        <v>6644.25</v>
+      </c>
+      <c r="AP9">
+        <v>39.56</v>
+      </c>
+      <c r="AQ9">
+        <v>42.34</v>
+      </c>
+      <c r="AR9">
+        <v>49.09</v>
+      </c>
+      <c r="AS9">
+        <v>6648.1</v>
+      </c>
+      <c r="BF9">
+        <v>35.84</v>
+      </c>
+      <c r="BG9">
+        <v>40.42</v>
+      </c>
+      <c r="BH9">
+        <v>47.98</v>
+      </c>
+      <c r="BI9">
+        <v>6511.75</v>
+      </c>
+      <c r="BJ9">
+        <v>42.98</v>
+      </c>
+      <c r="BK9">
+        <v>42.9</v>
+      </c>
+      <c r="BL9">
+        <v>49.32</v>
+      </c>
+      <c r="BM9">
+        <v>6676.1</v>
+      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:65">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E10">
         <v>3743.05</v>
@@ -1947,19 +2523,67 @@
       <c r="AG10">
         <v>3602.45</v>
       </c>
+      <c r="AH10">
+        <v>43.69</v>
+      </c>
+      <c r="AI10">
+        <v>51.59</v>
+      </c>
+      <c r="AJ10">
+        <v>59.23</v>
+      </c>
+      <c r="AK10">
+        <v>3597.5</v>
+      </c>
+      <c r="AP10">
+        <v>46.53</v>
+      </c>
+      <c r="AQ10">
+        <v>52.94</v>
+      </c>
+      <c r="AR10">
+        <v>60.05</v>
+      </c>
+      <c r="AS10">
+        <v>3634.65</v>
+      </c>
+      <c r="BF10">
+        <v>39.62</v>
+      </c>
+      <c r="BG10">
+        <v>48.55</v>
+      </c>
+      <c r="BH10">
+        <v>57.51</v>
+      </c>
+      <c r="BI10">
+        <v>3515.55</v>
+      </c>
+      <c r="BJ10">
+        <v>50.39</v>
+      </c>
+      <c r="BK10">
+        <v>54.26</v>
+      </c>
+      <c r="BL10">
+        <v>60.88</v>
+      </c>
+      <c r="BM10">
+        <v>3672.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:65">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E11">
         <v>57.05</v>
@@ -2048,33 +2672,81 @@
       <c r="AG11">
         <v>54.05</v>
       </c>
+      <c r="AL11">
+        <v>39.81</v>
+      </c>
+      <c r="AM11">
+        <v>55.8</v>
+      </c>
+      <c r="AN11">
+        <v>58.42</v>
+      </c>
+      <c r="AO11">
+        <v>52.45</v>
+      </c>
+      <c r="AP11">
+        <v>42.73</v>
+      </c>
+      <c r="AQ11">
+        <v>57.81</v>
+      </c>
+      <c r="AR11">
+        <v>59.45</v>
+      </c>
+      <c r="AS11">
+        <v>53.65</v>
+      </c>
+      <c r="BF11">
+        <v>37.87</v>
+      </c>
+      <c r="BG11">
+        <v>52.77</v>
+      </c>
+      <c r="BH11">
+        <v>56.97</v>
+      </c>
+      <c r="BI11">
+        <v>50.7</v>
+      </c>
+      <c r="BJ11">
+        <v>39.1</v>
+      </c>
+      <c r="BK11">
+        <v>53.4</v>
+      </c>
+      <c r="BL11">
+        <v>57.29</v>
+      </c>
+      <c r="BM11">
+        <v>51.1</v>
+      </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:65">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:65">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="E13">
         <v>299.95</v>
@@ -2163,19 +2835,67 @@
       <c r="AG13">
         <v>309.75</v>
       </c>
+      <c r="AH13">
+        <v>52.71</v>
+      </c>
+      <c r="AI13">
+        <v>58.81</v>
+      </c>
+      <c r="AJ13">
+        <v>51.84</v>
+      </c>
+      <c r="AK13">
+        <v>316.85</v>
+      </c>
+      <c r="AP13">
+        <v>52.75</v>
+      </c>
+      <c r="AQ13">
+        <v>58.84</v>
+      </c>
+      <c r="AR13">
+        <v>51.85</v>
+      </c>
+      <c r="AS13">
+        <v>316.95</v>
+      </c>
+      <c r="BF13">
+        <v>47.86</v>
+      </c>
+      <c r="BG13">
+        <v>55.71</v>
+      </c>
+      <c r="BH13">
+        <v>51</v>
+      </c>
+      <c r="BI13">
+        <v>305.5</v>
+      </c>
+      <c r="BJ13">
+        <v>46.27</v>
+      </c>
+      <c r="BK13">
+        <v>54.48</v>
+      </c>
+      <c r="BL13">
+        <v>50.63</v>
+      </c>
+      <c r="BM13">
+        <v>300.65</v>
+      </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:65">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="E14">
         <v>198.7</v>
@@ -2264,19 +2984,67 @@
       <c r="AG14">
         <v>189.7</v>
       </c>
+      <c r="AH14">
+        <v>52.2</v>
+      </c>
+      <c r="AI14">
+        <v>61.64</v>
+      </c>
+      <c r="AJ14">
+        <v>64.92</v>
+      </c>
+      <c r="AK14">
+        <v>200.4</v>
+      </c>
+      <c r="AP14">
+        <v>54.28</v>
+      </c>
+      <c r="AQ14">
+        <v>63.81</v>
+      </c>
+      <c r="AR14">
+        <v>65.58</v>
+      </c>
+      <c r="AS14">
+        <v>204.05</v>
+      </c>
+      <c r="BF14">
+        <v>51.85</v>
+      </c>
+      <c r="BG14">
+        <v>61.39</v>
+      </c>
+      <c r="BH14">
+        <v>64.92</v>
+      </c>
+      <c r="BI14">
+        <v>200.4</v>
+      </c>
+      <c r="BJ14">
+        <v>51.6</v>
+      </c>
+      <c r="BK14">
+        <v>61.93</v>
+      </c>
+      <c r="BL14">
+        <v>65.08</v>
+      </c>
+      <c r="BM14">
+        <v>201.25</v>
+      </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:65">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="E15">
         <v>1580.9</v>
@@ -2365,19 +3133,67 @@
       <c r="AG15">
         <v>2064.7</v>
       </c>
+      <c r="AH15">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="AI15">
+        <v>77.25</v>
+      </c>
+      <c r="AJ15">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="AK15">
+        <v>2174.6</v>
+      </c>
+      <c r="AP15">
+        <v>65.66</v>
+      </c>
+      <c r="AQ15">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="AR15">
+        <v>64.81</v>
+      </c>
+      <c r="AS15">
+        <v>2143.8</v>
+      </c>
+      <c r="BF15">
+        <v>58.54</v>
+      </c>
+      <c r="BG15">
+        <v>69.77</v>
+      </c>
+      <c r="BH15">
+        <v>63.11</v>
+      </c>
+      <c r="BI15">
+        <v>1999.75</v>
+      </c>
+      <c r="BJ15">
+        <v>59.22</v>
+      </c>
+      <c r="BK15">
+        <v>71.04000000000001</v>
+      </c>
+      <c r="BL15">
+        <v>63.5</v>
+      </c>
+      <c r="BM15">
+        <v>2031.75</v>
+      </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:65">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="E16">
         <v>520.8</v>
@@ -2466,19 +3282,67 @@
       <c r="AG16">
         <v>536.15</v>
       </c>
+      <c r="AH16">
+        <v>52.15</v>
+      </c>
+      <c r="AI16">
+        <v>52.49</v>
+      </c>
+      <c r="AJ16">
+        <v>59.39</v>
+      </c>
+      <c r="AK16">
+        <v>539.35</v>
+      </c>
+      <c r="AP16">
+        <v>52.85</v>
+      </c>
+      <c r="AQ16">
+        <v>52.82</v>
+      </c>
+      <c r="AR16">
+        <v>59.52</v>
+      </c>
+      <c r="AS16">
+        <v>540.75</v>
+      </c>
+      <c r="BF16">
+        <v>45.55</v>
+      </c>
+      <c r="BG16">
+        <v>49.32</v>
+      </c>
+      <c r="BH16">
+        <v>58.14</v>
+      </c>
+      <c r="BI16">
+        <v>526.45</v>
+      </c>
+      <c r="BJ16">
+        <v>43.8</v>
+      </c>
+      <c r="BK16">
+        <v>48.45</v>
+      </c>
+      <c r="BL16">
+        <v>57.75</v>
+      </c>
+      <c r="BM16">
+        <v>522.6</v>
+      </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:65">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="E17">
         <v>132.15</v>
@@ -2567,19 +3431,67 @@
       <c r="AG17">
         <v>127.95</v>
       </c>
+      <c r="AH17">
+        <v>39.25</v>
+      </c>
+      <c r="AI17">
+        <v>45.01</v>
+      </c>
+      <c r="AJ17">
+        <v>37.87</v>
+      </c>
+      <c r="AK17">
+        <v>128.25</v>
+      </c>
+      <c r="AP17">
+        <v>38.7</v>
+      </c>
+      <c r="AQ17">
+        <v>44.78</v>
+      </c>
+      <c r="AR17">
+        <v>37.78</v>
+      </c>
+      <c r="AS17">
+        <v>127.85</v>
+      </c>
+      <c r="BF17">
+        <v>34.48</v>
+      </c>
+      <c r="BG17">
+        <v>42.83</v>
+      </c>
+      <c r="BH17">
+        <v>37.1</v>
+      </c>
+      <c r="BI17">
+        <v>124.6</v>
+      </c>
+      <c r="BJ17">
+        <v>38.49</v>
+      </c>
+      <c r="BK17">
+        <v>43.74</v>
+      </c>
+      <c r="BL17">
+        <v>37.43</v>
+      </c>
+      <c r="BM17">
+        <v>126.15</v>
+      </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:65">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="E18">
         <v>416.4</v>
@@ -2668,19 +3580,67 @@
       <c r="AG18">
         <v>418.95</v>
       </c>
+      <c r="AH18">
+        <v>52.98</v>
+      </c>
+      <c r="AI18">
+        <v>60.83</v>
+      </c>
+      <c r="AJ18">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="AK18">
+        <v>430.7</v>
+      </c>
+      <c r="AP18">
+        <v>66.09</v>
+      </c>
+      <c r="AQ18">
+        <v>70.67</v>
+      </c>
+      <c r="AR18">
+        <v>79.5</v>
+      </c>
+      <c r="AS18">
+        <v>469.2</v>
+      </c>
+      <c r="BF18">
+        <v>67</v>
+      </c>
+      <c r="BG18">
+        <v>71.23</v>
+      </c>
+      <c r="BH18">
+        <v>79.73999999999999</v>
+      </c>
+      <c r="BI18">
+        <v>472.75</v>
+      </c>
+      <c r="BJ18">
+        <v>64.17</v>
+      </c>
+      <c r="BK18">
+        <v>71.69</v>
+      </c>
+      <c r="BL18">
+        <v>79.94</v>
+      </c>
+      <c r="BM18">
+        <v>475.7</v>
+      </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:65">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="E19">
         <v>204.65</v>
@@ -2769,19 +3729,67 @@
       <c r="AG19">
         <v>171.85</v>
       </c>
+      <c r="AH19">
+        <v>26.3</v>
+      </c>
+      <c r="AI19">
+        <v>39.8</v>
+      </c>
+      <c r="AJ19">
+        <v>37.88</v>
+      </c>
+      <c r="AK19">
+        <v>164.95</v>
+      </c>
+      <c r="AP19">
+        <v>27.15</v>
+      </c>
+      <c r="AQ19">
+        <v>39.97</v>
+      </c>
+      <c r="AR19">
+        <v>37.93</v>
+      </c>
+      <c r="AS19">
+        <v>165.8</v>
+      </c>
+      <c r="BF19">
+        <v>25.32</v>
+      </c>
+      <c r="BG19">
+        <v>38.92</v>
+      </c>
+      <c r="BH19">
+        <v>37.69</v>
+      </c>
+      <c r="BI19">
+        <v>160.85</v>
+      </c>
+      <c r="BJ19">
+        <v>40.34</v>
+      </c>
+      <c r="BK19">
+        <v>43.44</v>
+      </c>
+      <c r="BL19">
+        <v>38.47</v>
+      </c>
+      <c r="BM19">
+        <v>177.1</v>
+      </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:65">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -2870,19 +3878,67 @@
       <c r="AG20">
         <v>8.949999999999999</v>
       </c>
+      <c r="AH20">
+        <v>37.63</v>
+      </c>
+      <c r="AI20">
+        <v>43.57</v>
+      </c>
+      <c r="AJ20">
+        <v>39.68</v>
+      </c>
+      <c r="AK20">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AP20">
+        <v>36.55</v>
+      </c>
+      <c r="AQ20">
+        <v>43.14</v>
+      </c>
+      <c r="AR20">
+        <v>39.51</v>
+      </c>
+      <c r="AS20">
+        <v>8.85</v>
+      </c>
+      <c r="BF20">
+        <v>32.5</v>
+      </c>
+      <c r="BG20">
+        <v>41.35</v>
+      </c>
+      <c r="BH20">
+        <v>38.88</v>
+      </c>
+      <c r="BI20">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="BJ20">
+        <v>32.5</v>
+      </c>
+      <c r="BK20">
+        <v>41.35</v>
+      </c>
+      <c r="BL20">
+        <v>38.88</v>
+      </c>
+      <c r="BM20">
+        <v>8.449999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:65">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="E21">
         <v>993.3</v>
@@ -2971,19 +4027,67 @@
       <c r="AG21">
         <v>877.4</v>
       </c>
+      <c r="AH21">
+        <v>34.21</v>
+      </c>
+      <c r="AI21">
+        <v>46.94</v>
+      </c>
+      <c r="AJ21">
+        <v>45.84</v>
+      </c>
+      <c r="AK21">
+        <v>858.35</v>
+      </c>
+      <c r="AP21">
+        <v>35.18</v>
+      </c>
+      <c r="AQ21">
+        <v>47.28</v>
+      </c>
+      <c r="AR21">
+        <v>45.96</v>
+      </c>
+      <c r="AS21">
+        <v>862.95</v>
+      </c>
+      <c r="BF21">
+        <v>31.79</v>
+      </c>
+      <c r="BG21">
+        <v>44.92</v>
+      </c>
+      <c r="BH21">
+        <v>45.17</v>
+      </c>
+      <c r="BI21">
+        <v>832</v>
+      </c>
+      <c r="BJ21">
+        <v>36.82</v>
+      </c>
+      <c r="BK21">
+        <v>46.26</v>
+      </c>
+      <c r="BL21">
+        <v>45.62</v>
+      </c>
+      <c r="BM21">
+        <v>850</v>
+      </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:65">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="E22">
         <v>93.15000000000001</v>
@@ -3072,19 +4176,67 @@
       <c r="AG22">
         <v>88.8</v>
       </c>
+      <c r="AH22">
+        <v>41.03</v>
+      </c>
+      <c r="AI22">
+        <v>46.59</v>
+      </c>
+      <c r="AJ22">
+        <v>40.53</v>
+      </c>
+      <c r="AK22">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="AP22">
+        <v>41.17</v>
+      </c>
+      <c r="AQ22">
+        <v>46.64</v>
+      </c>
+      <c r="AR22">
+        <v>40.55</v>
+      </c>
+      <c r="AS22">
+        <v>90.15000000000001</v>
+      </c>
+      <c r="BF22">
+        <v>37.21</v>
+      </c>
+      <c r="BG22">
+        <v>44.46</v>
+      </c>
+      <c r="BH22">
+        <v>39.74</v>
+      </c>
+      <c r="BI22">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="BJ22">
+        <v>37.54</v>
+      </c>
+      <c r="BK22">
+        <v>44.41</v>
+      </c>
+      <c r="BL22">
+        <v>39.72</v>
+      </c>
+      <c r="BM22">
+        <v>88.05</v>
+      </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:65">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="E23">
         <v>1751.75</v>
@@ -3173,19 +4325,67 @@
       <c r="AG23">
         <v>1611.65</v>
       </c>
+      <c r="AH23">
+        <v>36.45</v>
+      </c>
+      <c r="AI23">
+        <v>50.69</v>
+      </c>
+      <c r="AJ23">
+        <v>62.32</v>
+      </c>
+      <c r="AK23">
+        <v>1608.1</v>
+      </c>
+      <c r="AX23">
+        <v>39.01</v>
+      </c>
+      <c r="AY23">
+        <v>51.73</v>
+      </c>
+      <c r="AZ23">
+        <v>62.87</v>
+      </c>
+      <c r="BA23">
+        <v>1627.45</v>
+      </c>
+      <c r="BF23">
+        <v>37.76</v>
+      </c>
+      <c r="BG23">
+        <v>50.87</v>
+      </c>
+      <c r="BH23">
+        <v>62.45</v>
+      </c>
+      <c r="BI23">
+        <v>1612.7</v>
+      </c>
+      <c r="BJ23">
+        <v>50.34</v>
+      </c>
+      <c r="BK23">
+        <v>55.99</v>
+      </c>
+      <c r="BL23">
+        <v>65.42</v>
+      </c>
+      <c r="BM23">
+        <v>1712</v>
+      </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:65">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="E24">
         <v>220.05</v>
@@ -3274,19 +4474,67 @@
       <c r="AG24">
         <v>208.7</v>
       </c>
+      <c r="AH24">
+        <v>42.24</v>
+      </c>
+      <c r="AI24">
+        <v>50.09</v>
+      </c>
+      <c r="AJ24">
+        <v>46.04</v>
+      </c>
+      <c r="AK24">
+        <v>206.7</v>
+      </c>
+      <c r="AP24">
+        <v>44.1</v>
+      </c>
+      <c r="AQ24">
+        <v>50.59</v>
+      </c>
+      <c r="AR24">
+        <v>46.4</v>
+      </c>
+      <c r="AS24">
+        <v>207.95</v>
+      </c>
+      <c r="BF24">
+        <v>41.4</v>
+      </c>
+      <c r="BG24">
+        <v>49.58</v>
+      </c>
+      <c r="BH24">
+        <v>45.74</v>
+      </c>
+      <c r="BI24">
+        <v>205.6</v>
+      </c>
+      <c r="BJ24">
+        <v>42.3</v>
+      </c>
+      <c r="BK24">
+        <v>49.48</v>
+      </c>
+      <c r="BL24">
+        <v>45.67</v>
+      </c>
+      <c r="BM24">
+        <v>205.35</v>
+      </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:65">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="E25">
         <v>1444.6</v>
@@ -3375,19 +4623,67 @@
       <c r="AG25">
         <v>1373.7</v>
       </c>
+      <c r="AH25">
+        <v>41.82</v>
+      </c>
+      <c r="AI25">
+        <v>55.93</v>
+      </c>
+      <c r="AJ25">
+        <v>57.73</v>
+      </c>
+      <c r="AK25">
+        <v>1374.65</v>
+      </c>
+      <c r="AP25">
+        <v>39.49</v>
+      </c>
+      <c r="AQ25">
+        <v>54.51</v>
+      </c>
+      <c r="AR25">
+        <v>56.95</v>
+      </c>
+      <c r="AS25">
+        <v>1359.15</v>
+      </c>
+      <c r="BF25">
+        <v>33.22</v>
+      </c>
+      <c r="BG25">
+        <v>50.22</v>
+      </c>
+      <c r="BH25">
+        <v>54.65</v>
+      </c>
+      <c r="BI25">
+        <v>1310.45</v>
+      </c>
+      <c r="BJ25">
+        <v>37.04</v>
+      </c>
+      <c r="BK25">
+        <v>51.25</v>
+      </c>
+      <c r="BL25">
+        <v>55.22</v>
+      </c>
+      <c r="BM25">
+        <v>1322.9</v>
+      </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:65">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="E26">
         <v>204.3</v>
@@ -3476,19 +4772,67 @@
       <c r="AG26">
         <v>176.7</v>
       </c>
+      <c r="AH26">
+        <v>35.12</v>
+      </c>
+      <c r="AI26">
+        <v>47.6</v>
+      </c>
+      <c r="AJ26">
+        <v>49.06</v>
+      </c>
+      <c r="AK26">
+        <v>173.85</v>
+      </c>
+      <c r="AP26">
+        <v>34.22</v>
+      </c>
+      <c r="AQ26">
+        <v>46.92</v>
+      </c>
+      <c r="AR26">
+        <v>48.75</v>
+      </c>
+      <c r="AS26">
+        <v>171.9</v>
+      </c>
+      <c r="BF26">
+        <v>31.38</v>
+      </c>
+      <c r="BG26">
+        <v>44.65</v>
+      </c>
+      <c r="BH26">
+        <v>47.75</v>
+      </c>
+      <c r="BI26">
+        <v>165.5</v>
+      </c>
+      <c r="BJ26">
+        <v>42.87</v>
+      </c>
+      <c r="BK26">
+        <v>49.71</v>
+      </c>
+      <c r="BL26">
+        <v>49.9</v>
+      </c>
+      <c r="BM26">
+        <v>178.9</v>
+      </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:65">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="E27">
         <v>157.3</v>
@@ -3577,19 +4921,67 @@
       <c r="AG27">
         <v>148.5</v>
       </c>
+      <c r="AH27">
+        <v>36.05</v>
+      </c>
+      <c r="AI27">
+        <v>40.29</v>
+      </c>
+      <c r="AJ27">
+        <v>50.48</v>
+      </c>
+      <c r="AK27">
+        <v>145.55</v>
+      </c>
+      <c r="AP27">
+        <v>38.52</v>
+      </c>
+      <c r="AQ27">
+        <v>41.01</v>
+      </c>
+      <c r="AR27">
+        <v>50.85</v>
+      </c>
+      <c r="AS27">
+        <v>147.15</v>
+      </c>
+      <c r="BF27">
+        <v>33.94</v>
+      </c>
+      <c r="BG27">
+        <v>38.59</v>
+      </c>
+      <c r="BH27">
+        <v>49.68</v>
+      </c>
+      <c r="BI27">
+        <v>141.95</v>
+      </c>
+      <c r="BJ27">
+        <v>41.89</v>
+      </c>
+      <c r="BK27">
+        <v>40.84</v>
+      </c>
+      <c r="BL27">
+        <v>50.77</v>
+      </c>
+      <c r="BM27">
+        <v>146.8</v>
+      </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:65">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="E28">
         <v>1214.35</v>
@@ -3678,19 +5070,67 @@
       <c r="AG28">
         <v>1173.35</v>
       </c>
+      <c r="AH28">
+        <v>37.52</v>
+      </c>
+      <c r="AI28">
+        <v>45.39</v>
+      </c>
+      <c r="AJ28">
+        <v>59.5</v>
+      </c>
+      <c r="AK28">
+        <v>1153.05</v>
+      </c>
+      <c r="AP28">
+        <v>40.79</v>
+      </c>
+      <c r="AQ28">
+        <v>46.68</v>
+      </c>
+      <c r="AR28">
+        <v>60.24</v>
+      </c>
+      <c r="AS28">
+        <v>1168.1</v>
+      </c>
+      <c r="BF28">
+        <v>37.26</v>
+      </c>
+      <c r="BG28">
+        <v>44.4</v>
+      </c>
+      <c r="BH28">
+        <v>59.01</v>
+      </c>
+      <c r="BI28">
+        <v>1142.75</v>
+      </c>
+      <c r="BJ28">
+        <v>49.67</v>
+      </c>
+      <c r="BK28">
+        <v>50</v>
+      </c>
+      <c r="BL28">
+        <v>61.91</v>
+      </c>
+      <c r="BM28">
+        <v>1200.85</v>
+      </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:65">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="E29">
         <v>114.4</v>
@@ -3779,19 +5219,67 @@
       <c r="AG29">
         <v>109.95</v>
       </c>
+      <c r="AH29">
+        <v>38.88</v>
+      </c>
+      <c r="AI29">
+        <v>46.58</v>
+      </c>
+      <c r="AJ29">
+        <v>52.1</v>
+      </c>
+      <c r="AK29">
+        <v>109.45</v>
+      </c>
+      <c r="AP29">
+        <v>38.53</v>
+      </c>
+      <c r="AQ29">
+        <v>46.33</v>
+      </c>
+      <c r="AR29">
+        <v>51.95</v>
+      </c>
+      <c r="AS29">
+        <v>109.1</v>
+      </c>
+      <c r="BF29">
+        <v>34.7</v>
+      </c>
+      <c r="BG29">
+        <v>43.49</v>
+      </c>
+      <c r="BH29">
+        <v>50.36</v>
+      </c>
+      <c r="BI29">
+        <v>105.1</v>
+      </c>
+      <c r="BJ29">
+        <v>37.75</v>
+      </c>
+      <c r="BK29">
+        <v>44.66</v>
+      </c>
+      <c r="BL29">
+        <v>51.02</v>
+      </c>
+      <c r="BM29">
+        <v>106.8</v>
+      </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:65">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="E30">
         <v>883.45</v>
@@ -3880,19 +5368,67 @@
       <c r="AG30">
         <v>897.8</v>
       </c>
+      <c r="AH30">
+        <v>53.76</v>
+      </c>
+      <c r="AI30">
+        <v>56.78</v>
+      </c>
+      <c r="AJ30">
+        <v>57.23</v>
+      </c>
+      <c r="AK30">
+        <v>908.7</v>
+      </c>
+      <c r="AP30">
+        <v>55.07</v>
+      </c>
+      <c r="AQ30">
+        <v>57.71</v>
+      </c>
+      <c r="AR30">
+        <v>57.56</v>
+      </c>
+      <c r="AS30">
+        <v>914.2</v>
+      </c>
+      <c r="BF30">
+        <v>52.74</v>
+      </c>
+      <c r="BG30">
+        <v>55.97</v>
+      </c>
+      <c r="BH30">
+        <v>57.08</v>
+      </c>
+      <c r="BI30">
+        <v>906.25</v>
+      </c>
+      <c r="BJ30">
+        <v>56.89</v>
+      </c>
+      <c r="BK30">
+        <v>59.1</v>
+      </c>
+      <c r="BL30">
+        <v>58.08</v>
+      </c>
+      <c r="BM30">
+        <v>922.85</v>
+      </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:65">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="E31">
         <v>370.65</v>
@@ -3981,19 +5517,67 @@
       <c r="AG31">
         <v>341</v>
       </c>
+      <c r="AH31">
+        <v>40.68</v>
+      </c>
+      <c r="AI31">
+        <v>57.71</v>
+      </c>
+      <c r="AJ31">
+        <v>58.67</v>
+      </c>
+      <c r="AK31">
+        <v>342.7</v>
+      </c>
+      <c r="AP31">
+        <v>39.5</v>
+      </c>
+      <c r="AQ31">
+        <v>56.87</v>
+      </c>
+      <c r="AR31">
+        <v>58.28</v>
+      </c>
+      <c r="AS31">
+        <v>339.9</v>
+      </c>
+      <c r="BF31">
+        <v>36</v>
+      </c>
+      <c r="BG31">
+        <v>54.2</v>
+      </c>
+      <c r="BH31">
+        <v>57.08</v>
+      </c>
+      <c r="BI31">
+        <v>331.15</v>
+      </c>
+      <c r="BJ31">
+        <v>40.2</v>
+      </c>
+      <c r="BK31">
+        <v>55.78</v>
+      </c>
+      <c r="BL31">
+        <v>57.8</v>
+      </c>
+      <c r="BM31">
+        <v>336.45</v>
+      </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:65">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="E32">
         <v>105.05</v>
@@ -4082,19 +5666,67 @@
       <c r="AG32">
         <v>95.84999999999999</v>
       </c>
+      <c r="AH32">
+        <v>40.25</v>
+      </c>
+      <c r="AI32">
+        <v>58.31</v>
+      </c>
+      <c r="AJ32">
+        <v>64.54000000000001</v>
+      </c>
+      <c r="AK32">
+        <v>94.15000000000001</v>
+      </c>
+      <c r="AP32">
+        <v>45.21</v>
+      </c>
+      <c r="AQ32">
+        <v>61.33</v>
+      </c>
+      <c r="AR32">
+        <v>66.61</v>
+      </c>
+      <c r="AS32">
+        <v>97.15000000000001</v>
+      </c>
+      <c r="BF32">
+        <v>41.11</v>
+      </c>
+      <c r="BG32">
+        <v>57.74</v>
+      </c>
+      <c r="BH32">
+        <v>64.31</v>
+      </c>
+      <c r="BI32">
+        <v>93.8</v>
+      </c>
+      <c r="BJ32">
+        <v>44.61</v>
+      </c>
+      <c r="BK32">
+        <v>59.67</v>
+      </c>
+      <c r="BL32">
+        <v>65.56</v>
+      </c>
+      <c r="BM32">
+        <v>95.65000000000001</v>
+      </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:65">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="E33">
         <v>3165</v>
@@ -4183,19 +5815,67 @@
       <c r="AG33">
         <v>3104.05</v>
       </c>
+      <c r="AH33">
+        <v>54.66</v>
+      </c>
+      <c r="AI33">
+        <v>62.83</v>
+      </c>
+      <c r="AJ33">
+        <v>72.67</v>
+      </c>
+      <c r="AK33">
+        <v>3218.95</v>
+      </c>
+      <c r="AP33">
+        <v>52.69</v>
+      </c>
+      <c r="AQ33">
+        <v>61.56</v>
+      </c>
+      <c r="AR33">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="AS33">
+        <v>3195.15</v>
+      </c>
+      <c r="BF33">
+        <v>49.97</v>
+      </c>
+      <c r="BG33">
+        <v>59.74</v>
+      </c>
+      <c r="BH33">
+        <v>71.45999999999999</v>
+      </c>
+      <c r="BI33">
+        <v>3161.8</v>
+      </c>
+      <c r="BJ33">
+        <v>45.72</v>
+      </c>
+      <c r="BK33">
+        <v>57.08</v>
+      </c>
+      <c r="BL33">
+        <v>69.53</v>
+      </c>
+      <c r="BM33">
+        <v>3109.5</v>
+      </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:65">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="E34">
         <v>779.1</v>
@@ -4284,19 +5964,67 @@
       <c r="AG34">
         <v>759.15</v>
       </c>
+      <c r="AH34">
+        <v>50.09</v>
+      </c>
+      <c r="AI34">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="AJ34">
+        <v>64.7</v>
+      </c>
+      <c r="AK34">
+        <v>748.95</v>
+      </c>
+      <c r="BB34">
+        <v>51</v>
+      </c>
+      <c r="BC34">
+        <v>70.14</v>
+      </c>
+      <c r="BD34">
+        <v>65</v>
+      </c>
+      <c r="BE34">
+        <v>753.1</v>
+      </c>
+      <c r="BF34">
+        <v>46.44</v>
+      </c>
+      <c r="BG34">
+        <v>66.73</v>
+      </c>
+      <c r="BH34">
+        <v>63.35</v>
+      </c>
+      <c r="BI34">
+        <v>732.2</v>
+      </c>
+      <c r="BJ34">
+        <v>45.49</v>
+      </c>
+      <c r="BK34">
+        <v>65.8</v>
+      </c>
+      <c r="BL34">
+        <v>62.87</v>
+      </c>
+      <c r="BM34">
+        <v>726.15</v>
+      </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:65">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="E35">
         <v>8.449999999999999</v>
@@ -4385,19 +6113,67 @@
       <c r="AG35">
         <v>7.7</v>
       </c>
+      <c r="AH35">
+        <v>39.19</v>
+      </c>
+      <c r="AI35">
+        <v>48.26</v>
+      </c>
+      <c r="AJ35">
+        <v>43.54</v>
+      </c>
+      <c r="AK35">
+        <v>7.45</v>
+      </c>
+      <c r="AT35">
+        <v>45.67</v>
+      </c>
+      <c r="AU35">
+        <v>51.12</v>
+      </c>
+      <c r="AV35">
+        <v>44.36</v>
+      </c>
+      <c r="AW35">
+        <v>7.8</v>
+      </c>
+      <c r="BF35">
+        <v>40.37</v>
+      </c>
+      <c r="BG35">
+        <v>47.64</v>
+      </c>
+      <c r="BH35">
+        <v>43.43</v>
+      </c>
+      <c r="BI35">
+        <v>7.4</v>
+      </c>
+      <c r="BJ35">
+        <v>38.96</v>
+      </c>
+      <c r="BK35">
+        <v>46.84</v>
+      </c>
+      <c r="BL35">
+        <v>43.2</v>
+      </c>
+      <c r="BM35">
+        <v>7.3</v>
+      </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:65">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E36">
         <v>2551.75</v>
@@ -4486,19 +6262,67 @@
       <c r="AG36">
         <v>2570.7</v>
       </c>
+      <c r="AH36">
+        <v>57.3</v>
+      </c>
+      <c r="AI36">
+        <v>60.54</v>
+      </c>
+      <c r="AJ36">
+        <v>68.81999999999999</v>
+      </c>
+      <c r="AK36">
+        <v>2587.7</v>
+      </c>
+      <c r="AP36">
+        <v>63.23</v>
+      </c>
+      <c r="AQ36">
+        <v>64.42</v>
+      </c>
+      <c r="AR36">
+        <v>70.05</v>
+      </c>
+      <c r="AS36">
+        <v>2663.7</v>
+      </c>
+      <c r="BF36">
+        <v>53.55</v>
+      </c>
+      <c r="BG36">
+        <v>58.66</v>
+      </c>
+      <c r="BH36">
+        <v>68.55</v>
+      </c>
+      <c r="BI36">
+        <v>2571.9</v>
+      </c>
+      <c r="BJ36">
+        <v>48.68</v>
+      </c>
+      <c r="BK36">
+        <v>55.73</v>
+      </c>
+      <c r="BL36">
+        <v>67.22</v>
+      </c>
+      <c r="BM36">
+        <v>2517.95</v>
+      </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:65">
       <c r="A37" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="E37">
         <v>736.25</v>
@@ -4587,19 +6411,67 @@
       <c r="AG37">
         <v>731.05</v>
       </c>
+      <c r="AH37">
+        <v>53.14</v>
+      </c>
+      <c r="AI37">
+        <v>69.03</v>
+      </c>
+      <c r="AJ37">
+        <v>78.88</v>
+      </c>
+      <c r="AK37">
+        <v>750.35</v>
+      </c>
+      <c r="AP37">
+        <v>53.98</v>
+      </c>
+      <c r="AQ37">
+        <v>69.8</v>
+      </c>
+      <c r="AR37">
+        <v>79.06999999999999</v>
+      </c>
+      <c r="AS37">
+        <v>755.5</v>
+      </c>
+      <c r="BF37">
+        <v>47.83</v>
+      </c>
+      <c r="BG37">
+        <v>64.61</v>
+      </c>
+      <c r="BH37">
+        <v>77.75</v>
+      </c>
+      <c r="BI37">
+        <v>720.95</v>
+      </c>
+      <c r="BJ37">
+        <v>48.66</v>
+      </c>
+      <c r="BK37">
+        <v>65.23</v>
+      </c>
+      <c r="BL37">
+        <v>77.92</v>
+      </c>
+      <c r="BM37">
+        <v>725.35</v>
+      </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:65">
       <c r="A38" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E38">
         <v>610.75</v>
@@ -4688,19 +6560,67 @@
       <c r="AG38">
         <v>627.35</v>
       </c>
+      <c r="AH38">
+        <v>59.99</v>
+      </c>
+      <c r="AI38">
+        <v>61.49</v>
+      </c>
+      <c r="AJ38">
+        <v>63.68</v>
+      </c>
+      <c r="AK38">
+        <v>633.25</v>
+      </c>
+      <c r="AP38">
+        <v>63.98</v>
+      </c>
+      <c r="AQ38">
+        <v>63.75</v>
+      </c>
+      <c r="AR38">
+        <v>64.69</v>
+      </c>
+      <c r="AS38">
+        <v>646.05</v>
+      </c>
+      <c r="BF38">
+        <v>61.21</v>
+      </c>
+      <c r="BG38">
+        <v>62.32</v>
+      </c>
+      <c r="BH38">
+        <v>64.27</v>
+      </c>
+      <c r="BI38">
+        <v>640.65</v>
+      </c>
+      <c r="BJ38">
+        <v>58.79</v>
+      </c>
+      <c r="BK38">
+        <v>61.63</v>
+      </c>
+      <c r="BL38">
+        <v>64.06</v>
+      </c>
+      <c r="BM38">
+        <v>637.95</v>
+      </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:65">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="D39" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="E39">
         <v>863.05</v>
@@ -4789,19 +6709,67 @@
       <c r="AG39">
         <v>879</v>
       </c>
+      <c r="AH39">
+        <v>66.08</v>
+      </c>
+      <c r="AI39">
+        <v>79.59</v>
+      </c>
+      <c r="AJ39">
+        <v>73.86</v>
+      </c>
+      <c r="AK39">
+        <v>898.2</v>
+      </c>
+      <c r="AP39">
+        <v>64.31999999999999</v>
+      </c>
+      <c r="AQ39">
+        <v>78.11</v>
+      </c>
+      <c r="AR39">
+        <v>73.61</v>
+      </c>
+      <c r="AS39">
+        <v>890.25</v>
+      </c>
+      <c r="BF39">
+        <v>63.82</v>
+      </c>
+      <c r="BG39">
+        <v>77.68000000000001</v>
+      </c>
+      <c r="BH39">
+        <v>73.54000000000001</v>
+      </c>
+      <c r="BI39">
+        <v>888.05</v>
+      </c>
+      <c r="BJ39">
+        <v>68.67</v>
+      </c>
+      <c r="BK39">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="BL39">
+        <v>74.69</v>
+      </c>
+      <c r="BM39">
+        <v>925.6</v>
+      </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:65">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="D40" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="E40">
         <v>1646.75</v>
@@ -4889,6 +6857,54 @@
       </c>
       <c r="AG40">
         <v>1587.1</v>
+      </c>
+      <c r="AH40">
+        <v>55.55</v>
+      </c>
+      <c r="AI40">
+        <v>76.31</v>
+      </c>
+      <c r="AJ40">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="AK40">
+        <v>1608.15</v>
+      </c>
+      <c r="AP40">
+        <v>53.09</v>
+      </c>
+      <c r="AQ40">
+        <v>74.53</v>
+      </c>
+      <c r="AR40">
+        <v>85.44</v>
+      </c>
+      <c r="AS40">
+        <v>1587.95</v>
+      </c>
+      <c r="BF40">
+        <v>49.68</v>
+      </c>
+      <c r="BG40">
+        <v>71.93000000000001</v>
+      </c>
+      <c r="BH40">
+        <v>83.56</v>
+      </c>
+      <c r="BI40">
+        <v>1558.85</v>
+      </c>
+      <c r="BJ40">
+        <v>57.44</v>
+      </c>
+      <c r="BK40">
+        <v>75.73</v>
+      </c>
+      <c r="BL40">
+        <v>88.14</v>
+      </c>
+      <c r="BM40">
+        <v>1627.85</v>
       </c>
     </row>
   </sheetData>

--- a/Record-Data.xlsx
+++ b/Record-Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="235">
   <si>
     <t>Daily as on Apr 1, 16:00</t>
   </si>
@@ -206,6 +206,54 @@
   </si>
   <si>
     <t>Closing as on Apr 23, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 27, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 27, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 27, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 27, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 28, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 28, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 28, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 28, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Apr 28, 15:57</t>
+  </si>
+  <si>
+    <t>Weekly as on Apr 28, 15:57</t>
+  </si>
+  <si>
+    <t>Monthly as on Apr 28, 15:57</t>
+  </si>
+  <si>
+    <t>Closing as on Apr 28, 15:57</t>
+  </si>
+  <si>
+    <t>Daily as on May 28, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on May 28, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on May 28, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on May 28, 16:00</t>
   </si>
   <si>
     <t>Name</t>
@@ -1028,15 +1076,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM40"/>
+  <dimension ref="A1:CC40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:81">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1230,19 +1278,67 @@
       <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:65">
+    <row r="2" spans="1:81">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E2">
         <v>2021.85</v>
@@ -1379,19 +1475,55 @@
       <c r="BM2">
         <v>1904.35</v>
       </c>
+      <c r="BN2">
+        <v>51.28</v>
+      </c>
+      <c r="BO2">
+        <v>49.64</v>
+      </c>
+      <c r="BP2">
+        <v>60.86</v>
+      </c>
+      <c r="BQ2">
+        <v>1988.65</v>
+      </c>
+      <c r="BR2">
+        <v>52.56</v>
+      </c>
+      <c r="BS2">
+        <v>50.17</v>
+      </c>
+      <c r="BT2">
+        <v>61.18</v>
+      </c>
+      <c r="BU2">
+        <v>1997.3</v>
+      </c>
+      <c r="BZ2">
+        <v>68.13</v>
+      </c>
+      <c r="CA2">
+        <v>56.58</v>
+      </c>
+      <c r="CB2">
+        <v>63.46</v>
+      </c>
+      <c r="CC2">
+        <v>2094.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:65">
+    <row r="3" spans="1:81">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="E3">
         <v>307.75</v>
@@ -1528,19 +1660,55 @@
       <c r="BM3">
         <v>294</v>
       </c>
+      <c r="BN3">
+        <v>48.84</v>
+      </c>
+      <c r="BO3">
+        <v>62.76</v>
+      </c>
+      <c r="BP3">
+        <v>64.25</v>
+      </c>
+      <c r="BQ3">
+        <v>301.5</v>
+      </c>
+      <c r="BR3">
+        <v>51.49</v>
+      </c>
+      <c r="BS3">
+        <v>63.65</v>
+      </c>
+      <c r="BT3">
+        <v>64.7</v>
+      </c>
+      <c r="BU3">
+        <v>305.9</v>
+      </c>
+      <c r="BZ3">
+        <v>55.26</v>
+      </c>
+      <c r="CA3">
+        <v>66.73</v>
+      </c>
+      <c r="CB3">
+        <v>65.42</v>
+      </c>
+      <c r="CC3">
+        <v>318.75</v>
+      </c>
     </row>
-    <row r="4" spans="1:65">
+    <row r="4" spans="1:81">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E4">
         <v>5272.15</v>
@@ -1677,19 +1845,55 @@
       <c r="BM4">
         <v>4667.8</v>
       </c>
+      <c r="BN4">
+        <v>47.44</v>
+      </c>
+      <c r="BO4">
+        <v>51.22</v>
+      </c>
+      <c r="BP4">
+        <v>60.93</v>
+      </c>
+      <c r="BQ4">
+        <v>4865.05</v>
+      </c>
+      <c r="BR4">
+        <v>59.83</v>
+      </c>
+      <c r="BS4">
+        <v>57.58</v>
+      </c>
+      <c r="BT4">
+        <v>65.08</v>
+      </c>
+      <c r="BU4">
+        <v>5280.9</v>
+      </c>
+      <c r="BZ4">
+        <v>57.39</v>
+      </c>
+      <c r="CA4">
+        <v>60.73</v>
+      </c>
+      <c r="CB4">
+        <v>67.15000000000001</v>
+      </c>
+      <c r="CC4">
+        <v>5610.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:81">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E5">
         <v>9789.5</v>
@@ -1826,19 +2030,55 @@
       <c r="BM5">
         <v>9916.65</v>
       </c>
+      <c r="BN5">
+        <v>58.73</v>
+      </c>
+      <c r="BO5">
+        <v>63.97</v>
+      </c>
+      <c r="BP5">
+        <v>64.72</v>
+      </c>
+      <c r="BQ5">
+        <v>10091.35</v>
+      </c>
+      <c r="BR5">
+        <v>65.2</v>
+      </c>
+      <c r="BS5">
+        <v>67.16</v>
+      </c>
+      <c r="BT5">
+        <v>66.13</v>
+      </c>
+      <c r="BU5">
+        <v>10489.3</v>
+      </c>
+      <c r="BZ5">
+        <v>65.86</v>
+      </c>
+      <c r="CA5">
+        <v>72.03</v>
+      </c>
+      <c r="CB5">
+        <v>69.95</v>
+      </c>
+      <c r="CC5">
+        <v>11713.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:81">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E6">
         <v>1486.75</v>
@@ -1975,19 +2215,55 @@
       <c r="BM6">
         <v>1414.15</v>
       </c>
+      <c r="BN6">
+        <v>48</v>
+      </c>
+      <c r="BO6">
+        <v>53.01</v>
+      </c>
+      <c r="BP6">
+        <v>61.89</v>
+      </c>
+      <c r="BQ6">
+        <v>1438.7</v>
+      </c>
+      <c r="BR6">
+        <v>54</v>
+      </c>
+      <c r="BS6">
+        <v>56.51</v>
+      </c>
+      <c r="BT6">
+        <v>64.26000000000001</v>
+      </c>
+      <c r="BU6">
+        <v>1476.8</v>
+      </c>
+      <c r="BZ6">
+        <v>58.79</v>
+      </c>
+      <c r="CA6">
+        <v>59.38</v>
+      </c>
+      <c r="CB6">
+        <v>63.71</v>
+      </c>
+      <c r="CC6">
+        <v>1503.45</v>
+      </c>
     </row>
-    <row r="7" spans="1:65">
+    <row r="7" spans="1:81">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E7">
         <v>691</v>
@@ -2124,19 +2400,55 @@
       <c r="BM7">
         <v>686.35</v>
       </c>
+      <c r="BN7">
+        <v>45.95</v>
+      </c>
+      <c r="BO7">
+        <v>52.81</v>
+      </c>
+      <c r="BP7">
+        <v>62.49</v>
+      </c>
+      <c r="BQ7">
+        <v>678.75</v>
+      </c>
+      <c r="BR7">
+        <v>44.17</v>
+      </c>
+      <c r="BS7">
+        <v>51.08</v>
+      </c>
+      <c r="BT7">
+        <v>61.69</v>
+      </c>
+      <c r="BU7">
+        <v>672.6</v>
+      </c>
+      <c r="BZ7">
+        <v>47.6</v>
+      </c>
+      <c r="CA7">
+        <v>50.02</v>
+      </c>
+      <c r="CB7">
+        <v>61.06</v>
+      </c>
+      <c r="CC7">
+        <v>668.95</v>
+      </c>
     </row>
-    <row r="8" spans="1:65">
+    <row r="8" spans="1:81">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="E8">
         <v>2963.35</v>
@@ -2273,19 +2585,55 @@
       <c r="BM8">
         <v>2822.4</v>
       </c>
+      <c r="BN8">
+        <v>47.5</v>
+      </c>
+      <c r="BO8">
+        <v>51.04</v>
+      </c>
+      <c r="BP8">
+        <v>58.62</v>
+      </c>
+      <c r="BQ8">
+        <v>2865.15</v>
+      </c>
+      <c r="BR8">
+        <v>42.9</v>
+      </c>
+      <c r="BS8">
+        <v>48.56</v>
+      </c>
+      <c r="BT8">
+        <v>57.14</v>
+      </c>
+      <c r="BU8">
+        <v>2806</v>
+      </c>
+      <c r="BZ8">
+        <v>67.69</v>
+      </c>
+      <c r="CA8">
+        <v>56.14</v>
+      </c>
+      <c r="CB8">
+        <v>59.95</v>
+      </c>
+      <c r="CC8">
+        <v>2969.75</v>
+      </c>
     </row>
-    <row r="9" spans="1:65">
+    <row r="9" spans="1:81">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E9">
         <v>6923.9</v>
@@ -2422,19 +2770,55 @@
       <c r="BM9">
         <v>6676.1</v>
       </c>
+      <c r="BN9">
+        <v>39.33</v>
+      </c>
+      <c r="BO9">
+        <v>41.26</v>
+      </c>
+      <c r="BP9">
+        <v>48.44</v>
+      </c>
+      <c r="BQ9">
+        <v>6568.75</v>
+      </c>
+      <c r="BR9">
+        <v>39.6</v>
+      </c>
+      <c r="BS9">
+        <v>41.33</v>
+      </c>
+      <c r="BT9">
+        <v>48.48</v>
+      </c>
+      <c r="BU9">
+        <v>6573.8</v>
+      </c>
+      <c r="BZ9">
+        <v>59.66</v>
+      </c>
+      <c r="CA9">
+        <v>50.13</v>
+      </c>
+      <c r="CB9">
+        <v>51.91</v>
+      </c>
+      <c r="CC9">
+        <v>6970</v>
+      </c>
     </row>
-    <row r="10" spans="1:65">
+    <row r="10" spans="1:81">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="E10">
         <v>3743.05</v>
@@ -2571,19 +2955,55 @@
       <c r="BM10">
         <v>3672.5</v>
       </c>
+      <c r="BN10">
+        <v>57.12</v>
+      </c>
+      <c r="BO10">
+        <v>58.03</v>
+      </c>
+      <c r="BP10">
+        <v>62.47</v>
+      </c>
+      <c r="BQ10">
+        <v>3785.5</v>
+      </c>
+      <c r="BR10">
+        <v>62.41</v>
+      </c>
+      <c r="BS10">
+        <v>60.99</v>
+      </c>
+      <c r="BT10">
+        <v>63.82</v>
+      </c>
+      <c r="BU10">
+        <v>3889.75</v>
+      </c>
+      <c r="BZ10">
+        <v>69.88</v>
+      </c>
+      <c r="CA10">
+        <v>68.95999999999999</v>
+      </c>
+      <c r="CB10">
+        <v>67.61</v>
+      </c>
+      <c r="CC10">
+        <v>4199.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:65">
+    <row r="11" spans="1:81">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E11">
         <v>57.05</v>
@@ -2720,33 +3140,69 @@
       <c r="BM11">
         <v>51.1</v>
       </c>
+      <c r="BN11">
+        <v>45.49</v>
+      </c>
+      <c r="BO11">
+        <v>56.55</v>
+      </c>
+      <c r="BP11">
+        <v>59.19</v>
+      </c>
+      <c r="BQ11">
+        <v>53.35</v>
+      </c>
+      <c r="BR11">
+        <v>48.95</v>
+      </c>
+      <c r="BS11">
+        <v>58.18</v>
+      </c>
+      <c r="BT11">
+        <v>60.35</v>
+      </c>
+      <c r="BU11">
+        <v>54.65</v>
+      </c>
+      <c r="BZ11">
+        <v>60.11</v>
+      </c>
+      <c r="CA11">
+        <v>62.27</v>
+      </c>
+      <c r="CB11">
+        <v>63.05</v>
+      </c>
+      <c r="CC11">
+        <v>59.15</v>
+      </c>
     </row>
-    <row r="12" spans="1:65">
+    <row r="12" spans="1:81">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:65">
+    <row r="13" spans="1:81">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="E13">
         <v>299.95</v>
@@ -2883,19 +3339,55 @@
       <c r="BM13">
         <v>300.65</v>
       </c>
+      <c r="BN13">
+        <v>54.77</v>
+      </c>
+      <c r="BO13">
+        <v>58.29</v>
+      </c>
+      <c r="BP13">
+        <v>52.02</v>
+      </c>
+      <c r="BQ13">
+        <v>319.3</v>
+      </c>
+      <c r="BR13">
+        <v>54.69</v>
+      </c>
+      <c r="BS13">
+        <v>58.26</v>
+      </c>
+      <c r="BT13">
+        <v>52.01</v>
+      </c>
+      <c r="BU13">
+        <v>319.15</v>
+      </c>
+      <c r="BZ13">
+        <v>56.05</v>
+      </c>
+      <c r="CA13">
+        <v>61.14</v>
+      </c>
+      <c r="CB13">
+        <v>53.35</v>
+      </c>
+      <c r="CC13">
+        <v>336.6</v>
+      </c>
     </row>
-    <row r="14" spans="1:65">
+    <row r="14" spans="1:81">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E14">
         <v>198.7</v>
@@ -3032,19 +3524,55 @@
       <c r="BM14">
         <v>201.25</v>
       </c>
+      <c r="BN14">
+        <v>54.46</v>
+      </c>
+      <c r="BO14">
+        <v>63.68</v>
+      </c>
+      <c r="BP14">
+        <v>65.83</v>
+      </c>
+      <c r="BQ14">
+        <v>205.5</v>
+      </c>
+      <c r="BR14">
+        <v>59.09</v>
+      </c>
+      <c r="BS14">
+        <v>66.39</v>
+      </c>
+      <c r="BT14">
+        <v>67.08</v>
+      </c>
+      <c r="BU14">
+        <v>212.95</v>
+      </c>
+      <c r="BZ14">
+        <v>59.2</v>
+      </c>
+      <c r="CA14">
+        <v>66.04000000000001</v>
+      </c>
+      <c r="CB14">
+        <v>68.93000000000001</v>
+      </c>
+      <c r="CC14">
+        <v>223.85</v>
+      </c>
     </row>
-    <row r="15" spans="1:65">
+    <row r="15" spans="1:81">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E15">
         <v>1580.9</v>
@@ -3181,19 +3709,55 @@
       <c r="BM15">
         <v>2031.75</v>
       </c>
+      <c r="BN15">
+        <v>64.72</v>
+      </c>
+      <c r="BO15">
+        <v>73.59</v>
+      </c>
+      <c r="BP15">
+        <v>65.31</v>
+      </c>
+      <c r="BQ15">
+        <v>2188.9</v>
+      </c>
+      <c r="BR15">
+        <v>63.5</v>
+      </c>
+      <c r="BS15">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="BT15">
+        <v>65.09</v>
+      </c>
+      <c r="BU15">
+        <v>2168.75</v>
+      </c>
+      <c r="BZ15">
+        <v>49.18</v>
+      </c>
+      <c r="CA15">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="CB15">
+        <v>63.79</v>
+      </c>
+      <c r="CC15">
+        <v>2172.95</v>
+      </c>
     </row>
-    <row r="16" spans="1:65">
+    <row r="16" spans="1:81">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E16">
         <v>520.8</v>
@@ -3330,19 +3894,55 @@
       <c r="BM16">
         <v>522.6</v>
       </c>
+      <c r="BN16">
+        <v>50.63</v>
+      </c>
+      <c r="BO16">
+        <v>51.25</v>
+      </c>
+      <c r="BP16">
+        <v>58.91</v>
+      </c>
+      <c r="BQ16">
+        <v>534.3</v>
+      </c>
+      <c r="BR16">
+        <v>55.74</v>
+      </c>
+      <c r="BS16">
+        <v>53.42</v>
+      </c>
+      <c r="BT16">
+        <v>59.85</v>
+      </c>
+      <c r="BU16">
+        <v>544.3</v>
+      </c>
+      <c r="BZ16">
+        <v>41.28</v>
+      </c>
+      <c r="CA16">
+        <v>47.72</v>
+      </c>
+      <c r="CB16">
+        <v>57.25</v>
+      </c>
+      <c r="CC16">
+        <v>523.6</v>
+      </c>
     </row>
-    <row r="17" spans="1:65">
+    <row r="17" spans="1:81">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E17">
         <v>132.15</v>
@@ -3479,19 +4079,55 @@
       <c r="BM17">
         <v>126.15</v>
       </c>
+      <c r="BN17">
+        <v>41.9</v>
+      </c>
+      <c r="BO17">
+        <v>44.83</v>
+      </c>
+      <c r="BP17">
+        <v>37.71</v>
+      </c>
+      <c r="BQ17">
+        <v>127.5</v>
+      </c>
+      <c r="BR17">
+        <v>44.46</v>
+      </c>
+      <c r="BS17">
+        <v>45.62</v>
+      </c>
+      <c r="BT17">
+        <v>37.92</v>
+      </c>
+      <c r="BU17">
+        <v>128.5</v>
+      </c>
+      <c r="BZ17">
+        <v>57.19</v>
+      </c>
+      <c r="CA17">
+        <v>57.72</v>
+      </c>
+      <c r="CB17">
+        <v>43.96</v>
+      </c>
+      <c r="CC17">
+        <v>146.9</v>
+      </c>
     </row>
-    <row r="18" spans="1:65">
+    <row r="18" spans="1:81">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E18">
         <v>416.4</v>
@@ -3628,19 +4264,55 @@
       <c r="BM18">
         <v>475.7</v>
       </c>
+      <c r="BN18">
+        <v>66.76000000000001</v>
+      </c>
+      <c r="BO18">
+        <v>73.12</v>
+      </c>
+      <c r="BP18">
+        <v>80.55</v>
+      </c>
+      <c r="BQ18">
+        <v>485.05</v>
+      </c>
+      <c r="BR18">
+        <v>67.94</v>
+      </c>
+      <c r="BS18">
+        <v>73.73</v>
+      </c>
+      <c r="BT18">
+        <v>80.81</v>
+      </c>
+      <c r="BU18">
+        <v>489.3</v>
+      </c>
+      <c r="BZ18">
+        <v>71.12</v>
+      </c>
+      <c r="CA18">
+        <v>76.06999999999999</v>
+      </c>
+      <c r="CB18">
+        <v>83.59</v>
+      </c>
+      <c r="CC18">
+        <v>538.7</v>
+      </c>
     </row>
-    <row r="19" spans="1:65">
+    <row r="19" spans="1:81">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E19">
         <v>204.65</v>
@@ -3777,19 +4449,55 @@
       <c r="BM19">
         <v>177.1</v>
       </c>
+      <c r="BN19">
+        <v>44.45</v>
+      </c>
+      <c r="BO19">
+        <v>44.91</v>
+      </c>
+      <c r="BP19">
+        <v>38.71</v>
+      </c>
+      <c r="BQ19">
+        <v>181.95</v>
+      </c>
+      <c r="BR19">
+        <v>48.4</v>
+      </c>
+      <c r="BS19">
+        <v>46.3</v>
+      </c>
+      <c r="BT19">
+        <v>38.96</v>
+      </c>
+      <c r="BU19">
+        <v>186.8</v>
+      </c>
+      <c r="BZ19">
+        <v>71.41</v>
+      </c>
+      <c r="CA19">
+        <v>56.98</v>
+      </c>
+      <c r="CB19">
+        <v>42.08</v>
+      </c>
+      <c r="CC19">
+        <v>223.55</v>
+      </c>
     </row>
-    <row r="20" spans="1:65">
+    <row r="20" spans="1:81">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -3926,19 +4634,55 @@
       <c r="BM20">
         <v>8.449999999999999</v>
       </c>
+      <c r="BN20">
+        <v>38.65</v>
+      </c>
+      <c r="BO20">
+        <v>42.94</v>
+      </c>
+      <c r="BP20">
+        <v>39.27</v>
+      </c>
+      <c r="BQ20">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BR20">
+        <v>37.91</v>
+      </c>
+      <c r="BS20">
+        <v>42.63</v>
+      </c>
+      <c r="BT20">
+        <v>39.19</v>
+      </c>
+      <c r="BU20">
+        <v>8.65</v>
+      </c>
+      <c r="BZ20">
+        <v>51.49</v>
+      </c>
+      <c r="CA20">
+        <v>43.79</v>
+      </c>
+      <c r="CB20">
+        <v>39.63</v>
+      </c>
+      <c r="CC20">
+        <v>8.699999999999999</v>
+      </c>
     </row>
-    <row r="21" spans="1:65">
+    <row r="21" spans="1:81">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="E21">
         <v>993.3</v>
@@ -4075,19 +4819,55 @@
       <c r="BM21">
         <v>850</v>
       </c>
+      <c r="BN21">
+        <v>43.92</v>
+      </c>
+      <c r="BO21">
+        <v>49.21</v>
+      </c>
+      <c r="BP21">
+        <v>46.47</v>
+      </c>
+      <c r="BQ21">
+        <v>882.45</v>
+      </c>
+      <c r="BR21">
+        <v>52.03</v>
+      </c>
+      <c r="BS21">
+        <v>52.77</v>
+      </c>
+      <c r="BT21">
+        <v>47.68</v>
+      </c>
+      <c r="BU21">
+        <v>926.9</v>
+      </c>
+      <c r="BZ21">
+        <v>63.32</v>
+      </c>
+      <c r="CA21">
+        <v>58.99</v>
+      </c>
+      <c r="CB21">
+        <v>50.55</v>
+      </c>
+      <c r="CC21">
+        <v>1019.35</v>
+      </c>
     </row>
-    <row r="22" spans="1:65">
+    <row r="22" spans="1:81">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E22">
         <v>93.15000000000001</v>
@@ -4224,19 +5004,55 @@
       <c r="BM22">
         <v>88.05</v>
       </c>
+      <c r="BN22">
+        <v>40.63</v>
+      </c>
+      <c r="BO22">
+        <v>45.48</v>
+      </c>
+      <c r="BP22">
+        <v>40.03</v>
+      </c>
+      <c r="BQ22">
+        <v>88.84999999999999</v>
+      </c>
+      <c r="BR22">
+        <v>42.76</v>
+      </c>
+      <c r="BS22">
+        <v>46.19</v>
+      </c>
+      <c r="BT22">
+        <v>40.25</v>
+      </c>
+      <c r="BU22">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="BZ22">
+        <v>69.37</v>
+      </c>
+      <c r="CA22">
+        <v>66</v>
+      </c>
+      <c r="CB22">
+        <v>50.89</v>
+      </c>
+      <c r="CC22">
+        <v>109.85</v>
+      </c>
     </row>
-    <row r="23" spans="1:65">
+    <row r="23" spans="1:81">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="E23">
         <v>1751.75</v>
@@ -4373,19 +5189,55 @@
       <c r="BM23">
         <v>1712</v>
       </c>
+      <c r="BN23">
+        <v>58.64</v>
+      </c>
+      <c r="BO23">
+        <v>59.67</v>
+      </c>
+      <c r="BP23">
+        <v>67.45</v>
+      </c>
+      <c r="BQ23">
+        <v>1793.2</v>
+      </c>
+      <c r="BR23">
+        <v>58.89</v>
+      </c>
+      <c r="BS23">
+        <v>59.78</v>
+      </c>
+      <c r="BT23">
+        <v>67.48999999999999</v>
+      </c>
+      <c r="BU23">
+        <v>1795.85</v>
+      </c>
+      <c r="BZ23">
+        <v>62.51</v>
+      </c>
+      <c r="CA23">
+        <v>62.53</v>
+      </c>
+      <c r="CB23">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="CC23">
+        <v>1896.25</v>
+      </c>
     </row>
-    <row r="24" spans="1:65">
+    <row r="24" spans="1:81">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E24">
         <v>220.05</v>
@@ -4522,19 +5374,55 @@
       <c r="BM24">
         <v>205.35</v>
       </c>
+      <c r="BN24">
+        <v>42.43</v>
+      </c>
+      <c r="BO24">
+        <v>49.5</v>
+      </c>
+      <c r="BP24">
+        <v>45.68</v>
+      </c>
+      <c r="BQ24">
+        <v>205.4</v>
+      </c>
+      <c r="BR24">
+        <v>42.63</v>
+      </c>
+      <c r="BS24">
+        <v>49.55</v>
+      </c>
+      <c r="BT24">
+        <v>45.71</v>
+      </c>
+      <c r="BU24">
+        <v>205.5</v>
+      </c>
+      <c r="BZ24">
+        <v>59.41</v>
+      </c>
+      <c r="CA24">
+        <v>53.11</v>
+      </c>
+      <c r="CB24">
+        <v>48.32</v>
+      </c>
+      <c r="CC24">
+        <v>212.9</v>
+      </c>
     </row>
-    <row r="25" spans="1:65">
+    <row r="25" spans="1:81">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="E25">
         <v>1444.6</v>
@@ -4671,19 +5559,55 @@
       <c r="BM25">
         <v>1322.9</v>
       </c>
+      <c r="BN25">
+        <v>48.94</v>
+      </c>
+      <c r="BO25">
+        <v>55.79</v>
+      </c>
+      <c r="BP25">
+        <v>58.03</v>
+      </c>
+      <c r="BQ25">
+        <v>1380.65</v>
+      </c>
+      <c r="BR25">
+        <v>48.12</v>
+      </c>
+      <c r="BS25">
+        <v>55.45</v>
+      </c>
+      <c r="BT25">
+        <v>57.79</v>
+      </c>
+      <c r="BU25">
+        <v>1375.9</v>
+      </c>
+      <c r="BZ25">
+        <v>66.56999999999999</v>
+      </c>
+      <c r="CA25">
+        <v>63.48</v>
+      </c>
+      <c r="CB25">
+        <v>60.98</v>
+      </c>
+      <c r="CC25">
+        <v>1478.1</v>
+      </c>
     </row>
-    <row r="26" spans="1:65">
+    <row r="26" spans="1:81">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="E26">
         <v>204.3</v>
@@ -4820,19 +5744,55 @@
       <c r="BM26">
         <v>178.9</v>
       </c>
+      <c r="BN26">
+        <v>36.35</v>
+      </c>
+      <c r="BO26">
+        <v>44.68</v>
+      </c>
+      <c r="BP26">
+        <v>47.67</v>
+      </c>
+      <c r="BQ26">
+        <v>165</v>
+      </c>
+      <c r="BR26">
+        <v>38.42</v>
+      </c>
+      <c r="BS26">
+        <v>45.51</v>
+      </c>
+      <c r="BT26">
+        <v>48.06</v>
+      </c>
+      <c r="BU26">
+        <v>167.5</v>
+      </c>
+      <c r="BZ26">
+        <v>46.52</v>
+      </c>
+      <c r="CA26">
+        <v>44.27</v>
+      </c>
+      <c r="CB26">
+        <v>46.86</v>
+      </c>
+      <c r="CC26">
+        <v>159.75</v>
+      </c>
     </row>
-    <row r="27" spans="1:65">
+    <row r="27" spans="1:81">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="E27">
         <v>157.3</v>
@@ -4969,19 +5929,55 @@
       <c r="BM27">
         <v>146.8</v>
       </c>
+      <c r="BN27">
+        <v>42.77</v>
+      </c>
+      <c r="BO27">
+        <v>41.22</v>
+      </c>
+      <c r="BP27">
+        <v>50.88</v>
+      </c>
+      <c r="BQ27">
+        <v>147.3</v>
+      </c>
+      <c r="BR27">
+        <v>45.28</v>
+      </c>
+      <c r="BS27">
+        <v>42.33</v>
+      </c>
+      <c r="BT27">
+        <v>51.23</v>
+      </c>
+      <c r="BU27">
+        <v>148.8</v>
+      </c>
+      <c r="BZ27">
+        <v>52.49</v>
+      </c>
+      <c r="CA27">
+        <v>48.25</v>
+      </c>
+      <c r="CB27">
+        <v>52.95</v>
+      </c>
+      <c r="CC27">
+        <v>156.3</v>
+      </c>
     </row>
-    <row r="28" spans="1:65">
+    <row r="28" spans="1:81">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="E28">
         <v>1214.35</v>
@@ -5118,19 +6114,55 @@
       <c r="BM28">
         <v>1200.85</v>
       </c>
+      <c r="BN28">
+        <v>45.63</v>
+      </c>
+      <c r="BO28">
+        <v>47.6</v>
+      </c>
+      <c r="BP28">
+        <v>60.65</v>
+      </c>
+      <c r="BQ28">
+        <v>1176.25</v>
+      </c>
+      <c r="BR28">
+        <v>45.96</v>
+      </c>
+      <c r="BS28">
+        <v>47.75</v>
+      </c>
+      <c r="BT28">
+        <v>60.73</v>
+      </c>
+      <c r="BU28">
+        <v>1177.85</v>
+      </c>
+      <c r="BZ28">
+        <v>59.57</v>
+      </c>
+      <c r="CA28">
+        <v>55.7</v>
+      </c>
+      <c r="CB28">
+        <v>63.23</v>
+      </c>
+      <c r="CC28">
+        <v>1266.2</v>
+      </c>
     </row>
-    <row r="29" spans="1:65">
+    <row r="29" spans="1:81">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="E29">
         <v>114.4</v>
@@ -5267,19 +6299,55 @@
       <c r="BM29">
         <v>106.8</v>
       </c>
+      <c r="BN29">
+        <v>41.16</v>
+      </c>
+      <c r="BO29">
+        <v>46.21</v>
+      </c>
+      <c r="BP29">
+        <v>51.71</v>
+      </c>
+      <c r="BQ29">
+        <v>108.5</v>
+      </c>
+      <c r="BR29">
+        <v>40.39</v>
+      </c>
+      <c r="BS29">
+        <v>45.71</v>
+      </c>
+      <c r="BT29">
+        <v>51.48</v>
+      </c>
+      <c r="BU29">
+        <v>107.95</v>
+      </c>
+      <c r="BZ29">
+        <v>63.07</v>
+      </c>
+      <c r="CA29">
+        <v>56.58</v>
+      </c>
+      <c r="CB29">
+        <v>56.17</v>
+      </c>
+      <c r="CC29">
+        <v>120.5</v>
+      </c>
     </row>
-    <row r="30" spans="1:65">
+    <row r="30" spans="1:81">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E30">
         <v>883.45</v>
@@ -5416,19 +6484,55 @@
       <c r="BM30">
         <v>922.85</v>
       </c>
+      <c r="BN30">
+        <v>56.91</v>
+      </c>
+      <c r="BO30">
+        <v>60.06</v>
+      </c>
+      <c r="BP30">
+        <v>58.43</v>
+      </c>
+      <c r="BQ30">
+        <v>928.75</v>
+      </c>
+      <c r="BR30">
+        <v>57.32</v>
+      </c>
+      <c r="BS30">
+        <v>60.32</v>
+      </c>
+      <c r="BT30">
+        <v>58.52</v>
+      </c>
+      <c r="BU30">
+        <v>930.4</v>
+      </c>
+      <c r="BZ30">
+        <v>57.08</v>
+      </c>
+      <c r="CA30">
+        <v>63.47</v>
+      </c>
+      <c r="CB30">
+        <v>61.24</v>
+      </c>
+      <c r="CC30">
+        <v>976.85</v>
+      </c>
     </row>
-    <row r="31" spans="1:65">
+    <row r="31" spans="1:81">
       <c r="A31" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="E31">
         <v>370.65</v>
@@ -5565,19 +6669,55 @@
       <c r="BM31">
         <v>336.45</v>
       </c>
+      <c r="BN31">
+        <v>50.71</v>
+      </c>
+      <c r="BO31">
+        <v>59.75</v>
+      </c>
+      <c r="BP31">
+        <v>60.18</v>
+      </c>
+      <c r="BQ31">
+        <v>353.05</v>
+      </c>
+      <c r="BR31">
+        <v>56.07</v>
+      </c>
+      <c r="BS31">
+        <v>61.88</v>
+      </c>
+      <c r="BT31">
+        <v>61.76</v>
+      </c>
+      <c r="BU31">
+        <v>363.4</v>
+      </c>
+      <c r="BZ31">
+        <v>76.61</v>
+      </c>
+      <c r="CA31">
+        <v>72.63</v>
+      </c>
+      <c r="CB31">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="CC31">
+        <v>422.05</v>
+      </c>
     </row>
-    <row r="32" spans="1:65">
+    <row r="32" spans="1:81">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E32">
         <v>105.05</v>
@@ -5714,19 +6854,55 @@
       <c r="BM32">
         <v>95.65000000000001</v>
       </c>
+      <c r="BN32">
+        <v>48.91</v>
+      </c>
+      <c r="BO32">
+        <v>61.43</v>
+      </c>
+      <c r="BP32">
+        <v>67.22</v>
+      </c>
+      <c r="BQ32">
+        <v>98</v>
+      </c>
+      <c r="BV32">
+        <v>48.82</v>
+      </c>
+      <c r="BW32">
+        <v>61.39</v>
+      </c>
+      <c r="BX32">
+        <v>67.18000000000001</v>
+      </c>
+      <c r="BY32">
+        <v>97.95</v>
+      </c>
+      <c r="BZ32">
+        <v>54.21</v>
+      </c>
+      <c r="CA32">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="CB32">
+        <v>70.11</v>
+      </c>
+      <c r="CC32">
+        <v>105.35</v>
+      </c>
     </row>
-    <row r="33" spans="1:65">
+    <row r="33" spans="1:81">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="E33">
         <v>3165</v>
@@ -5863,19 +7039,55 @@
       <c r="BM33">
         <v>3109.5</v>
       </c>
+      <c r="BN33">
+        <v>48.24</v>
+      </c>
+      <c r="BO33">
+        <v>57.95</v>
+      </c>
+      <c r="BP33">
+        <v>70.34999999999999</v>
+      </c>
+      <c r="BQ33">
+        <v>3132</v>
+      </c>
+      <c r="BR33">
+        <v>47.47</v>
+      </c>
+      <c r="BS33">
+        <v>57.65</v>
+      </c>
+      <c r="BT33">
+        <v>70.06</v>
+      </c>
+      <c r="BU33">
+        <v>3124.1</v>
+      </c>
+      <c r="BZ33">
+        <v>54.14</v>
+      </c>
+      <c r="CA33">
+        <v>57.14</v>
+      </c>
+      <c r="CB33">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="CC33">
+        <v>3143.6</v>
+      </c>
     </row>
-    <row r="34" spans="1:65">
+    <row r="34" spans="1:81">
       <c r="A34" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D34" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="E34">
         <v>779.1</v>
@@ -6012,19 +7224,55 @@
       <c r="BM34">
         <v>726.15</v>
       </c>
+      <c r="BN34">
+        <v>53.86</v>
+      </c>
+      <c r="BO34">
+        <v>68.42</v>
+      </c>
+      <c r="BP34">
+        <v>65.29000000000001</v>
+      </c>
+      <c r="BQ34">
+        <v>759.7</v>
+      </c>
+      <c r="BR34">
+        <v>54.98</v>
+      </c>
+      <c r="BS34">
+        <v>68.77</v>
+      </c>
+      <c r="BT34">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="BU34">
+        <v>764.65</v>
+      </c>
+      <c r="BZ34">
+        <v>47.52</v>
+      </c>
+      <c r="CA34">
+        <v>58.52</v>
+      </c>
+      <c r="CB34">
+        <v>60.07</v>
+      </c>
+      <c r="CC34">
+        <v>708.55</v>
+      </c>
     </row>
-    <row r="35" spans="1:65">
+    <row r="35" spans="1:81">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="E35">
         <v>8.449999999999999</v>
@@ -6161,19 +7409,55 @@
       <c r="BM35">
         <v>7.3</v>
       </c>
+      <c r="BN35">
+        <v>45.44</v>
+      </c>
+      <c r="BO35">
+        <v>49.57</v>
+      </c>
+      <c r="BP35">
+        <v>43.89</v>
+      </c>
+      <c r="BQ35">
+        <v>7.6</v>
+      </c>
+      <c r="BR35">
+        <v>50.28</v>
+      </c>
+      <c r="BS35">
+        <v>51.63</v>
+      </c>
+      <c r="BT35">
+        <v>44.48</v>
+      </c>
+      <c r="BU35">
+        <v>7.85</v>
+      </c>
+      <c r="BZ35">
+        <v>76.83</v>
+      </c>
+      <c r="CA35">
+        <v>71.23999999999999</v>
+      </c>
+      <c r="CB35">
+        <v>53.3</v>
+      </c>
+      <c r="CC35">
+        <v>11.1</v>
+      </c>
     </row>
-    <row r="36" spans="1:65">
+    <row r="36" spans="1:81">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E36">
         <v>2551.75</v>
@@ -6310,19 +7594,55 @@
       <c r="BM36">
         <v>2517.95</v>
       </c>
+      <c r="BN36">
+        <v>53.96</v>
+      </c>
+      <c r="BO36">
+        <v>58.09</v>
+      </c>
+      <c r="BP36">
+        <v>68.59</v>
+      </c>
+      <c r="BQ36">
+        <v>2574.35</v>
+      </c>
+      <c r="BR36">
+        <v>57.49</v>
+      </c>
+      <c r="BS36">
+        <v>59.62</v>
+      </c>
+      <c r="BT36">
+        <v>69.27</v>
+      </c>
+      <c r="BU36">
+        <v>2614.55</v>
+      </c>
+      <c r="BZ36">
+        <v>74.98999999999999</v>
+      </c>
+      <c r="CA36">
+        <v>70.68000000000001</v>
+      </c>
+      <c r="CB36">
+        <v>74.16</v>
+      </c>
+      <c r="CC36">
+        <v>2940.7</v>
+      </c>
     </row>
-    <row r="37" spans="1:65">
+    <row r="37" spans="1:81">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E37">
         <v>736.25</v>
@@ -6459,19 +7779,55 @@
       <c r="BM37">
         <v>725.35</v>
       </c>
+      <c r="BN37">
+        <v>53.32</v>
+      </c>
+      <c r="BO37">
+        <v>67.06</v>
+      </c>
+      <c r="BP37">
+        <v>78.84</v>
+      </c>
+      <c r="BQ37">
+        <v>749.15</v>
+      </c>
+      <c r="BR37">
+        <v>52.68</v>
+      </c>
+      <c r="BS37">
+        <v>66.84999999999999</v>
+      </c>
+      <c r="BT37">
+        <v>78.73</v>
+      </c>
+      <c r="BU37">
+        <v>746.25</v>
+      </c>
+      <c r="BZ37">
+        <v>56.58</v>
+      </c>
+      <c r="CA37">
+        <v>66.75</v>
+      </c>
+      <c r="CB37">
+        <v>79.91</v>
+      </c>
+      <c r="CC37">
+        <v>776.15</v>
+      </c>
     </row>
-    <row r="38" spans="1:65">
+    <row r="38" spans="1:81">
       <c r="A38" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E38">
         <v>610.75</v>
@@ -6608,19 +7964,55 @@
       <c r="BM38">
         <v>637.95</v>
       </c>
+      <c r="BN38">
+        <v>58.89</v>
+      </c>
+      <c r="BO38">
+        <v>61.85</v>
+      </c>
+      <c r="BP38">
+        <v>64.16</v>
+      </c>
+      <c r="BQ38">
+        <v>639.25</v>
+      </c>
+      <c r="BR38">
+        <v>60.6</v>
+      </c>
+      <c r="BS38">
+        <v>62.53</v>
+      </c>
+      <c r="BT38">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="BU38">
+        <v>643.4</v>
+      </c>
+      <c r="BZ38">
+        <v>48.03</v>
+      </c>
+      <c r="CA38">
+        <v>62.93</v>
+      </c>
+      <c r="CB38">
+        <v>66.5</v>
+      </c>
+      <c r="CC38">
+        <v>669.75</v>
+      </c>
     </row>
-    <row r="39" spans="1:65">
+    <row r="39" spans="1:81">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E39">
         <v>863.05</v>
@@ -6757,19 +8149,55 @@
       <c r="BM39">
         <v>925.6</v>
       </c>
+      <c r="BN39">
+        <v>74.5</v>
+      </c>
+      <c r="BO39">
+        <v>82.2</v>
+      </c>
+      <c r="BP39">
+        <v>76.12</v>
+      </c>
+      <c r="BQ39">
+        <v>977.75</v>
+      </c>
+      <c r="BR39">
+        <v>72.69</v>
+      </c>
+      <c r="BS39">
+        <v>81.95</v>
+      </c>
+      <c r="BT39">
+        <v>75.95999999999999</v>
+      </c>
+      <c r="BU39">
+        <v>971.4</v>
+      </c>
+      <c r="BZ39">
+        <v>56.18</v>
+      </c>
+      <c r="CA39">
+        <v>77.03</v>
+      </c>
+      <c r="CB39">
+        <v>79.11</v>
+      </c>
+      <c r="CC39">
+        <v>1103.5</v>
+      </c>
     </row>
-    <row r="40" spans="1:65">
+    <row r="40" spans="1:81">
       <c r="A40" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E40">
         <v>1646.75</v>
@@ -6905,6 +8333,42 @@
       </c>
       <c r="BM40">
         <v>1627.85</v>
+      </c>
+      <c r="BN40">
+        <v>69.95999999999999</v>
+      </c>
+      <c r="BO40">
+        <v>79.73</v>
+      </c>
+      <c r="BP40">
+        <v>91.11</v>
+      </c>
+      <c r="BQ40">
+        <v>1782.55</v>
+      </c>
+      <c r="BR40">
+        <v>69.66</v>
+      </c>
+      <c r="BS40">
+        <v>79.69</v>
+      </c>
+      <c r="BT40">
+        <v>91.09</v>
+      </c>
+      <c r="BU40">
+        <v>1780.45</v>
+      </c>
+      <c r="BZ40">
+        <v>55.53</v>
+      </c>
+      <c r="CA40">
+        <v>72.69</v>
+      </c>
+      <c r="CB40">
+        <v>86.98</v>
+      </c>
+      <c r="CC40">
+        <v>1794.3</v>
       </c>
     </row>
   </sheetData>

--- a/Record-Data.xlsx
+++ b/Record-Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ40"/>
+  <dimension ref="A1:DE40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,6 +777,206 @@
       <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Closing as on May 27, 16:00</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Daily as on May 28, 15:43</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly as on May 28, 15:43</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Monthly as on May 28, 15:43</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Closing as on May 28, 15:43</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>Daily as on May 28, 15:40</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly as on May 28, 15:40</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>Monthly as on May 28, 15:40</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Closing as on May 28, 15:40</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Daily as on May 28, 15:44</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly as on May 28, 15:44</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>Monthly as on May 28, 15:44</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>Closing as on May 28, 15:44</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>Daily as on May 28, 15:42</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly as on May 28, 15:42</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>Monthly as on May 28, 15:42</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>Closing as on May 28, 15:42</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>Daily as on May 28, 15:41</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly as on May 28, 15:41</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>Monthly as on May 28, 15:41</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Closing as on May 28, 15:41</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Daily as on May 28, 15:46</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly as on May 28, 15:46</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>Monthly as on May 28, 15:46</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>Closing as on May 28, 15:46</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>Daily as on May 28, 15:45</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly as on May 28, 15:45</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Monthly as on May 28, 15:45</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>Closing as on May 28, 15:45</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>Daily as on May 28, 15:47</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly as on May 28, 15:47</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Monthly as on May 28, 15:47</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Closing as on May 28, 15:47</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Daily as on May 28, 15:48</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly as on May 28, 15:48</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>Monthly as on May 28, 15:48</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>Closing as on May 28, 15:48</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>Daily as on May 28, 15:49</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly as on May 28, 15:49</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>Monthly as on May 28, 15:49</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>Closing as on May 28, 15:49</t>
         </is>
       </c>
     </row>
@@ -964,6 +1164,54 @@
       <c r="BQ2" t="n">
         <v>1976.1</v>
       </c>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="n">
+        <v>68.13</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>56.58</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>63.46</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>2094.8</v>
+      </c>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1149,6 +1397,54 @@
       <c r="BQ3" t="n">
         <v>318.6</v>
       </c>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="n">
+        <v>55.85</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>66.73</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>65.42</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>318.75</v>
+      </c>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
+      <c r="DE3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1334,6 +1630,54 @@
       <c r="BQ4" t="n">
         <v>5682.2</v>
       </c>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="n">
+        <v>57.64</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>60.84</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>67.18000000000001</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>5610.75</v>
+      </c>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1519,6 +1863,54 @@
       <c r="BQ5" t="n">
         <v>11888.8</v>
       </c>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>11713.2</v>
+      </c>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1704,6 +2096,54 @@
       <c r="BQ6" t="n">
         <v>1482.65</v>
       </c>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="n">
+        <v>59.05</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>59.55</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>63.77</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>1503.45</v>
+      </c>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr"/>
+      <c r="DB6" t="inlineStr"/>
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr"/>
+      <c r="DE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1889,6 +2329,54 @@
       <c r="BQ7" t="n">
         <v>664.05</v>
       </c>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="n">
+        <v>47.63</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>61.06</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>668.95</v>
+      </c>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr"/>
+      <c r="CG7" t="inlineStr"/>
+      <c r="CH7" t="inlineStr"/>
+      <c r="CI7" t="inlineStr"/>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="inlineStr"/>
+      <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="inlineStr"/>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="inlineStr"/>
+      <c r="CZ7" t="inlineStr"/>
+      <c r="DA7" t="inlineStr"/>
+      <c r="DB7" t="inlineStr"/>
+      <c r="DC7" t="inlineStr"/>
+      <c r="DD7" t="inlineStr"/>
+      <c r="DE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2074,6 +2562,54 @@
       <c r="BQ8" t="n">
         <v>2839.8</v>
       </c>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>2969.75</v>
+      </c>
+      <c r="CD8" t="inlineStr"/>
+      <c r="CE8" t="inlineStr"/>
+      <c r="CF8" t="inlineStr"/>
+      <c r="CG8" t="inlineStr"/>
+      <c r="CH8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr"/>
+      <c r="CJ8" t="inlineStr"/>
+      <c r="CK8" t="inlineStr"/>
+      <c r="CL8" t="inlineStr"/>
+      <c r="CM8" t="inlineStr"/>
+      <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr"/>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr"/>
+      <c r="CW8" t="inlineStr"/>
+      <c r="CX8" t="inlineStr"/>
+      <c r="CY8" t="inlineStr"/>
+      <c r="CZ8" t="inlineStr"/>
+      <c r="DA8" t="inlineStr"/>
+      <c r="DB8" t="inlineStr"/>
+      <c r="DC8" t="inlineStr"/>
+      <c r="DD8" t="inlineStr"/>
+      <c r="DE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2259,6 +2795,54 @@
       <c r="BQ9" t="n">
         <v>6968.9</v>
       </c>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
+      <c r="CB9" t="inlineStr"/>
+      <c r="CC9" t="inlineStr"/>
+      <c r="CD9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr"/>
+      <c r="CF9" t="inlineStr"/>
+      <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="inlineStr"/>
+      <c r="CI9" t="inlineStr"/>
+      <c r="CJ9" t="inlineStr"/>
+      <c r="CK9" t="inlineStr"/>
+      <c r="CL9" t="n">
+        <v>59.36</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>50.13</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>51.91</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>6970</v>
+      </c>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr"/>
+      <c r="CW9" t="inlineStr"/>
+      <c r="CX9" t="inlineStr"/>
+      <c r="CY9" t="inlineStr"/>
+      <c r="CZ9" t="inlineStr"/>
+      <c r="DA9" t="inlineStr"/>
+      <c r="DB9" t="inlineStr"/>
+      <c r="DC9" t="inlineStr"/>
+      <c r="DD9" t="inlineStr"/>
+      <c r="DE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2444,6 +3028,54 @@
       <c r="BQ10" t="n">
         <v>4246.1</v>
       </c>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="n">
+        <v>70.27</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>69.03</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>67.65000000000001</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>4199.5</v>
+      </c>
+      <c r="BZ10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr"/>
+      <c r="CB10" t="inlineStr"/>
+      <c r="CC10" t="inlineStr"/>
+      <c r="CD10" t="inlineStr"/>
+      <c r="CE10" t="inlineStr"/>
+      <c r="CF10" t="inlineStr"/>
+      <c r="CG10" t="inlineStr"/>
+      <c r="CH10" t="inlineStr"/>
+      <c r="CI10" t="inlineStr"/>
+      <c r="CJ10" t="inlineStr"/>
+      <c r="CK10" t="inlineStr"/>
+      <c r="CL10" t="inlineStr"/>
+      <c r="CM10" t="inlineStr"/>
+      <c r="CN10" t="inlineStr"/>
+      <c r="CO10" t="inlineStr"/>
+      <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr"/>
+      <c r="CW10" t="inlineStr"/>
+      <c r="CX10" t="inlineStr"/>
+      <c r="CY10" t="inlineStr"/>
+      <c r="CZ10" t="inlineStr"/>
+      <c r="DA10" t="inlineStr"/>
+      <c r="DB10" t="inlineStr"/>
+      <c r="DC10" t="inlineStr"/>
+      <c r="DD10" t="inlineStr"/>
+      <c r="DE10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2629,6 +3261,54 @@
       <c r="BQ11" t="n">
         <v>57.9</v>
       </c>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="inlineStr"/>
+      <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="n">
+        <v>60.11</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>62.27</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>63.05</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>59.15</v>
+      </c>
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="inlineStr"/>
+      <c r="CJ11" t="inlineStr"/>
+      <c r="CK11" t="inlineStr"/>
+      <c r="CL11" t="inlineStr"/>
+      <c r="CM11" t="inlineStr"/>
+      <c r="CN11" t="inlineStr"/>
+      <c r="CO11" t="inlineStr"/>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr"/>
+      <c r="CW11" t="inlineStr"/>
+      <c r="CX11" t="inlineStr"/>
+      <c r="CY11" t="inlineStr"/>
+      <c r="CZ11" t="inlineStr"/>
+      <c r="DA11" t="inlineStr"/>
+      <c r="DB11" t="inlineStr"/>
+      <c r="DC11" t="inlineStr"/>
+      <c r="DD11" t="inlineStr"/>
+      <c r="DE11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2716,6 +3396,46 @@
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
+      <c r="BY12" t="inlineStr"/>
+      <c r="BZ12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr"/>
+      <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr"/>
+      <c r="CG12" t="inlineStr"/>
+      <c r="CH12" t="inlineStr"/>
+      <c r="CI12" t="inlineStr"/>
+      <c r="CJ12" t="inlineStr"/>
+      <c r="CK12" t="inlineStr"/>
+      <c r="CL12" t="inlineStr"/>
+      <c r="CM12" t="inlineStr"/>
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr"/>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr"/>
+      <c r="CW12" t="inlineStr"/>
+      <c r="CX12" t="inlineStr"/>
+      <c r="CY12" t="inlineStr"/>
+      <c r="CZ12" t="inlineStr"/>
+      <c r="DA12" t="inlineStr"/>
+      <c r="DB12" t="inlineStr"/>
+      <c r="DC12" t="inlineStr"/>
+      <c r="DD12" t="inlineStr"/>
+      <c r="DE12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2901,6 +3621,54 @@
       <c r="BQ13" t="n">
         <v>348.4</v>
       </c>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="n">
+        <v>55.99</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>61.12</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>53.34</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>336.6</v>
+      </c>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr"/>
+      <c r="CC13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr"/>
+      <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr"/>
+      <c r="CJ13" t="inlineStr"/>
+      <c r="CK13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr"/>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr"/>
+      <c r="CW13" t="inlineStr"/>
+      <c r="CX13" t="inlineStr"/>
+      <c r="CY13" t="inlineStr"/>
+      <c r="CZ13" t="inlineStr"/>
+      <c r="DA13" t="inlineStr"/>
+      <c r="DB13" t="inlineStr"/>
+      <c r="DC13" t="inlineStr"/>
+      <c r="DD13" t="inlineStr"/>
+      <c r="DE13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3086,6 +3854,54 @@
       <c r="BQ14" t="n">
         <v>221.8</v>
       </c>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="inlineStr"/>
+      <c r="CH14" t="inlineStr"/>
+      <c r="CI14" t="inlineStr"/>
+      <c r="CJ14" t="inlineStr"/>
+      <c r="CK14" t="inlineStr"/>
+      <c r="CL14" t="inlineStr"/>
+      <c r="CM14" t="inlineStr"/>
+      <c r="CN14" t="inlineStr"/>
+      <c r="CO14" t="inlineStr"/>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr"/>
+      <c r="CW14" t="inlineStr"/>
+      <c r="CX14" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>66.04000000000001</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>68.93000000000001</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>223.85</v>
+      </c>
+      <c r="DB14" t="inlineStr"/>
+      <c r="DC14" t="inlineStr"/>
+      <c r="DD14" t="inlineStr"/>
+      <c r="DE14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3271,6 +4087,54 @@
       <c r="BQ15" t="n">
         <v>2353.4</v>
       </c>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr"/>
+      <c r="CB15" t="inlineStr"/>
+      <c r="CC15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr"/>
+      <c r="CE15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr"/>
+      <c r="CG15" t="inlineStr"/>
+      <c r="CH15" t="inlineStr"/>
+      <c r="CI15" t="inlineStr"/>
+      <c r="CJ15" t="inlineStr"/>
+      <c r="CK15" t="inlineStr"/>
+      <c r="CL15" t="n">
+        <v>49.13</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>63.79</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>2172.95</v>
+      </c>
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr"/>
+      <c r="CS15" t="inlineStr"/>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr"/>
+      <c r="CW15" t="inlineStr"/>
+      <c r="CX15" t="inlineStr"/>
+      <c r="CY15" t="inlineStr"/>
+      <c r="CZ15" t="inlineStr"/>
+      <c r="DA15" t="inlineStr"/>
+      <c r="DB15" t="inlineStr"/>
+      <c r="DC15" t="inlineStr"/>
+      <c r="DD15" t="inlineStr"/>
+      <c r="DE15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3456,6 +4320,54 @@
       <c r="BQ16" t="n">
         <v>519.8</v>
       </c>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="inlineStr"/>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>47.91</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>57.38</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>523.6</v>
+      </c>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="inlineStr"/>
+      <c r="CL16" t="inlineStr"/>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr"/>
+      <c r="CW16" t="inlineStr"/>
+      <c r="CX16" t="inlineStr"/>
+      <c r="CY16" t="inlineStr"/>
+      <c r="CZ16" t="inlineStr"/>
+      <c r="DA16" t="inlineStr"/>
+      <c r="DB16" t="inlineStr"/>
+      <c r="DC16" t="inlineStr"/>
+      <c r="DD16" t="inlineStr"/>
+      <c r="DE16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3641,6 +4553,54 @@
       <c r="BQ17" t="n">
         <v>144.55</v>
       </c>
+      <c r="BR17" t="n">
+        <v>57.43</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>57.89</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>44.02</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr"/>
+      <c r="BY17" t="inlineStr"/>
+      <c r="BZ17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr"/>
+      <c r="CB17" t="inlineStr"/>
+      <c r="CC17" t="inlineStr"/>
+      <c r="CD17" t="inlineStr"/>
+      <c r="CE17" t="inlineStr"/>
+      <c r="CF17" t="inlineStr"/>
+      <c r="CG17" t="inlineStr"/>
+      <c r="CH17" t="inlineStr"/>
+      <c r="CI17" t="inlineStr"/>
+      <c r="CJ17" t="inlineStr"/>
+      <c r="CK17" t="inlineStr"/>
+      <c r="CL17" t="inlineStr"/>
+      <c r="CM17" t="inlineStr"/>
+      <c r="CN17" t="inlineStr"/>
+      <c r="CO17" t="inlineStr"/>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr"/>
+      <c r="CS17" t="inlineStr"/>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr"/>
+      <c r="CW17" t="inlineStr"/>
+      <c r="CX17" t="inlineStr"/>
+      <c r="CY17" t="inlineStr"/>
+      <c r="CZ17" t="inlineStr"/>
+      <c r="DA17" t="inlineStr"/>
+      <c r="DB17" t="inlineStr"/>
+      <c r="DC17" t="inlineStr"/>
+      <c r="DD17" t="inlineStr"/>
+      <c r="DE17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3826,6 +4786,54 @@
       <c r="BQ18" t="n">
         <v>540.9</v>
       </c>
+      <c r="BR18" t="inlineStr"/>
+      <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="inlineStr"/>
+      <c r="BU18" t="inlineStr"/>
+      <c r="BV18" t="inlineStr"/>
+      <c r="BW18" t="inlineStr"/>
+      <c r="BX18" t="inlineStr"/>
+      <c r="BY18" t="inlineStr"/>
+      <c r="BZ18" t="inlineStr"/>
+      <c r="CA18" t="inlineStr"/>
+      <c r="CB18" t="inlineStr"/>
+      <c r="CC18" t="inlineStr"/>
+      <c r="CD18" t="inlineStr"/>
+      <c r="CE18" t="inlineStr"/>
+      <c r="CF18" t="inlineStr"/>
+      <c r="CG18" t="inlineStr"/>
+      <c r="CH18" t="inlineStr"/>
+      <c r="CI18" t="inlineStr"/>
+      <c r="CJ18" t="inlineStr"/>
+      <c r="CK18" t="inlineStr"/>
+      <c r="CL18" t="inlineStr"/>
+      <c r="CM18" t="inlineStr"/>
+      <c r="CN18" t="inlineStr"/>
+      <c r="CO18" t="inlineStr"/>
+      <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr"/>
+      <c r="CR18" t="inlineStr"/>
+      <c r="CS18" t="inlineStr"/>
+      <c r="CT18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr"/>
+      <c r="CV18" t="inlineStr"/>
+      <c r="CW18" t="inlineStr"/>
+      <c r="CX18" t="n">
+        <v>71.12</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>76.06999999999999</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>83.59</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>538.7</v>
+      </c>
+      <c r="DB18" t="inlineStr"/>
+      <c r="DC18" t="inlineStr"/>
+      <c r="DD18" t="inlineStr"/>
+      <c r="DE18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4011,6 +5019,54 @@
       <c r="BQ19" t="n">
         <v>225.65</v>
       </c>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="inlineStr"/>
+      <c r="BV19" t="inlineStr"/>
+      <c r="BW19" t="inlineStr"/>
+      <c r="BX19" t="inlineStr"/>
+      <c r="BY19" t="inlineStr"/>
+      <c r="BZ19" t="inlineStr"/>
+      <c r="CA19" t="inlineStr"/>
+      <c r="CB19" t="inlineStr"/>
+      <c r="CC19" t="inlineStr"/>
+      <c r="CD19" t="inlineStr"/>
+      <c r="CE19" t="inlineStr"/>
+      <c r="CF19" t="inlineStr"/>
+      <c r="CG19" t="inlineStr"/>
+      <c r="CH19" t="inlineStr"/>
+      <c r="CI19" t="inlineStr"/>
+      <c r="CJ19" t="inlineStr"/>
+      <c r="CK19" t="inlineStr"/>
+      <c r="CL19" t="inlineStr"/>
+      <c r="CM19" t="inlineStr"/>
+      <c r="CN19" t="inlineStr"/>
+      <c r="CO19" t="inlineStr"/>
+      <c r="CP19" t="n">
+        <v>71.41</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>56.98</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>42.08</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>223.55</v>
+      </c>
+      <c r="CT19" t="inlineStr"/>
+      <c r="CU19" t="inlineStr"/>
+      <c r="CV19" t="inlineStr"/>
+      <c r="CW19" t="inlineStr"/>
+      <c r="CX19" t="inlineStr"/>
+      <c r="CY19" t="inlineStr"/>
+      <c r="CZ19" t="inlineStr"/>
+      <c r="DA19" t="inlineStr"/>
+      <c r="DB19" t="inlineStr"/>
+      <c r="DC19" t="inlineStr"/>
+      <c r="DD19" t="inlineStr"/>
+      <c r="DE19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4196,6 +5252,54 @@
       <c r="BQ20" t="n">
         <v>8.449999999999999</v>
       </c>
+      <c r="BR20" t="inlineStr"/>
+      <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="inlineStr"/>
+      <c r="BU20" t="inlineStr"/>
+      <c r="BV20" t="inlineStr"/>
+      <c r="BW20" t="inlineStr"/>
+      <c r="BX20" t="inlineStr"/>
+      <c r="BY20" t="inlineStr"/>
+      <c r="BZ20" t="inlineStr"/>
+      <c r="CA20" t="inlineStr"/>
+      <c r="CB20" t="inlineStr"/>
+      <c r="CC20" t="inlineStr"/>
+      <c r="CD20" t="inlineStr"/>
+      <c r="CE20" t="inlineStr"/>
+      <c r="CF20" t="inlineStr"/>
+      <c r="CG20" t="inlineStr"/>
+      <c r="CH20" t="inlineStr"/>
+      <c r="CI20" t="inlineStr"/>
+      <c r="CJ20" t="inlineStr"/>
+      <c r="CK20" t="inlineStr"/>
+      <c r="CL20" t="inlineStr"/>
+      <c r="CM20" t="inlineStr"/>
+      <c r="CN20" t="inlineStr"/>
+      <c r="CO20" t="inlineStr"/>
+      <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr"/>
+      <c r="CR20" t="inlineStr"/>
+      <c r="CS20" t="inlineStr"/>
+      <c r="CT20" t="n">
+        <v>51.49</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>43.79</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="CX20" t="inlineStr"/>
+      <c r="CY20" t="inlineStr"/>
+      <c r="CZ20" t="inlineStr"/>
+      <c r="DA20" t="inlineStr"/>
+      <c r="DB20" t="inlineStr"/>
+      <c r="DC20" t="inlineStr"/>
+      <c r="DD20" t="inlineStr"/>
+      <c r="DE20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4381,6 +5485,54 @@
       <c r="BQ21" t="n">
         <v>1006.85</v>
       </c>
+      <c r="BR21" t="inlineStr"/>
+      <c r="BS21" t="inlineStr"/>
+      <c r="BT21" t="inlineStr"/>
+      <c r="BU21" t="inlineStr"/>
+      <c r="BV21" t="inlineStr"/>
+      <c r="BW21" t="inlineStr"/>
+      <c r="BX21" t="inlineStr"/>
+      <c r="BY21" t="inlineStr"/>
+      <c r="BZ21" t="inlineStr"/>
+      <c r="CA21" t="inlineStr"/>
+      <c r="CB21" t="inlineStr"/>
+      <c r="CC21" t="inlineStr"/>
+      <c r="CD21" t="inlineStr"/>
+      <c r="CE21" t="inlineStr"/>
+      <c r="CF21" t="inlineStr"/>
+      <c r="CG21" t="inlineStr"/>
+      <c r="CH21" t="inlineStr"/>
+      <c r="CI21" t="inlineStr"/>
+      <c r="CJ21" t="inlineStr"/>
+      <c r="CK21" t="inlineStr"/>
+      <c r="CL21" t="n">
+        <v>63.32</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>58.99</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>50.55</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>1019.35</v>
+      </c>
+      <c r="CP21" t="inlineStr"/>
+      <c r="CQ21" t="inlineStr"/>
+      <c r="CR21" t="inlineStr"/>
+      <c r="CS21" t="inlineStr"/>
+      <c r="CT21" t="inlineStr"/>
+      <c r="CU21" t="inlineStr"/>
+      <c r="CV21" t="inlineStr"/>
+      <c r="CW21" t="inlineStr"/>
+      <c r="CX21" t="inlineStr"/>
+      <c r="CY21" t="inlineStr"/>
+      <c r="CZ21" t="inlineStr"/>
+      <c r="DA21" t="inlineStr"/>
+      <c r="DB21" t="inlineStr"/>
+      <c r="DC21" t="inlineStr"/>
+      <c r="DD21" t="inlineStr"/>
+      <c r="DE21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4566,6 +5718,54 @@
       <c r="BQ22" t="n">
         <v>110.25</v>
       </c>
+      <c r="BR22" t="inlineStr"/>
+      <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="inlineStr"/>
+      <c r="BU22" t="inlineStr"/>
+      <c r="BV22" t="inlineStr"/>
+      <c r="BW22" t="inlineStr"/>
+      <c r="BX22" t="inlineStr"/>
+      <c r="BY22" t="inlineStr"/>
+      <c r="BZ22" t="n">
+        <v>69.22</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>66</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>50.89</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>109.85</v>
+      </c>
+      <c r="CD22" t="inlineStr"/>
+      <c r="CE22" t="inlineStr"/>
+      <c r="CF22" t="inlineStr"/>
+      <c r="CG22" t="inlineStr"/>
+      <c r="CH22" t="inlineStr"/>
+      <c r="CI22" t="inlineStr"/>
+      <c r="CJ22" t="inlineStr"/>
+      <c r="CK22" t="inlineStr"/>
+      <c r="CL22" t="inlineStr"/>
+      <c r="CM22" t="inlineStr"/>
+      <c r="CN22" t="inlineStr"/>
+      <c r="CO22" t="inlineStr"/>
+      <c r="CP22" t="inlineStr"/>
+      <c r="CQ22" t="inlineStr"/>
+      <c r="CR22" t="inlineStr"/>
+      <c r="CS22" t="inlineStr"/>
+      <c r="CT22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr"/>
+      <c r="CV22" t="inlineStr"/>
+      <c r="CW22" t="inlineStr"/>
+      <c r="CX22" t="inlineStr"/>
+      <c r="CY22" t="inlineStr"/>
+      <c r="CZ22" t="inlineStr"/>
+      <c r="DA22" t="inlineStr"/>
+      <c r="DB22" t="inlineStr"/>
+      <c r="DC22" t="inlineStr"/>
+      <c r="DD22" t="inlineStr"/>
+      <c r="DE22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -4751,6 +5951,54 @@
       <c r="BQ23" t="n">
         <v>1928.35</v>
       </c>
+      <c r="BR23" t="inlineStr"/>
+      <c r="BS23" t="inlineStr"/>
+      <c r="BT23" t="inlineStr"/>
+      <c r="BU23" t="inlineStr"/>
+      <c r="BV23" t="inlineStr"/>
+      <c r="BW23" t="inlineStr"/>
+      <c r="BX23" t="inlineStr"/>
+      <c r="BY23" t="inlineStr"/>
+      <c r="BZ23" t="inlineStr"/>
+      <c r="CA23" t="inlineStr"/>
+      <c r="CB23" t="inlineStr"/>
+      <c r="CC23" t="inlineStr"/>
+      <c r="CD23" t="inlineStr"/>
+      <c r="CE23" t="inlineStr"/>
+      <c r="CF23" t="inlineStr"/>
+      <c r="CG23" t="inlineStr"/>
+      <c r="CH23" t="inlineStr"/>
+      <c r="CI23" t="inlineStr"/>
+      <c r="CJ23" t="inlineStr"/>
+      <c r="CK23" t="inlineStr"/>
+      <c r="CL23" t="inlineStr"/>
+      <c r="CM23" t="inlineStr"/>
+      <c r="CN23" t="inlineStr"/>
+      <c r="CO23" t="inlineStr"/>
+      <c r="CP23" t="n">
+        <v>62.51</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>62.53</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>1896.25</v>
+      </c>
+      <c r="CT23" t="inlineStr"/>
+      <c r="CU23" t="inlineStr"/>
+      <c r="CV23" t="inlineStr"/>
+      <c r="CW23" t="inlineStr"/>
+      <c r="CX23" t="inlineStr"/>
+      <c r="CY23" t="inlineStr"/>
+      <c r="CZ23" t="inlineStr"/>
+      <c r="DA23" t="inlineStr"/>
+      <c r="DB23" t="inlineStr"/>
+      <c r="DC23" t="inlineStr"/>
+      <c r="DD23" t="inlineStr"/>
+      <c r="DE23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -4936,6 +6184,54 @@
       <c r="BQ24" t="n">
         <v>211.15</v>
       </c>
+      <c r="BR24" t="inlineStr"/>
+      <c r="BS24" t="inlineStr"/>
+      <c r="BT24" t="inlineStr"/>
+      <c r="BU24" t="inlineStr"/>
+      <c r="BV24" t="inlineStr"/>
+      <c r="BW24" t="inlineStr"/>
+      <c r="BX24" t="inlineStr"/>
+      <c r="BY24" t="inlineStr"/>
+      <c r="BZ24" t="inlineStr"/>
+      <c r="CA24" t="inlineStr"/>
+      <c r="CB24" t="inlineStr"/>
+      <c r="CC24" t="inlineStr"/>
+      <c r="CD24" t="inlineStr"/>
+      <c r="CE24" t="inlineStr"/>
+      <c r="CF24" t="inlineStr"/>
+      <c r="CG24" t="inlineStr"/>
+      <c r="CH24" t="inlineStr"/>
+      <c r="CI24" t="inlineStr"/>
+      <c r="CJ24" t="inlineStr"/>
+      <c r="CK24" t="inlineStr"/>
+      <c r="CL24" t="inlineStr"/>
+      <c r="CM24" t="inlineStr"/>
+      <c r="CN24" t="inlineStr"/>
+      <c r="CO24" t="inlineStr"/>
+      <c r="CP24" t="inlineStr"/>
+      <c r="CQ24" t="inlineStr"/>
+      <c r="CR24" t="inlineStr"/>
+      <c r="CS24" t="inlineStr"/>
+      <c r="CT24" t="n">
+        <v>59.41</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>53.11</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>48.32</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>212.9</v>
+      </c>
+      <c r="CX24" t="inlineStr"/>
+      <c r="CY24" t="inlineStr"/>
+      <c r="CZ24" t="inlineStr"/>
+      <c r="DA24" t="inlineStr"/>
+      <c r="DB24" t="inlineStr"/>
+      <c r="DC24" t="inlineStr"/>
+      <c r="DD24" t="inlineStr"/>
+      <c r="DE24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -5121,6 +6417,54 @@
       <c r="BQ25" t="n">
         <v>1482.85</v>
       </c>
+      <c r="BR25" t="n">
+        <v>66.56999999999999</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>63.48</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>60.98</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>1478.1</v>
+      </c>
+      <c r="BV25" t="inlineStr"/>
+      <c r="BW25" t="inlineStr"/>
+      <c r="BX25" t="inlineStr"/>
+      <c r="BY25" t="inlineStr"/>
+      <c r="BZ25" t="inlineStr"/>
+      <c r="CA25" t="inlineStr"/>
+      <c r="CB25" t="inlineStr"/>
+      <c r="CC25" t="inlineStr"/>
+      <c r="CD25" t="inlineStr"/>
+      <c r="CE25" t="inlineStr"/>
+      <c r="CF25" t="inlineStr"/>
+      <c r="CG25" t="inlineStr"/>
+      <c r="CH25" t="inlineStr"/>
+      <c r="CI25" t="inlineStr"/>
+      <c r="CJ25" t="inlineStr"/>
+      <c r="CK25" t="inlineStr"/>
+      <c r="CL25" t="inlineStr"/>
+      <c r="CM25" t="inlineStr"/>
+      <c r="CN25" t="inlineStr"/>
+      <c r="CO25" t="inlineStr"/>
+      <c r="CP25" t="inlineStr"/>
+      <c r="CQ25" t="inlineStr"/>
+      <c r="CR25" t="inlineStr"/>
+      <c r="CS25" t="inlineStr"/>
+      <c r="CT25" t="inlineStr"/>
+      <c r="CU25" t="inlineStr"/>
+      <c r="CV25" t="inlineStr"/>
+      <c r="CW25" t="inlineStr"/>
+      <c r="CX25" t="inlineStr"/>
+      <c r="CY25" t="inlineStr"/>
+      <c r="CZ25" t="inlineStr"/>
+      <c r="DA25" t="inlineStr"/>
+      <c r="DB25" t="inlineStr"/>
+      <c r="DC25" t="inlineStr"/>
+      <c r="DD25" t="inlineStr"/>
+      <c r="DE25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -5306,6 +6650,54 @@
       <c r="BQ26" t="n">
         <v>154.5</v>
       </c>
+      <c r="BR26" t="inlineStr"/>
+      <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="inlineStr"/>
+      <c r="BU26" t="inlineStr"/>
+      <c r="BV26" t="inlineStr"/>
+      <c r="BW26" t="inlineStr"/>
+      <c r="BX26" t="inlineStr"/>
+      <c r="BY26" t="inlineStr"/>
+      <c r="BZ26" t="inlineStr"/>
+      <c r="CA26" t="inlineStr"/>
+      <c r="CB26" t="inlineStr"/>
+      <c r="CC26" t="inlineStr"/>
+      <c r="CD26" t="inlineStr"/>
+      <c r="CE26" t="inlineStr"/>
+      <c r="CF26" t="inlineStr"/>
+      <c r="CG26" t="inlineStr"/>
+      <c r="CH26" t="inlineStr"/>
+      <c r="CI26" t="inlineStr"/>
+      <c r="CJ26" t="inlineStr"/>
+      <c r="CK26" t="inlineStr"/>
+      <c r="CL26" t="n">
+        <v>46.52</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>46.86</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>159.75</v>
+      </c>
+      <c r="CP26" t="inlineStr"/>
+      <c r="CQ26" t="inlineStr"/>
+      <c r="CR26" t="inlineStr"/>
+      <c r="CS26" t="inlineStr"/>
+      <c r="CT26" t="inlineStr"/>
+      <c r="CU26" t="inlineStr"/>
+      <c r="CV26" t="inlineStr"/>
+      <c r="CW26" t="inlineStr"/>
+      <c r="CX26" t="inlineStr"/>
+      <c r="CY26" t="inlineStr"/>
+      <c r="CZ26" t="inlineStr"/>
+      <c r="DA26" t="inlineStr"/>
+      <c r="DB26" t="inlineStr"/>
+      <c r="DC26" t="inlineStr"/>
+      <c r="DD26" t="inlineStr"/>
+      <c r="DE26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -5491,6 +6883,54 @@
       <c r="BQ27" t="n">
         <v>154.2</v>
       </c>
+      <c r="BR27" t="inlineStr"/>
+      <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="inlineStr"/>
+      <c r="BU27" t="inlineStr"/>
+      <c r="BV27" t="inlineStr"/>
+      <c r="BW27" t="inlineStr"/>
+      <c r="BX27" t="inlineStr"/>
+      <c r="BY27" t="inlineStr"/>
+      <c r="BZ27" t="inlineStr"/>
+      <c r="CA27" t="inlineStr"/>
+      <c r="CB27" t="inlineStr"/>
+      <c r="CC27" t="inlineStr"/>
+      <c r="CD27" t="inlineStr"/>
+      <c r="CE27" t="inlineStr"/>
+      <c r="CF27" t="inlineStr"/>
+      <c r="CG27" t="inlineStr"/>
+      <c r="CH27" t="inlineStr"/>
+      <c r="CI27" t="inlineStr"/>
+      <c r="CJ27" t="inlineStr"/>
+      <c r="CK27" t="inlineStr"/>
+      <c r="CL27" t="inlineStr"/>
+      <c r="CM27" t="inlineStr"/>
+      <c r="CN27" t="inlineStr"/>
+      <c r="CO27" t="inlineStr"/>
+      <c r="CP27" t="inlineStr"/>
+      <c r="CQ27" t="inlineStr"/>
+      <c r="CR27" t="inlineStr"/>
+      <c r="CS27" t="inlineStr"/>
+      <c r="CT27" t="n">
+        <v>52.49</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="CX27" t="inlineStr"/>
+      <c r="CY27" t="inlineStr"/>
+      <c r="CZ27" t="inlineStr"/>
+      <c r="DA27" t="inlineStr"/>
+      <c r="DB27" t="inlineStr"/>
+      <c r="DC27" t="inlineStr"/>
+      <c r="DD27" t="inlineStr"/>
+      <c r="DE27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -5676,6 +7116,54 @@
       <c r="BQ28" t="n">
         <v>1244.15</v>
       </c>
+      <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="inlineStr"/>
+      <c r="BU28" t="inlineStr"/>
+      <c r="BV28" t="n">
+        <v>59.57</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>63.23</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>1266.2</v>
+      </c>
+      <c r="BZ28" t="inlineStr"/>
+      <c r="CA28" t="inlineStr"/>
+      <c r="CB28" t="inlineStr"/>
+      <c r="CC28" t="inlineStr"/>
+      <c r="CD28" t="inlineStr"/>
+      <c r="CE28" t="inlineStr"/>
+      <c r="CF28" t="inlineStr"/>
+      <c r="CG28" t="inlineStr"/>
+      <c r="CH28" t="inlineStr"/>
+      <c r="CI28" t="inlineStr"/>
+      <c r="CJ28" t="inlineStr"/>
+      <c r="CK28" t="inlineStr"/>
+      <c r="CL28" t="inlineStr"/>
+      <c r="CM28" t="inlineStr"/>
+      <c r="CN28" t="inlineStr"/>
+      <c r="CO28" t="inlineStr"/>
+      <c r="CP28" t="inlineStr"/>
+      <c r="CQ28" t="inlineStr"/>
+      <c r="CR28" t="inlineStr"/>
+      <c r="CS28" t="inlineStr"/>
+      <c r="CT28" t="inlineStr"/>
+      <c r="CU28" t="inlineStr"/>
+      <c r="CV28" t="inlineStr"/>
+      <c r="CW28" t="inlineStr"/>
+      <c r="CX28" t="inlineStr"/>
+      <c r="CY28" t="inlineStr"/>
+      <c r="CZ28" t="inlineStr"/>
+      <c r="DA28" t="inlineStr"/>
+      <c r="DB28" t="inlineStr"/>
+      <c r="DC28" t="inlineStr"/>
+      <c r="DD28" t="inlineStr"/>
+      <c r="DE28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -5861,6 +7349,54 @@
       <c r="BQ29" t="n">
         <v>117.1</v>
       </c>
+      <c r="BR29" t="inlineStr"/>
+      <c r="BS29" t="inlineStr"/>
+      <c r="BT29" t="inlineStr"/>
+      <c r="BU29" t="inlineStr"/>
+      <c r="BV29" t="inlineStr"/>
+      <c r="BW29" t="inlineStr"/>
+      <c r="BX29" t="inlineStr"/>
+      <c r="BY29" t="inlineStr"/>
+      <c r="BZ29" t="inlineStr"/>
+      <c r="CA29" t="inlineStr"/>
+      <c r="CB29" t="inlineStr"/>
+      <c r="CC29" t="inlineStr"/>
+      <c r="CD29" t="inlineStr"/>
+      <c r="CE29" t="inlineStr"/>
+      <c r="CF29" t="inlineStr"/>
+      <c r="CG29" t="inlineStr"/>
+      <c r="CH29" t="inlineStr"/>
+      <c r="CI29" t="inlineStr"/>
+      <c r="CJ29" t="inlineStr"/>
+      <c r="CK29" t="inlineStr"/>
+      <c r="CL29" t="inlineStr"/>
+      <c r="CM29" t="inlineStr"/>
+      <c r="CN29" t="inlineStr"/>
+      <c r="CO29" t="inlineStr"/>
+      <c r="CP29" t="inlineStr"/>
+      <c r="CQ29" t="inlineStr"/>
+      <c r="CR29" t="inlineStr"/>
+      <c r="CS29" t="inlineStr"/>
+      <c r="CT29" t="inlineStr"/>
+      <c r="CU29" t="inlineStr"/>
+      <c r="CV29" t="inlineStr"/>
+      <c r="CW29" t="inlineStr"/>
+      <c r="CX29" t="n">
+        <v>63.07</v>
+      </c>
+      <c r="CY29" t="n">
+        <v>56.58</v>
+      </c>
+      <c r="CZ29" t="n">
+        <v>56.17</v>
+      </c>
+      <c r="DA29" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="DB29" t="inlineStr"/>
+      <c r="DC29" t="inlineStr"/>
+      <c r="DD29" t="inlineStr"/>
+      <c r="DE29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -6046,6 +7582,54 @@
       <c r="BQ30" t="n">
         <v>982.1</v>
       </c>
+      <c r="BR30" t="inlineStr"/>
+      <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="inlineStr"/>
+      <c r="BU30" t="inlineStr"/>
+      <c r="BV30" t="inlineStr"/>
+      <c r="BW30" t="inlineStr"/>
+      <c r="BX30" t="inlineStr"/>
+      <c r="BY30" t="inlineStr"/>
+      <c r="BZ30" t="inlineStr"/>
+      <c r="CA30" t="inlineStr"/>
+      <c r="CB30" t="inlineStr"/>
+      <c r="CC30" t="inlineStr"/>
+      <c r="CD30" t="inlineStr"/>
+      <c r="CE30" t="inlineStr"/>
+      <c r="CF30" t="inlineStr"/>
+      <c r="CG30" t="inlineStr"/>
+      <c r="CH30" t="inlineStr"/>
+      <c r="CI30" t="inlineStr"/>
+      <c r="CJ30" t="inlineStr"/>
+      <c r="CK30" t="inlineStr"/>
+      <c r="CL30" t="n">
+        <v>57.08</v>
+      </c>
+      <c r="CM30" t="n">
+        <v>63.47</v>
+      </c>
+      <c r="CN30" t="n">
+        <v>61.24</v>
+      </c>
+      <c r="CO30" t="n">
+        <v>976.85</v>
+      </c>
+      <c r="CP30" t="inlineStr"/>
+      <c r="CQ30" t="inlineStr"/>
+      <c r="CR30" t="inlineStr"/>
+      <c r="CS30" t="inlineStr"/>
+      <c r="CT30" t="inlineStr"/>
+      <c r="CU30" t="inlineStr"/>
+      <c r="CV30" t="inlineStr"/>
+      <c r="CW30" t="inlineStr"/>
+      <c r="CX30" t="inlineStr"/>
+      <c r="CY30" t="inlineStr"/>
+      <c r="CZ30" t="inlineStr"/>
+      <c r="DA30" t="inlineStr"/>
+      <c r="DB30" t="inlineStr"/>
+      <c r="DC30" t="inlineStr"/>
+      <c r="DD30" t="inlineStr"/>
+      <c r="DE30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -6231,6 +7815,54 @@
       <c r="BQ31" t="n">
         <v>425.2</v>
       </c>
+      <c r="BR31" t="inlineStr"/>
+      <c r="BS31" t="inlineStr"/>
+      <c r="BT31" t="inlineStr"/>
+      <c r="BU31" t="inlineStr"/>
+      <c r="BV31" t="inlineStr"/>
+      <c r="BW31" t="inlineStr"/>
+      <c r="BX31" t="inlineStr"/>
+      <c r="BY31" t="inlineStr"/>
+      <c r="BZ31" t="inlineStr"/>
+      <c r="CA31" t="inlineStr"/>
+      <c r="CB31" t="inlineStr"/>
+      <c r="CC31" t="inlineStr"/>
+      <c r="CD31" t="inlineStr"/>
+      <c r="CE31" t="inlineStr"/>
+      <c r="CF31" t="inlineStr"/>
+      <c r="CG31" t="inlineStr"/>
+      <c r="CH31" t="inlineStr"/>
+      <c r="CI31" t="inlineStr"/>
+      <c r="CJ31" t="inlineStr"/>
+      <c r="CK31" t="inlineStr"/>
+      <c r="CL31" t="inlineStr"/>
+      <c r="CM31" t="inlineStr"/>
+      <c r="CN31" t="inlineStr"/>
+      <c r="CO31" t="inlineStr"/>
+      <c r="CP31" t="inlineStr"/>
+      <c r="CQ31" t="inlineStr"/>
+      <c r="CR31" t="inlineStr"/>
+      <c r="CS31" t="inlineStr"/>
+      <c r="CT31" t="inlineStr"/>
+      <c r="CU31" t="inlineStr"/>
+      <c r="CV31" t="inlineStr"/>
+      <c r="CW31" t="inlineStr"/>
+      <c r="CX31" t="n">
+        <v>76.61</v>
+      </c>
+      <c r="CY31" t="n">
+        <v>72.63</v>
+      </c>
+      <c r="CZ31" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="DA31" t="n">
+        <v>422.05</v>
+      </c>
+      <c r="DB31" t="inlineStr"/>
+      <c r="DC31" t="inlineStr"/>
+      <c r="DD31" t="inlineStr"/>
+      <c r="DE31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -6416,6 +8048,54 @@
       <c r="BQ32" t="n">
         <v>106.35</v>
       </c>
+      <c r="BR32" t="inlineStr"/>
+      <c r="BS32" t="inlineStr"/>
+      <c r="BT32" t="inlineStr"/>
+      <c r="BU32" t="inlineStr"/>
+      <c r="BV32" t="inlineStr"/>
+      <c r="BW32" t="inlineStr"/>
+      <c r="BX32" t="inlineStr"/>
+      <c r="BY32" t="inlineStr"/>
+      <c r="BZ32" t="inlineStr"/>
+      <c r="CA32" t="inlineStr"/>
+      <c r="CB32" t="inlineStr"/>
+      <c r="CC32" t="inlineStr"/>
+      <c r="CD32" t="inlineStr"/>
+      <c r="CE32" t="inlineStr"/>
+      <c r="CF32" t="inlineStr"/>
+      <c r="CG32" t="inlineStr"/>
+      <c r="CH32" t="inlineStr"/>
+      <c r="CI32" t="inlineStr"/>
+      <c r="CJ32" t="inlineStr"/>
+      <c r="CK32" t="inlineStr"/>
+      <c r="CL32" t="inlineStr"/>
+      <c r="CM32" t="inlineStr"/>
+      <c r="CN32" t="inlineStr"/>
+      <c r="CO32" t="inlineStr"/>
+      <c r="CP32" t="inlineStr"/>
+      <c r="CQ32" t="inlineStr"/>
+      <c r="CR32" t="inlineStr"/>
+      <c r="CS32" t="inlineStr"/>
+      <c r="CT32" t="inlineStr"/>
+      <c r="CU32" t="inlineStr"/>
+      <c r="CV32" t="inlineStr"/>
+      <c r="CW32" t="inlineStr"/>
+      <c r="CX32" t="n">
+        <v>54.21</v>
+      </c>
+      <c r="CY32" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="CZ32" t="n">
+        <v>70.11</v>
+      </c>
+      <c r="DA32" t="n">
+        <v>105.35</v>
+      </c>
+      <c r="DB32" t="inlineStr"/>
+      <c r="DC32" t="inlineStr"/>
+      <c r="DD32" t="inlineStr"/>
+      <c r="DE32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -6601,6 +8281,54 @@
       <c r="BQ33" t="n">
         <v>3180</v>
       </c>
+      <c r="BR33" t="inlineStr"/>
+      <c r="BS33" t="inlineStr"/>
+      <c r="BT33" t="inlineStr"/>
+      <c r="BU33" t="inlineStr"/>
+      <c r="BV33" t="inlineStr"/>
+      <c r="BW33" t="inlineStr"/>
+      <c r="BX33" t="inlineStr"/>
+      <c r="BY33" t="inlineStr"/>
+      <c r="BZ33" t="inlineStr"/>
+      <c r="CA33" t="inlineStr"/>
+      <c r="CB33" t="inlineStr"/>
+      <c r="CC33" t="inlineStr"/>
+      <c r="CD33" t="inlineStr"/>
+      <c r="CE33" t="inlineStr"/>
+      <c r="CF33" t="inlineStr"/>
+      <c r="CG33" t="inlineStr"/>
+      <c r="CH33" t="inlineStr"/>
+      <c r="CI33" t="inlineStr"/>
+      <c r="CJ33" t="inlineStr"/>
+      <c r="CK33" t="inlineStr"/>
+      <c r="CL33" t="inlineStr"/>
+      <c r="CM33" t="inlineStr"/>
+      <c r="CN33" t="inlineStr"/>
+      <c r="CO33" t="inlineStr"/>
+      <c r="CP33" t="inlineStr"/>
+      <c r="CQ33" t="inlineStr"/>
+      <c r="CR33" t="inlineStr"/>
+      <c r="CS33" t="inlineStr"/>
+      <c r="CT33" t="inlineStr"/>
+      <c r="CU33" t="inlineStr"/>
+      <c r="CV33" t="inlineStr"/>
+      <c r="CW33" t="inlineStr"/>
+      <c r="CX33" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="CY33" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="CZ33" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="DA33" t="n">
+        <v>3143.6</v>
+      </c>
+      <c r="DB33" t="inlineStr"/>
+      <c r="DC33" t="inlineStr"/>
+      <c r="DD33" t="inlineStr"/>
+      <c r="DE33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -6786,6 +8514,54 @@
       <c r="BQ34" t="n">
         <v>691.75</v>
       </c>
+      <c r="BR34" t="inlineStr"/>
+      <c r="BS34" t="inlineStr"/>
+      <c r="BT34" t="inlineStr"/>
+      <c r="BU34" t="inlineStr"/>
+      <c r="BV34" t="inlineStr"/>
+      <c r="BW34" t="inlineStr"/>
+      <c r="BX34" t="inlineStr"/>
+      <c r="BY34" t="inlineStr"/>
+      <c r="BZ34" t="inlineStr"/>
+      <c r="CA34" t="inlineStr"/>
+      <c r="CB34" t="inlineStr"/>
+      <c r="CC34" t="inlineStr"/>
+      <c r="CD34" t="inlineStr"/>
+      <c r="CE34" t="inlineStr"/>
+      <c r="CF34" t="inlineStr"/>
+      <c r="CG34" t="inlineStr"/>
+      <c r="CH34" t="inlineStr"/>
+      <c r="CI34" t="inlineStr"/>
+      <c r="CJ34" t="inlineStr"/>
+      <c r="CK34" t="inlineStr"/>
+      <c r="CL34" t="inlineStr"/>
+      <c r="CM34" t="inlineStr"/>
+      <c r="CN34" t="inlineStr"/>
+      <c r="CO34" t="inlineStr"/>
+      <c r="CP34" t="inlineStr"/>
+      <c r="CQ34" t="inlineStr"/>
+      <c r="CR34" t="inlineStr"/>
+      <c r="CS34" t="inlineStr"/>
+      <c r="CT34" t="inlineStr"/>
+      <c r="CU34" t="inlineStr"/>
+      <c r="CV34" t="inlineStr"/>
+      <c r="CW34" t="inlineStr"/>
+      <c r="CX34" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="CY34" t="n">
+        <v>58.52</v>
+      </c>
+      <c r="CZ34" t="n">
+        <v>60.07</v>
+      </c>
+      <c r="DA34" t="n">
+        <v>708.55</v>
+      </c>
+      <c r="DB34" t="inlineStr"/>
+      <c r="DC34" t="inlineStr"/>
+      <c r="DD34" t="inlineStr"/>
+      <c r="DE34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -6971,6 +8747,54 @@
       <c r="BQ35" t="n">
         <v>10.5</v>
       </c>
+      <c r="BR35" t="inlineStr"/>
+      <c r="BS35" t="inlineStr"/>
+      <c r="BT35" t="inlineStr"/>
+      <c r="BU35" t="inlineStr"/>
+      <c r="BV35" t="inlineStr"/>
+      <c r="BW35" t="inlineStr"/>
+      <c r="BX35" t="inlineStr"/>
+      <c r="BY35" t="inlineStr"/>
+      <c r="BZ35" t="inlineStr"/>
+      <c r="CA35" t="inlineStr"/>
+      <c r="CB35" t="inlineStr"/>
+      <c r="CC35" t="inlineStr"/>
+      <c r="CD35" t="inlineStr"/>
+      <c r="CE35" t="inlineStr"/>
+      <c r="CF35" t="inlineStr"/>
+      <c r="CG35" t="inlineStr"/>
+      <c r="CH35" t="inlineStr"/>
+      <c r="CI35" t="inlineStr"/>
+      <c r="CJ35" t="inlineStr"/>
+      <c r="CK35" t="inlineStr"/>
+      <c r="CL35" t="n">
+        <v>77.34</v>
+      </c>
+      <c r="CM35" t="n">
+        <v>71.23999999999999</v>
+      </c>
+      <c r="CN35" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="CO35" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="CP35" t="inlineStr"/>
+      <c r="CQ35" t="inlineStr"/>
+      <c r="CR35" t="inlineStr"/>
+      <c r="CS35" t="inlineStr"/>
+      <c r="CT35" t="inlineStr"/>
+      <c r="CU35" t="inlineStr"/>
+      <c r="CV35" t="inlineStr"/>
+      <c r="CW35" t="inlineStr"/>
+      <c r="CX35" t="inlineStr"/>
+      <c r="CY35" t="inlineStr"/>
+      <c r="CZ35" t="inlineStr"/>
+      <c r="DA35" t="inlineStr"/>
+      <c r="DB35" t="inlineStr"/>
+      <c r="DC35" t="inlineStr"/>
+      <c r="DD35" t="inlineStr"/>
+      <c r="DE35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -7156,6 +8980,54 @@
       <c r="BQ36" t="n">
         <v>2949.35</v>
       </c>
+      <c r="BR36" t="inlineStr"/>
+      <c r="BS36" t="inlineStr"/>
+      <c r="BT36" t="inlineStr"/>
+      <c r="BU36" t="inlineStr"/>
+      <c r="BV36" t="n">
+        <v>74.18000000000001</v>
+      </c>
+      <c r="BW36" t="n">
+        <v>70.55</v>
+      </c>
+      <c r="BX36" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="BY36" t="n">
+        <v>2940.7</v>
+      </c>
+      <c r="BZ36" t="inlineStr"/>
+      <c r="CA36" t="inlineStr"/>
+      <c r="CB36" t="inlineStr"/>
+      <c r="CC36" t="inlineStr"/>
+      <c r="CD36" t="inlineStr"/>
+      <c r="CE36" t="inlineStr"/>
+      <c r="CF36" t="inlineStr"/>
+      <c r="CG36" t="inlineStr"/>
+      <c r="CH36" t="inlineStr"/>
+      <c r="CI36" t="inlineStr"/>
+      <c r="CJ36" t="inlineStr"/>
+      <c r="CK36" t="inlineStr"/>
+      <c r="CL36" t="inlineStr"/>
+      <c r="CM36" t="inlineStr"/>
+      <c r="CN36" t="inlineStr"/>
+      <c r="CO36" t="inlineStr"/>
+      <c r="CP36" t="inlineStr"/>
+      <c r="CQ36" t="inlineStr"/>
+      <c r="CR36" t="inlineStr"/>
+      <c r="CS36" t="inlineStr"/>
+      <c r="CT36" t="inlineStr"/>
+      <c r="CU36" t="inlineStr"/>
+      <c r="CV36" t="inlineStr"/>
+      <c r="CW36" t="inlineStr"/>
+      <c r="CX36" t="inlineStr"/>
+      <c r="CY36" t="inlineStr"/>
+      <c r="CZ36" t="inlineStr"/>
+      <c r="DA36" t="inlineStr"/>
+      <c r="DB36" t="inlineStr"/>
+      <c r="DC36" t="inlineStr"/>
+      <c r="DD36" t="inlineStr"/>
+      <c r="DE36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -7341,6 +9213,54 @@
       <c r="BQ37" t="n">
         <v>751.4</v>
       </c>
+      <c r="BR37" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="BS37" t="n">
+        <v>66.81999999999999</v>
+      </c>
+      <c r="BT37" t="n">
+        <v>79.94</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>776.15</v>
+      </c>
+      <c r="BV37" t="inlineStr"/>
+      <c r="BW37" t="inlineStr"/>
+      <c r="BX37" t="inlineStr"/>
+      <c r="BY37" t="inlineStr"/>
+      <c r="BZ37" t="inlineStr"/>
+      <c r="CA37" t="inlineStr"/>
+      <c r="CB37" t="inlineStr"/>
+      <c r="CC37" t="inlineStr"/>
+      <c r="CD37" t="inlineStr"/>
+      <c r="CE37" t="inlineStr"/>
+      <c r="CF37" t="inlineStr"/>
+      <c r="CG37" t="inlineStr"/>
+      <c r="CH37" t="inlineStr"/>
+      <c r="CI37" t="inlineStr"/>
+      <c r="CJ37" t="inlineStr"/>
+      <c r="CK37" t="inlineStr"/>
+      <c r="CL37" t="inlineStr"/>
+      <c r="CM37" t="inlineStr"/>
+      <c r="CN37" t="inlineStr"/>
+      <c r="CO37" t="inlineStr"/>
+      <c r="CP37" t="inlineStr"/>
+      <c r="CQ37" t="inlineStr"/>
+      <c r="CR37" t="inlineStr"/>
+      <c r="CS37" t="inlineStr"/>
+      <c r="CT37" t="inlineStr"/>
+      <c r="CU37" t="inlineStr"/>
+      <c r="CV37" t="inlineStr"/>
+      <c r="CW37" t="inlineStr"/>
+      <c r="CX37" t="inlineStr"/>
+      <c r="CY37" t="inlineStr"/>
+      <c r="CZ37" t="inlineStr"/>
+      <c r="DA37" t="inlineStr"/>
+      <c r="DB37" t="inlineStr"/>
+      <c r="DC37" t="inlineStr"/>
+      <c r="DD37" t="inlineStr"/>
+      <c r="DE37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -7526,6 +9446,54 @@
       <c r="BQ38" t="n">
         <v>699.5</v>
       </c>
+      <c r="BR38" t="n">
+        <v>48.03</v>
+      </c>
+      <c r="BS38" t="n">
+        <v>62.93</v>
+      </c>
+      <c r="BT38" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>669.75</v>
+      </c>
+      <c r="BV38" t="inlineStr"/>
+      <c r="BW38" t="inlineStr"/>
+      <c r="BX38" t="inlineStr"/>
+      <c r="BY38" t="inlineStr"/>
+      <c r="BZ38" t="inlineStr"/>
+      <c r="CA38" t="inlineStr"/>
+      <c r="CB38" t="inlineStr"/>
+      <c r="CC38" t="inlineStr"/>
+      <c r="CD38" t="inlineStr"/>
+      <c r="CE38" t="inlineStr"/>
+      <c r="CF38" t="inlineStr"/>
+      <c r="CG38" t="inlineStr"/>
+      <c r="CH38" t="inlineStr"/>
+      <c r="CI38" t="inlineStr"/>
+      <c r="CJ38" t="inlineStr"/>
+      <c r="CK38" t="inlineStr"/>
+      <c r="CL38" t="inlineStr"/>
+      <c r="CM38" t="inlineStr"/>
+      <c r="CN38" t="inlineStr"/>
+      <c r="CO38" t="inlineStr"/>
+      <c r="CP38" t="inlineStr"/>
+      <c r="CQ38" t="inlineStr"/>
+      <c r="CR38" t="inlineStr"/>
+      <c r="CS38" t="inlineStr"/>
+      <c r="CT38" t="inlineStr"/>
+      <c r="CU38" t="inlineStr"/>
+      <c r="CV38" t="inlineStr"/>
+      <c r="CW38" t="inlineStr"/>
+      <c r="CX38" t="inlineStr"/>
+      <c r="CY38" t="inlineStr"/>
+      <c r="CZ38" t="inlineStr"/>
+      <c r="DA38" t="inlineStr"/>
+      <c r="DB38" t="inlineStr"/>
+      <c r="DC38" t="inlineStr"/>
+      <c r="DD38" t="inlineStr"/>
+      <c r="DE38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -7711,6 +9679,54 @@
       <c r="BQ39" t="n">
         <v>1096.65</v>
       </c>
+      <c r="BR39" t="inlineStr"/>
+      <c r="BS39" t="inlineStr"/>
+      <c r="BT39" t="inlineStr"/>
+      <c r="BU39" t="inlineStr"/>
+      <c r="BV39" t="inlineStr"/>
+      <c r="BW39" t="inlineStr"/>
+      <c r="BX39" t="inlineStr"/>
+      <c r="BY39" t="inlineStr"/>
+      <c r="BZ39" t="inlineStr"/>
+      <c r="CA39" t="inlineStr"/>
+      <c r="CB39" t="inlineStr"/>
+      <c r="CC39" t="inlineStr"/>
+      <c r="CD39" t="inlineStr"/>
+      <c r="CE39" t="inlineStr"/>
+      <c r="CF39" t="inlineStr"/>
+      <c r="CG39" t="inlineStr"/>
+      <c r="CH39" t="inlineStr"/>
+      <c r="CI39" t="inlineStr"/>
+      <c r="CJ39" t="inlineStr"/>
+      <c r="CK39" t="inlineStr"/>
+      <c r="CL39" t="inlineStr"/>
+      <c r="CM39" t="inlineStr"/>
+      <c r="CN39" t="inlineStr"/>
+      <c r="CO39" t="inlineStr"/>
+      <c r="CP39" t="inlineStr"/>
+      <c r="CQ39" t="inlineStr"/>
+      <c r="CR39" t="inlineStr"/>
+      <c r="CS39" t="inlineStr"/>
+      <c r="CT39" t="inlineStr"/>
+      <c r="CU39" t="inlineStr"/>
+      <c r="CV39" t="inlineStr"/>
+      <c r="CW39" t="inlineStr"/>
+      <c r="CX39" t="inlineStr"/>
+      <c r="CY39" t="inlineStr"/>
+      <c r="CZ39" t="inlineStr"/>
+      <c r="DA39" t="inlineStr"/>
+      <c r="DB39" t="n">
+        <v>56.18</v>
+      </c>
+      <c r="DC39" t="n">
+        <v>77.03</v>
+      </c>
+      <c r="DD39" t="n">
+        <v>79.11</v>
+      </c>
+      <c r="DE39" t="n">
+        <v>1103.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -7896,6 +9912,54 @@
       <c r="BQ40" t="n">
         <v>1765.3</v>
       </c>
+      <c r="BR40" t="inlineStr"/>
+      <c r="BS40" t="inlineStr"/>
+      <c r="BT40" t="inlineStr"/>
+      <c r="BU40" t="inlineStr"/>
+      <c r="BV40" t="inlineStr"/>
+      <c r="BW40" t="inlineStr"/>
+      <c r="BX40" t="inlineStr"/>
+      <c r="BY40" t="inlineStr"/>
+      <c r="BZ40" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="CA40" t="n">
+        <v>72.72</v>
+      </c>
+      <c r="CB40" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="CC40" t="n">
+        <v>1794.3</v>
+      </c>
+      <c r="CD40" t="inlineStr"/>
+      <c r="CE40" t="inlineStr"/>
+      <c r="CF40" t="inlineStr"/>
+      <c r="CG40" t="inlineStr"/>
+      <c r="CH40" t="inlineStr"/>
+      <c r="CI40" t="inlineStr"/>
+      <c r="CJ40" t="inlineStr"/>
+      <c r="CK40" t="inlineStr"/>
+      <c r="CL40" t="inlineStr"/>
+      <c r="CM40" t="inlineStr"/>
+      <c r="CN40" t="inlineStr"/>
+      <c r="CO40" t="inlineStr"/>
+      <c r="CP40" t="inlineStr"/>
+      <c r="CQ40" t="inlineStr"/>
+      <c r="CR40" t="inlineStr"/>
+      <c r="CS40" t="inlineStr"/>
+      <c r="CT40" t="inlineStr"/>
+      <c r="CU40" t="inlineStr"/>
+      <c r="CV40" t="inlineStr"/>
+      <c r="CW40" t="inlineStr"/>
+      <c r="CX40" t="inlineStr"/>
+      <c r="CY40" t="inlineStr"/>
+      <c r="CZ40" t="inlineStr"/>
+      <c r="DA40" t="inlineStr"/>
+      <c r="DB40" t="inlineStr"/>
+      <c r="DC40" t="inlineStr"/>
+      <c r="DD40" t="inlineStr"/>
+      <c r="DE40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Record-Data.xlsx
+++ b/Record-Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Daily as on Apr 1, 16:00</t>
   </si>
@@ -257,6 +257,78 @@
   </si>
   <si>
     <t>Closing as on Jun 1, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Jun 2, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Jun 2, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Jun 2, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Jun 2, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Jun 02, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Jun 02, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Jun 02, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Jun 02, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Jun 2, 15:51</t>
+  </si>
+  <si>
+    <t>Weekly as on Jun 2, 15:51</t>
+  </si>
+  <si>
+    <t>Monthly as on Jun 2, 15:51</t>
+  </si>
+  <si>
+    <t>Closing as on Jun 2, 15:51</t>
+  </si>
+  <si>
+    <t>Daily as on Jun 2, 15:56</t>
+  </si>
+  <si>
+    <t>Weekly as on Jun 2, 15:56</t>
+  </si>
+  <si>
+    <t>Monthly as on Jun 2, 15:56</t>
+  </si>
+  <si>
+    <t>Closing as on Jun 2, 15:56</t>
+  </si>
+  <si>
+    <t>Daily as on Jun 2, 15:58</t>
+  </si>
+  <si>
+    <t>Weekly as on Jun 2, 15:58</t>
+  </si>
+  <si>
+    <t>Monthly as on Jun 2, 15:58</t>
+  </si>
+  <si>
+    <t>Closing as on Jun 2, 15:58</t>
+  </si>
+  <si>
+    <t>Daily as on Jun 2, 15:49</t>
+  </si>
+  <si>
+    <t>Weekly as on Jun 2, 15:49</t>
+  </si>
+  <si>
+    <t>Monthly as on Jun 2, 15:49</t>
+  </si>
+  <si>
+    <t>Closing as on Jun 2, 15:49</t>
   </si>
   <si>
     <t>Name</t>
@@ -731,15 +803,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CD39"/>
+  <dimension ref="A1:DB39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:82">
+    <row r="1" spans="1:106">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -984,10 +1056,82 @@
       <c r="CD1" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="2" spans="1:82">
+    <row r="2" spans="1:106">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>45.45</v>
@@ -1196,10 +1340,22 @@
       <c r="CD2">
         <v>2168.9</v>
       </c>
+      <c r="CE2">
+        <v>76.36</v>
+      </c>
+      <c r="CF2">
+        <v>61.93</v>
+      </c>
+      <c r="CG2">
+        <v>65.76000000000001</v>
+      </c>
+      <c r="CH2">
+        <v>2201.25</v>
+      </c>
     </row>
-    <row r="3" spans="1:82">
+    <row r="3" spans="1:106">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>50.2</v>
@@ -1408,10 +1564,22 @@
       <c r="CD3">
         <v>318.1</v>
       </c>
+      <c r="CE3">
+        <v>57.97</v>
+      </c>
+      <c r="CF3">
+        <v>67.72</v>
+      </c>
+      <c r="CG3">
+        <v>65.84</v>
+      </c>
+      <c r="CH3">
+        <v>323</v>
+      </c>
     </row>
-    <row r="4" spans="1:82">
+    <row r="4" spans="1:106">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B4">
         <v>47.16</v>
@@ -1620,10 +1788,22 @@
       <c r="CD4">
         <v>5784.8</v>
       </c>
+      <c r="CE4">
+        <v>64.26000000000001</v>
+      </c>
+      <c r="CF4">
+        <v>63.36</v>
+      </c>
+      <c r="CG4">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="CH4">
+        <v>5808.65</v>
+      </c>
     </row>
-    <row r="5" spans="1:82">
+    <row r="5" spans="1:106">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>54.05</v>
@@ -1832,10 +2012,22 @@
       <c r="CD5">
         <v>11829.9</v>
       </c>
+      <c r="CE5">
+        <v>67.42</v>
+      </c>
+      <c r="CF5">
+        <v>72.68000000000001</v>
+      </c>
+      <c r="CG5">
+        <v>70.27</v>
+      </c>
+      <c r="CH5">
+        <v>11823.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:82">
+    <row r="6" spans="1:106">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>45.62</v>
@@ -2044,10 +2236,22 @@
       <c r="CD6">
         <v>1511.7</v>
       </c>
+      <c r="CE6">
+        <v>57.88</v>
+      </c>
+      <c r="CF6">
+        <v>59.44</v>
+      </c>
+      <c r="CG6">
+        <v>63.38</v>
+      </c>
+      <c r="CH6">
+        <v>1504</v>
+      </c>
     </row>
-    <row r="7" spans="1:82">
+    <row r="7" spans="1:106">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B7">
         <v>48.23</v>
@@ -2256,10 +2460,22 @@
       <c r="CD7">
         <v>665.25</v>
       </c>
+      <c r="CE7">
+        <v>52.98</v>
+      </c>
+      <c r="CF7">
+        <v>52.33</v>
+      </c>
+      <c r="CG7">
+        <v>61.72</v>
+      </c>
+      <c r="CH7">
+        <v>675.9</v>
+      </c>
     </row>
-    <row r="8" spans="1:82">
+    <row r="8" spans="1:106">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B8">
         <v>51.49</v>
@@ -2468,10 +2684,22 @@
       <c r="CD8">
         <v>2964.9</v>
       </c>
+      <c r="CE8">
+        <v>69.81999999999999</v>
+      </c>
+      <c r="CF8">
+        <v>57.86</v>
+      </c>
+      <c r="CG8">
+        <v>60.72</v>
+      </c>
+      <c r="CH8">
+        <v>3014.6</v>
+      </c>
     </row>
-    <row r="9" spans="1:82">
+    <row r="9" spans="1:106">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B9">
         <v>41.03</v>
@@ -2680,10 +2908,22 @@
       <c r="CD9">
         <v>7091.15</v>
       </c>
+      <c r="CE9">
+        <v>68.31</v>
+      </c>
+      <c r="CF9">
+        <v>54.17</v>
+      </c>
+      <c r="CG9">
+        <v>53.59</v>
+      </c>
+      <c r="CH9">
+        <v>7184.7</v>
+      </c>
     </row>
-    <row r="10" spans="1:82">
+    <row r="10" spans="1:106">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B10">
         <v>49.99</v>
@@ -2892,10 +3132,22 @@
       <c r="CD10">
         <v>4238.95</v>
       </c>
+      <c r="CE10">
+        <v>74.12</v>
+      </c>
+      <c r="CF10">
+        <v>71.04000000000001</v>
+      </c>
+      <c r="CG10">
+        <v>68.69</v>
+      </c>
+      <c r="CH10">
+        <v>4295.05</v>
+      </c>
     </row>
-    <row r="11" spans="1:82">
+    <row r="11" spans="1:106">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B11">
         <v>43.07</v>
@@ -3092,10 +3344,22 @@
       <c r="CD11">
         <v>57.55</v>
       </c>
+      <c r="CE11">
+        <v>63.11</v>
+      </c>
+      <c r="CF11">
+        <v>64.28</v>
+      </c>
+      <c r="CG11">
+        <v>64.13</v>
+      </c>
+      <c r="CH11">
+        <v>60.95</v>
+      </c>
     </row>
-    <row r="12" spans="1:82">
+    <row r="12" spans="1:106">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B12">
         <v>50.76</v>
@@ -3304,10 +3568,22 @@
       <c r="CD12">
         <v>326</v>
       </c>
+      <c r="CE12">
+        <v>57.74</v>
+      </c>
+      <c r="CF12">
+        <v>62.29</v>
+      </c>
+      <c r="CG12">
+        <v>53.82</v>
+      </c>
+      <c r="CH12">
+        <v>342.3</v>
+      </c>
     </row>
-    <row r="13" spans="1:82">
+    <row r="13" spans="1:106">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B13">
         <v>52.29</v>
@@ -3516,10 +3792,22 @@
       <c r="CD13">
         <v>211.4</v>
       </c>
+      <c r="CE13">
+        <v>56.84</v>
+      </c>
+      <c r="CF13">
+        <v>65.94</v>
+      </c>
+      <c r="CG13">
+        <v>68.97</v>
+      </c>
+      <c r="CH13">
+        <v>223.7</v>
+      </c>
     </row>
-    <row r="14" spans="1:82">
+    <row r="14" spans="1:106">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B14">
         <v>59.05</v>
@@ -3728,10 +4016,22 @@
       <c r="BZ14">
         <v>2081.95</v>
       </c>
+      <c r="CI14">
+        <v>44.46</v>
+      </c>
+      <c r="CJ14">
+        <v>64.22</v>
+      </c>
+      <c r="CK14">
+        <v>61.99</v>
+      </c>
+      <c r="CL14">
+        <v>2081.6</v>
+      </c>
     </row>
-    <row r="15" spans="1:82">
+    <row r="15" spans="1:106">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B15">
         <v>41.86</v>
@@ -3940,10 +4240,22 @@
       <c r="CD15">
         <v>532.9</v>
       </c>
+      <c r="CE15">
+        <v>45.52</v>
+      </c>
+      <c r="CF15">
+        <v>49.13</v>
+      </c>
+      <c r="CG15">
+        <v>58.03</v>
+      </c>
+      <c r="CH15">
+        <v>529.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:82">
+    <row r="16" spans="1:106">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B16">
         <v>39.57</v>
@@ -4152,10 +4464,22 @@
       <c r="CD16">
         <v>147.6</v>
       </c>
+      <c r="CE16">
+        <v>60.07</v>
+      </c>
+      <c r="CF16">
+        <v>59.15</v>
+      </c>
+      <c r="CG16">
+        <v>44.67</v>
+      </c>
+      <c r="CH16">
+        <v>149.1</v>
+      </c>
     </row>
-    <row r="17" spans="1:82">
+    <row r="17" spans="1:102">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B17">
         <v>48.86</v>
@@ -4364,10 +4688,22 @@
       <c r="CD17">
         <v>542.8</v>
       </c>
+      <c r="CE17">
+        <v>72.55</v>
+      </c>
+      <c r="CF17">
+        <v>76.58</v>
+      </c>
+      <c r="CG17">
+        <v>83.81</v>
+      </c>
+      <c r="CH17">
+        <v>543</v>
+      </c>
     </row>
-    <row r="18" spans="1:82">
+    <row r="18" spans="1:102">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B18">
         <v>42.67</v>
@@ -4576,10 +4912,22 @@
       <c r="CD18">
         <v>221.7</v>
       </c>
+      <c r="CE18">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="CF18">
+        <v>57.84</v>
+      </c>
+      <c r="CG18">
+        <v>42.36</v>
+      </c>
+      <c r="CH18">
+        <v>226.95</v>
+      </c>
     </row>
-    <row r="19" spans="1:82">
+    <row r="19" spans="1:102">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B19">
         <v>47.21</v>
@@ -4788,10 +5136,22 @@
       <c r="CD19">
         <v>8.5</v>
       </c>
+      <c r="CE19">
+        <v>54.1</v>
+      </c>
+      <c r="CF19">
+        <v>44.61</v>
+      </c>
+      <c r="CG19">
+        <v>39.92</v>
+      </c>
+      <c r="CH19">
+        <v>8.800000000000001</v>
+      </c>
     </row>
-    <row r="20" spans="1:82">
+    <row r="20" spans="1:102">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B20">
         <v>48.65</v>
@@ -5000,10 +5360,22 @@
       <c r="CD20">
         <v>1010.05</v>
       </c>
+      <c r="CQ20">
+        <v>63.95</v>
+      </c>
+      <c r="CR20">
+        <v>59.58</v>
+      </c>
+      <c r="CS20">
+        <v>50.84</v>
+      </c>
+      <c r="CT20">
+        <v>1028</v>
+      </c>
     </row>
-    <row r="21" spans="1:82">
+    <row r="21" spans="1:102">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B21">
         <v>41.16</v>
@@ -5212,10 +5584,22 @@
       <c r="CD21">
         <v>109.9</v>
       </c>
+      <c r="CE21">
+        <v>69.93000000000001</v>
+      </c>
+      <c r="CF21">
+        <v>66.73</v>
+      </c>
+      <c r="CG21">
+        <v>51.38</v>
+      </c>
+      <c r="CH21">
+        <v>110.85</v>
+      </c>
     </row>
-    <row r="22" spans="1:82">
+    <row r="22" spans="1:102">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B22">
         <v>45.84</v>
@@ -5412,10 +5796,22 @@
       <c r="CD22">
         <v>1894.6</v>
       </c>
+      <c r="CU22">
+        <v>64.31999999999999</v>
+      </c>
+      <c r="CV22">
+        <v>63.39</v>
+      </c>
+      <c r="CW22">
+        <v>69.45</v>
+      </c>
+      <c r="CX22">
+        <v>1917.95</v>
+      </c>
     </row>
-    <row r="23" spans="1:82">
+    <row r="23" spans="1:102">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B23">
         <v>57.52</v>
@@ -5624,10 +6020,22 @@
       <c r="CD23">
         <v>215.25</v>
       </c>
+      <c r="CE23">
+        <v>48.96</v>
+      </c>
+      <c r="CF23">
+        <v>50.94</v>
+      </c>
+      <c r="CG23">
+        <v>47.18</v>
+      </c>
+      <c r="CH23">
+        <v>209</v>
+      </c>
     </row>
-    <row r="24" spans="1:82">
+    <row r="24" spans="1:102">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B24">
         <v>50.63</v>
@@ -5836,10 +6244,22 @@
       <c r="CD24">
         <v>1474.65</v>
       </c>
+      <c r="CE24">
+        <v>63.38</v>
+      </c>
+      <c r="CF24">
+        <v>62.63</v>
+      </c>
+      <c r="CG24">
+        <v>60.76</v>
+      </c>
+      <c r="CH24">
+        <v>1471.05</v>
+      </c>
     </row>
-    <row r="25" spans="1:82">
+    <row r="25" spans="1:102">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B25">
         <v>50.27</v>
@@ -6048,10 +6468,22 @@
       <c r="CD25">
         <v>160</v>
       </c>
+      <c r="CE25">
+        <v>50.32</v>
+      </c>
+      <c r="CF25">
+        <v>45.75</v>
+      </c>
+      <c r="CG25">
+        <v>47.37</v>
+      </c>
+      <c r="CH25">
+        <v>162.85</v>
+      </c>
     </row>
-    <row r="26" spans="1:82">
+    <row r="26" spans="1:102">
       <c r="A26" s="1" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B26">
         <v>45.61</v>
@@ -6260,10 +6692,22 @@
       <c r="CD26">
         <v>160.7</v>
       </c>
+      <c r="CE26">
+        <v>61.07</v>
+      </c>
+      <c r="CF26">
+        <v>53.23</v>
+      </c>
+      <c r="CG26">
+        <v>54.57</v>
+      </c>
+      <c r="CH26">
+        <v>163.8</v>
+      </c>
     </row>
-    <row r="27" spans="1:82">
+    <row r="27" spans="1:102">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B27">
         <v>43.41</v>
@@ -6472,10 +6916,22 @@
       <c r="CD27">
         <v>1308.9</v>
       </c>
+      <c r="CE27">
+        <v>76.68000000000001</v>
+      </c>
+      <c r="CF27">
+        <v>65.44</v>
+      </c>
+      <c r="CG27">
+        <v>67.33</v>
+      </c>
+      <c r="CH27">
+        <v>1414.9</v>
+      </c>
     </row>
-    <row r="28" spans="1:82">
+    <row r="28" spans="1:102">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B28">
         <v>37.58</v>
@@ -6684,10 +7140,22 @@
       <c r="CD28">
         <v>119.15</v>
       </c>
+      <c r="CE28">
+        <v>63.66</v>
+      </c>
+      <c r="CF28">
+        <v>57.48</v>
+      </c>
+      <c r="CG28">
+        <v>56.57</v>
+      </c>
+      <c r="CH28">
+        <v>121.6</v>
+      </c>
     </row>
-    <row r="29" spans="1:82">
+    <row r="29" spans="1:102">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B29">
         <v>47.48</v>
@@ -6896,10 +7364,22 @@
       <c r="CD29">
         <v>966.3</v>
       </c>
+      <c r="CE29">
+        <v>58.71</v>
+      </c>
+      <c r="CF29">
+        <v>64.5</v>
+      </c>
+      <c r="CG29">
+        <v>61.68</v>
+      </c>
+      <c r="CH29">
+        <v>984.4</v>
+      </c>
     </row>
-    <row r="30" spans="1:82">
+    <row r="30" spans="1:102">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B30">
         <v>49.8</v>
@@ -7108,10 +7588,22 @@
       <c r="CD30">
         <v>432.55</v>
       </c>
+      <c r="CE30">
+        <v>80.81999999999999</v>
+      </c>
+      <c r="CF30">
+        <v>74.68000000000001</v>
+      </c>
+      <c r="CG30">
+        <v>67.58</v>
+      </c>
+      <c r="CH30">
+        <v>437.25</v>
+      </c>
     </row>
-    <row r="31" spans="1:82">
+    <row r="31" spans="1:102">
       <c r="A31" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B31">
         <v>56.54</v>
@@ -7308,10 +7800,22 @@
       <c r="CD31">
         <v>104.65</v>
       </c>
+      <c r="CE31">
+        <v>58.7</v>
+      </c>
+      <c r="CF31">
+        <v>67.92</v>
+      </c>
+      <c r="CG31">
+        <v>71.01000000000001</v>
+      </c>
+      <c r="CH31">
+        <v>108.1</v>
+      </c>
     </row>
-    <row r="32" spans="1:82">
+    <row r="32" spans="1:102">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B32">
         <v>58.02</v>
@@ -7520,10 +8024,22 @@
       <c r="CD32">
         <v>3153</v>
       </c>
+      <c r="CE32">
+        <v>51.33</v>
+      </c>
+      <c r="CF32">
+        <v>56.36</v>
+      </c>
+      <c r="CG32">
+        <v>67.94</v>
+      </c>
+      <c r="CH32">
+        <v>3129.45</v>
+      </c>
     </row>
-    <row r="33" spans="1:82">
+    <row r="33" spans="1:106">
       <c r="A33" s="1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B33">
         <v>64.37</v>
@@ -7720,10 +8236,22 @@
       <c r="CD33">
         <v>706.4</v>
       </c>
+      <c r="CY33">
+        <v>49.11</v>
+      </c>
+      <c r="CZ33">
+        <v>58.83</v>
+      </c>
+      <c r="DA33">
+        <v>60.14</v>
+      </c>
+      <c r="DB33">
+        <v>711.85</v>
+      </c>
     </row>
-    <row r="34" spans="1:82">
+    <row r="34" spans="1:106">
       <c r="A34" s="1" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B34">
         <v>53.14</v>
@@ -7920,10 +8448,22 @@
       <c r="CD34">
         <v>10.4</v>
       </c>
+      <c r="CM34">
+        <v>62.82</v>
+      </c>
+      <c r="CN34">
+        <v>63.62</v>
+      </c>
+      <c r="CO34">
+        <v>51.11</v>
+      </c>
+      <c r="CP34">
+        <v>10.25</v>
+      </c>
     </row>
-    <row r="35" spans="1:82">
+    <row r="35" spans="1:106">
       <c r="A35" s="1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B35">
         <v>59.65</v>
@@ -8132,10 +8672,22 @@
       <c r="CD35">
         <v>2931</v>
       </c>
+      <c r="CE35">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="CF35">
+        <v>68.26000000000001</v>
+      </c>
+      <c r="CG35">
+        <v>71.91</v>
+      </c>
+      <c r="CH35">
+        <v>2903.7</v>
+      </c>
     </row>
-    <row r="36" spans="1:82">
+    <row r="36" spans="1:106">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B36">
         <v>60.25</v>
@@ -8344,10 +8896,22 @@
       <c r="BZ36">
         <v>798.2</v>
       </c>
+      <c r="CE36">
+        <v>64.26000000000001</v>
+      </c>
+      <c r="CF36">
+        <v>69.5</v>
+      </c>
+      <c r="CG36">
+        <v>81.2</v>
+      </c>
+      <c r="CH36">
+        <v>811.5</v>
+      </c>
     </row>
-    <row r="37" spans="1:82">
+    <row r="37" spans="1:106">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B37">
         <v>55.37</v>
@@ -8556,10 +9120,22 @@
       <c r="CD37">
         <v>671.05</v>
       </c>
+      <c r="CE37">
+        <v>51.56</v>
+      </c>
+      <c r="CF37">
+        <v>64.20999999999999</v>
+      </c>
+      <c r="CG37">
+        <v>67.11</v>
+      </c>
+      <c r="CH37">
+        <v>677.45</v>
+      </c>
     </row>
-    <row r="38" spans="1:82">
+    <row r="38" spans="1:106">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B38">
         <v>71.78</v>
@@ -8768,10 +9344,22 @@
       <c r="CD38">
         <v>1100.9</v>
       </c>
+      <c r="CE38">
+        <v>57.88</v>
+      </c>
+      <c r="CF38">
+        <v>77.89</v>
+      </c>
+      <c r="CG38">
+        <v>79.44</v>
+      </c>
+      <c r="CH38">
+        <v>1124.05</v>
+      </c>
     </row>
-    <row r="39" spans="1:82">
+    <row r="39" spans="1:106">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B39">
         <v>67.78</v>
@@ -8979,6 +9567,18 @@
       </c>
       <c r="CD39">
         <v>1760.35</v>
+      </c>
+      <c r="CE39">
+        <v>49.64</v>
+      </c>
+      <c r="CF39">
+        <v>69.34999999999999</v>
+      </c>
+      <c r="CG39">
+        <v>84.31999999999999</v>
+      </c>
+      <c r="CH39">
+        <v>1752.35</v>
       </c>
     </row>
   </sheetData>

--- a/Record-Data.xlsx
+++ b/Record-Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>Daily as on Apr 1, 16:00</t>
   </si>
@@ -329,6 +329,66 @@
   </si>
   <si>
     <t>Closing as on Jun 2, 15:49</t>
+  </si>
+  <si>
+    <t>Daily as on Jun 4, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Jun 4, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Jun 4, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Jun 4, 16:00</t>
+  </si>
+  <si>
+    <t>Daily as on Jun 4, 15:59</t>
+  </si>
+  <si>
+    <t>Weekly as on Jun 4, 15:59</t>
+  </si>
+  <si>
+    <t>Monthly as on Jun 4, 15:59</t>
+  </si>
+  <si>
+    <t>Closing as on Jun 4, 15:59</t>
+  </si>
+  <si>
+    <t>Daily as on Jun 4, 15:57</t>
+  </si>
+  <si>
+    <t>Weekly as on Jun 4, 15:57</t>
+  </si>
+  <si>
+    <t>Monthly as on Jun 4, 15:57</t>
+  </si>
+  <si>
+    <t>Closing as on Jun 4, 15:57</t>
+  </si>
+  <si>
+    <t>Daily as on Jun 4, 15:58</t>
+  </si>
+  <si>
+    <t>Weekly as on Jun 4, 15:58</t>
+  </si>
+  <si>
+    <t>Monthly as on Jun 4, 15:58</t>
+  </si>
+  <si>
+    <t>Closing as on Jun 4, 15:58</t>
+  </si>
+  <si>
+    <t>Daily as on Jun 4, 15:56</t>
+  </si>
+  <si>
+    <t>Weekly as on Jun 4, 15:56</t>
+  </si>
+  <si>
+    <t>Monthly as on Jun 4, 15:56</t>
+  </si>
+  <si>
+    <t>Closing as on Jun 4, 15:56</t>
   </si>
   <si>
     <t>Name</t>
@@ -803,15 +863,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DB39"/>
+  <dimension ref="A1:DV39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:106">
+    <row r="1" spans="1:126">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1128,10 +1188,70 @@
       <c r="DB1" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="2" spans="1:106">
+    <row r="2" spans="1:126">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B2">
         <v>45.45</v>
@@ -1352,10 +1472,22 @@
       <c r="CH2">
         <v>2201.25</v>
       </c>
+      <c r="DC2">
+        <v>72.70999999999999</v>
+      </c>
+      <c r="DD2">
+        <v>61.45</v>
+      </c>
+      <c r="DE2">
+        <v>65.53</v>
+      </c>
+      <c r="DF2">
+        <v>2190.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:106">
+    <row r="3" spans="1:126">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B3">
         <v>50.2</v>
@@ -1576,10 +1708,22 @@
       <c r="CH3">
         <v>323</v>
       </c>
+      <c r="DC3">
+        <v>64.93000000000001</v>
+      </c>
+      <c r="DD3">
+        <v>70.2</v>
+      </c>
+      <c r="DE3">
+        <v>66.98</v>
+      </c>
+      <c r="DF3">
+        <v>334.95</v>
+      </c>
     </row>
-    <row r="4" spans="1:106">
+    <row r="4" spans="1:126">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B4">
         <v>47.16</v>
@@ -1800,10 +1944,22 @@
       <c r="CH4">
         <v>5808.65</v>
       </c>
+      <c r="DC4">
+        <v>69.73</v>
+      </c>
+      <c r="DD4">
+        <v>65.52</v>
+      </c>
+      <c r="DE4">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="DF4">
+        <v>5993.45</v>
+      </c>
     </row>
-    <row r="5" spans="1:106">
+    <row r="5" spans="1:126">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B5">
         <v>54.05</v>
@@ -2024,10 +2180,22 @@
       <c r="CH5">
         <v>11823.6</v>
       </c>
+      <c r="DC5">
+        <v>72.66</v>
+      </c>
+      <c r="DD5">
+        <v>74.47</v>
+      </c>
+      <c r="DE5">
+        <v>71.23999999999999</v>
+      </c>
+      <c r="DF5">
+        <v>12155.65</v>
+      </c>
     </row>
-    <row r="6" spans="1:106">
+    <row r="6" spans="1:126">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B6">
         <v>45.62</v>
@@ -2248,10 +2416,22 @@
       <c r="CH6">
         <v>1504</v>
       </c>
+      <c r="DG6">
+        <v>56.02</v>
+      </c>
+      <c r="DH6">
+        <v>59.05</v>
+      </c>
+      <c r="DI6">
+        <v>63.19</v>
+      </c>
+      <c r="DJ6">
+        <v>1500.95</v>
+      </c>
     </row>
-    <row r="7" spans="1:106">
+    <row r="7" spans="1:126">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B7">
         <v>48.23</v>
@@ -2472,10 +2652,22 @@
       <c r="CH7">
         <v>675.9</v>
       </c>
+      <c r="DC7">
+        <v>56.23</v>
+      </c>
+      <c r="DD7">
+        <v>53.86</v>
+      </c>
+      <c r="DE7">
+        <v>62.16</v>
+      </c>
+      <c r="DF7">
+        <v>680.9</v>
+      </c>
     </row>
-    <row r="8" spans="1:106">
+    <row r="8" spans="1:126">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B8">
         <v>51.49</v>
@@ -2696,10 +2888,22 @@
       <c r="CH8">
         <v>3014.6</v>
       </c>
+      <c r="DG8">
+        <v>73.62</v>
+      </c>
+      <c r="DH8">
+        <v>59.72</v>
+      </c>
+      <c r="DI8">
+        <v>61.62</v>
+      </c>
+      <c r="DJ8">
+        <v>3067.6</v>
+      </c>
     </row>
-    <row r="9" spans="1:106">
+    <row r="9" spans="1:126">
       <c r="A9" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B9">
         <v>41.03</v>
@@ -2920,10 +3124,22 @@
       <c r="CH9">
         <v>7184.7</v>
       </c>
+      <c r="DC9">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="DD9">
+        <v>54.69</v>
+      </c>
+      <c r="DE9">
+        <v>53.82</v>
+      </c>
+      <c r="DF9">
+        <v>7214.7</v>
+      </c>
     </row>
-    <row r="10" spans="1:106">
+    <row r="10" spans="1:126">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="B10">
         <v>49.99</v>
@@ -3144,10 +3360,22 @@
       <c r="CH10">
         <v>4295.05</v>
       </c>
+      <c r="DC10">
+        <v>68.45</v>
+      </c>
+      <c r="DD10">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="DE10">
+        <v>68.2</v>
+      </c>
+      <c r="DF10">
+        <v>4250.05</v>
+      </c>
     </row>
-    <row r="11" spans="1:106">
+    <row r="11" spans="1:126">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B11">
         <v>43.07</v>
@@ -3356,10 +3584,22 @@
       <c r="CH11">
         <v>60.95</v>
       </c>
+      <c r="DC11">
+        <v>58.42</v>
+      </c>
+      <c r="DD11">
+        <v>63.02</v>
+      </c>
+      <c r="DE11">
+        <v>63.47</v>
+      </c>
+      <c r="DF11">
+        <v>59.8</v>
+      </c>
     </row>
-    <row r="12" spans="1:106">
+    <row r="12" spans="1:126">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B12">
         <v>50.76</v>
@@ -3580,10 +3820,22 @@
       <c r="CH12">
         <v>342.3</v>
       </c>
+      <c r="DC12">
+        <v>69.06999999999999</v>
+      </c>
+      <c r="DD12">
+        <v>68.03</v>
+      </c>
+      <c r="DE12">
+        <v>56.36</v>
+      </c>
+      <c r="DF12">
+        <v>377</v>
+      </c>
     </row>
-    <row r="13" spans="1:106">
+    <row r="13" spans="1:126">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B13">
         <v>52.29</v>
@@ -3804,10 +4056,22 @@
       <c r="CH13">
         <v>223.7</v>
       </c>
+      <c r="DO13">
+        <v>56.83</v>
+      </c>
+      <c r="DP13">
+        <v>66.22</v>
+      </c>
+      <c r="DQ13">
+        <v>69.09</v>
+      </c>
+      <c r="DR13">
+        <v>224.4</v>
+      </c>
     </row>
-    <row r="14" spans="1:106">
+    <row r="14" spans="1:126">
       <c r="A14" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B14">
         <v>59.05</v>
@@ -4028,10 +4292,22 @@
       <c r="CL14">
         <v>2081.6</v>
       </c>
+      <c r="DC14">
+        <v>54.51</v>
+      </c>
+      <c r="DD14">
+        <v>69.48</v>
+      </c>
+      <c r="DE14">
+        <v>64.09</v>
+      </c>
+      <c r="DF14">
+        <v>2248.95</v>
+      </c>
     </row>
-    <row r="15" spans="1:106">
+    <row r="15" spans="1:126">
       <c r="A15" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B15">
         <v>41.86</v>
@@ -4252,10 +4528,22 @@
       <c r="CH15">
         <v>529.5</v>
       </c>
+      <c r="DC15">
+        <v>47.71</v>
+      </c>
+      <c r="DD15">
+        <v>49.87</v>
+      </c>
+      <c r="DE15">
+        <v>58.52</v>
+      </c>
+      <c r="DF15">
+        <v>532.7</v>
+      </c>
     </row>
-    <row r="16" spans="1:106">
+    <row r="16" spans="1:126">
       <c r="A16" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B16">
         <v>39.57</v>
@@ -4476,10 +4764,22 @@
       <c r="CH16">
         <v>149.1</v>
       </c>
+      <c r="DC16">
+        <v>65.28</v>
+      </c>
+      <c r="DD16">
+        <v>61.5</v>
+      </c>
+      <c r="DE16">
+        <v>45.95</v>
+      </c>
+      <c r="DF16">
+        <v>153.1</v>
+      </c>
     </row>
-    <row r="17" spans="1:102">
+    <row r="17" spans="1:122">
       <c r="A17" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B17">
         <v>48.86</v>
@@ -4700,10 +5000,22 @@
       <c r="CH17">
         <v>543</v>
       </c>
+      <c r="DO17">
+        <v>69.8</v>
+      </c>
+      <c r="DP17">
+        <v>76.37</v>
+      </c>
+      <c r="DQ17">
+        <v>83.70999999999999</v>
+      </c>
+      <c r="DR17">
+        <v>541.2</v>
+      </c>
     </row>
-    <row r="18" spans="1:102">
+    <row r="18" spans="1:122">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B18">
         <v>42.67</v>
@@ -4924,10 +5236,22 @@
       <c r="CH18">
         <v>226.95</v>
       </c>
+      <c r="DC18">
+        <v>83.43000000000001</v>
+      </c>
+      <c r="DD18">
+        <v>64.92</v>
+      </c>
+      <c r="DE18">
+        <v>45.01</v>
+      </c>
+      <c r="DF18">
+        <v>261.35</v>
+      </c>
     </row>
-    <row r="19" spans="1:102">
+    <row r="19" spans="1:122">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B19">
         <v>47.21</v>
@@ -5148,10 +5472,22 @@
       <c r="CH19">
         <v>8.800000000000001</v>
       </c>
+      <c r="DC19">
+        <v>70.05</v>
+      </c>
+      <c r="DD19">
+        <v>51.3</v>
+      </c>
+      <c r="DE19">
+        <v>42.41</v>
+      </c>
+      <c r="DF19">
+        <v>9.75</v>
+      </c>
     </row>
-    <row r="20" spans="1:102">
+    <row r="20" spans="1:122">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B20">
         <v>48.65</v>
@@ -5372,10 +5708,22 @@
       <c r="CT20">
         <v>1028</v>
       </c>
+      <c r="DK20">
+        <v>58.37</v>
+      </c>
+      <c r="DL20">
+        <v>58</v>
+      </c>
+      <c r="DM20">
+        <v>50.24</v>
+      </c>
+      <c r="DN20">
+        <v>1009.3</v>
+      </c>
     </row>
-    <row r="21" spans="1:102">
+    <row r="21" spans="1:122">
       <c r="A21" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B21">
         <v>41.16</v>
@@ -5596,10 +5944,22 @@
       <c r="CH21">
         <v>110.85</v>
       </c>
+      <c r="DC21">
+        <v>75.03</v>
+      </c>
+      <c r="DD21">
+        <v>69.19</v>
+      </c>
+      <c r="DE21">
+        <v>53.06</v>
+      </c>
+      <c r="DF21">
+        <v>114.6</v>
+      </c>
     </row>
-    <row r="22" spans="1:102">
+    <row r="22" spans="1:122">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B22">
         <v>45.84</v>
@@ -5808,10 +6168,22 @@
       <c r="CX22">
         <v>1917.95</v>
       </c>
+      <c r="DC22">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="DD22">
+        <v>63.54</v>
+      </c>
+      <c r="DE22">
+        <v>69.51000000000001</v>
+      </c>
+      <c r="DF22">
+        <v>1921.7</v>
+      </c>
     </row>
-    <row r="23" spans="1:102">
+    <row r="23" spans="1:122">
       <c r="A23" s="1" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B23">
         <v>57.52</v>
@@ -6032,10 +6404,22 @@
       <c r="CH23">
         <v>209</v>
       </c>
+      <c r="DC23">
+        <v>48.49</v>
+      </c>
+      <c r="DD23">
+        <v>50.81</v>
+      </c>
+      <c r="DE23">
+        <v>47.11</v>
+      </c>
+      <c r="DF23">
+        <v>208.75</v>
+      </c>
     </row>
-    <row r="24" spans="1:102">
+    <row r="24" spans="1:122">
       <c r="A24" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B24">
         <v>50.63</v>
@@ -6256,10 +6640,22 @@
       <c r="CH24">
         <v>1471.05</v>
       </c>
+      <c r="DC24">
+        <v>73.45999999999999</v>
+      </c>
+      <c r="DD24">
+        <v>67.23999999999999</v>
+      </c>
+      <c r="DE24">
+        <v>62.94</v>
+      </c>
+      <c r="DF24">
+        <v>1537.55</v>
+      </c>
     </row>
-    <row r="25" spans="1:102">
+    <row r="25" spans="1:122">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="B25">
         <v>50.27</v>
@@ -6480,10 +6876,22 @@
       <c r="CH25">
         <v>162.85</v>
       </c>
+      <c r="DC25">
+        <v>56.24</v>
+      </c>
+      <c r="DD25">
+        <v>48.11</v>
+      </c>
+      <c r="DE25">
+        <v>48.38</v>
+      </c>
+      <c r="DF25">
+        <v>168.15</v>
+      </c>
     </row>
-    <row r="26" spans="1:102">
+    <row r="26" spans="1:122">
       <c r="A26" s="1" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B26">
         <v>45.61</v>
@@ -6704,10 +7112,22 @@
       <c r="CH26">
         <v>163.8</v>
       </c>
+      <c r="DC26">
+        <v>58.36</v>
+      </c>
+      <c r="DD26">
+        <v>52.41</v>
+      </c>
+      <c r="DE26">
+        <v>54.25</v>
+      </c>
+      <c r="DF26">
+        <v>162.45</v>
+      </c>
     </row>
-    <row r="27" spans="1:102">
+    <row r="27" spans="1:122">
       <c r="A27" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B27">
         <v>43.41</v>
@@ -6928,10 +7348,22 @@
       <c r="CH27">
         <v>1414.9</v>
       </c>
+      <c r="DC27">
+        <v>81.72</v>
+      </c>
+      <c r="DD27">
+        <v>69.68000000000001</v>
+      </c>
+      <c r="DE27">
+        <v>69.54000000000001</v>
+      </c>
+      <c r="DF27">
+        <v>1509.35</v>
+      </c>
     </row>
-    <row r="28" spans="1:102">
+    <row r="28" spans="1:122">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B28">
         <v>37.58</v>
@@ -7152,10 +7584,22 @@
       <c r="CH28">
         <v>121.6</v>
       </c>
+      <c r="DC28">
+        <v>63.78</v>
+      </c>
+      <c r="DD28">
+        <v>57.96</v>
+      </c>
+      <c r="DE28">
+        <v>56.78</v>
+      </c>
+      <c r="DF28">
+        <v>122.2</v>
+      </c>
     </row>
-    <row r="29" spans="1:102">
+    <row r="29" spans="1:122">
       <c r="A29" s="1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B29">
         <v>47.48</v>
@@ -7376,10 +7820,22 @@
       <c r="CH29">
         <v>984.4</v>
       </c>
+      <c r="DC29">
+        <v>60.26</v>
+      </c>
+      <c r="DD29">
+        <v>65.12</v>
+      </c>
+      <c r="DE29">
+        <v>61.95</v>
+      </c>
+      <c r="DF29">
+        <v>989.15</v>
+      </c>
     </row>
-    <row r="30" spans="1:102">
+    <row r="30" spans="1:122">
       <c r="A30" s="1" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B30">
         <v>49.8</v>
@@ -7600,10 +8056,22 @@
       <c r="CH30">
         <v>437.25</v>
       </c>
+      <c r="DC30">
+        <v>75</v>
+      </c>
+      <c r="DD30">
+        <v>74.22</v>
+      </c>
+      <c r="DE30">
+        <v>67.3</v>
+      </c>
+      <c r="DF30">
+        <v>433.6</v>
+      </c>
     </row>
-    <row r="31" spans="1:102">
+    <row r="31" spans="1:122">
       <c r="A31" s="1" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="B31">
         <v>56.54</v>
@@ -7812,10 +8280,22 @@
       <c r="CH31">
         <v>108.1</v>
       </c>
+      <c r="DC31">
+        <v>58.33</v>
+      </c>
+      <c r="DD31">
+        <v>67.95999999999999</v>
+      </c>
+      <c r="DE31">
+        <v>71.03</v>
+      </c>
+      <c r="DF31">
+        <v>108.15</v>
+      </c>
     </row>
-    <row r="32" spans="1:102">
+    <row r="32" spans="1:122">
       <c r="A32" s="1" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="B32">
         <v>58.02</v>
@@ -8036,10 +8516,22 @@
       <c r="CH32">
         <v>3129.45</v>
       </c>
+      <c r="DC32">
+        <v>53.44</v>
+      </c>
+      <c r="DD32">
+        <v>57.15</v>
+      </c>
+      <c r="DE32">
+        <v>68.45999999999999</v>
+      </c>
+      <c r="DF32">
+        <v>3143.75</v>
+      </c>
     </row>
-    <row r="33" spans="1:106">
+    <row r="33" spans="1:126">
       <c r="A33" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="B33">
         <v>64.37</v>
@@ -8248,10 +8740,22 @@
       <c r="DB33">
         <v>711.85</v>
       </c>
+      <c r="DS33">
+        <v>60.29</v>
+      </c>
+      <c r="DT33">
+        <v>61.83</v>
+      </c>
+      <c r="DU33">
+        <v>61.78</v>
+      </c>
+      <c r="DV33">
+        <v>746.15</v>
+      </c>
     </row>
-    <row r="34" spans="1:106">
+    <row r="34" spans="1:126">
       <c r="A34" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B34">
         <v>53.14</v>
@@ -8460,10 +8964,22 @@
       <c r="CP34">
         <v>10.25</v>
       </c>
+      <c r="DC34">
+        <v>63.11</v>
+      </c>
+      <c r="DD34">
+        <v>65.26000000000001</v>
+      </c>
+      <c r="DE34">
+        <v>51.63</v>
+      </c>
+      <c r="DF34">
+        <v>10.45</v>
+      </c>
     </row>
-    <row r="35" spans="1:106">
+    <row r="35" spans="1:126">
       <c r="A35" s="1" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B35">
         <v>59.65</v>
@@ -8684,10 +9200,22 @@
       <c r="CH35">
         <v>2903.7</v>
       </c>
+      <c r="DC35">
+        <v>66.15000000000001</v>
+      </c>
+      <c r="DD35">
+        <v>69.63</v>
+      </c>
+      <c r="DE35">
+        <v>72.66</v>
+      </c>
+      <c r="DF35">
+        <v>2924.9</v>
+      </c>
     </row>
-    <row r="36" spans="1:106">
+    <row r="36" spans="1:126">
       <c r="A36" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B36">
         <v>60.25</v>
@@ -8908,10 +9436,22 @@
       <c r="CH36">
         <v>811.5</v>
       </c>
+      <c r="DC36">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="DD36">
+        <v>71.02</v>
+      </c>
+      <c r="DE36">
+        <v>81.92</v>
+      </c>
+      <c r="DF36">
+        <v>833.85</v>
+      </c>
     </row>
-    <row r="37" spans="1:106">
+    <row r="37" spans="1:126">
       <c r="A37" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B37">
         <v>55.37</v>
@@ -9132,10 +9672,22 @@
       <c r="CH37">
         <v>677.45</v>
       </c>
+      <c r="DC37">
+        <v>49.86</v>
+      </c>
+      <c r="DD37">
+        <v>63.64</v>
+      </c>
+      <c r="DE37">
+        <v>66.84</v>
+      </c>
+      <c r="DF37">
+        <v>673.95</v>
+      </c>
     </row>
-    <row r="38" spans="1:106">
+    <row r="38" spans="1:126">
       <c r="A38" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B38">
         <v>71.78</v>
@@ -9356,10 +9908,22 @@
       <c r="CH38">
         <v>1124.05</v>
       </c>
+      <c r="DC38">
+        <v>57.23</v>
+      </c>
+      <c r="DD38">
+        <v>77.76000000000001</v>
+      </c>
+      <c r="DE38">
+        <v>79.15000000000001</v>
+      </c>
+      <c r="DF38">
+        <v>1120.7</v>
+      </c>
     </row>
-    <row r="39" spans="1:106">
+    <row r="39" spans="1:126">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B39">
         <v>67.78</v>
@@ -9579,6 +10143,18 @@
       </c>
       <c r="CH39">
         <v>1752.35</v>
+      </c>
+      <c r="DC39">
+        <v>46.72</v>
+      </c>
+      <c r="DD39">
+        <v>67.81999999999999</v>
+      </c>
+      <c r="DE39">
+        <v>83.04000000000001</v>
+      </c>
+      <c r="DF39">
+        <v>1731.65</v>
       </c>
     </row>
   </sheetData>

--- a/Record-Data.xlsx
+++ b/Record-Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Daily as on Apr 1, 16:00</t>
   </si>
@@ -389,6 +389,18 @@
   </si>
   <si>
     <t>Closing as on Jun 4, 15:56</t>
+  </si>
+  <si>
+    <t>Daily as on Jun 7, 16:00</t>
+  </si>
+  <si>
+    <t>Weekly as on Jun 7, 16:00</t>
+  </si>
+  <si>
+    <t>Monthly as on Jun 7, 16:00</t>
+  </si>
+  <si>
+    <t>Closing as on Jun 7, 16:00</t>
   </si>
   <si>
     <t>Name</t>
@@ -863,15 +875,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DV39"/>
+  <dimension ref="A1:DZ39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:126">
+    <row r="1" spans="1:130">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1248,10 +1260,22 @@
       <c r="DV1" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="DW1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="2" spans="1:126">
+    <row r="2" spans="1:130">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>45.45</v>
@@ -1484,10 +1508,22 @@
       <c r="DF2">
         <v>2190.5</v>
       </c>
+      <c r="DW2">
+        <v>75.48999999999999</v>
+      </c>
+      <c r="DX2">
+        <v>63.17</v>
+      </c>
+      <c r="DY2">
+        <v>66.31</v>
+      </c>
+      <c r="DZ2">
+        <v>2227.4</v>
+      </c>
     </row>
-    <row r="3" spans="1:126">
+    <row r="3" spans="1:130">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B3">
         <v>50.2</v>
@@ -1720,10 +1756,22 @@
       <c r="DF3">
         <v>334.95</v>
       </c>
+      <c r="DW3">
+        <v>69.77</v>
+      </c>
+      <c r="DX3">
+        <v>72.23</v>
+      </c>
+      <c r="DY3">
+        <v>67.92</v>
+      </c>
+      <c r="DZ3">
+        <v>345.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:126">
+    <row r="4" spans="1:130">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B4">
         <v>47.16</v>
@@ -1956,10 +2004,22 @@
       <c r="DF4">
         <v>5993.45</v>
       </c>
+      <c r="DW4">
+        <v>56.05</v>
+      </c>
+      <c r="DX4">
+        <v>60.09</v>
+      </c>
+      <c r="DY4">
+        <v>67.91</v>
+      </c>
+      <c r="DZ4">
+        <v>5729.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:126">
+    <row r="5" spans="1:130">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B5">
         <v>54.05</v>
@@ -2192,10 +2252,22 @@
       <c r="DF5">
         <v>12155.65</v>
       </c>
+      <c r="DW5">
+        <v>61.97</v>
+      </c>
+      <c r="DX5">
+        <v>69.64</v>
+      </c>
+      <c r="DY5">
+        <v>70.29000000000001</v>
+      </c>
+      <c r="DZ5">
+        <v>11828.55</v>
+      </c>
     </row>
-    <row r="6" spans="1:126">
+    <row r="6" spans="1:130">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B6">
         <v>45.62</v>
@@ -2428,10 +2500,22 @@
       <c r="DJ6">
         <v>1500.95</v>
       </c>
+      <c r="DW6">
+        <v>55.77</v>
+      </c>
+      <c r="DX6">
+        <v>58.89</v>
+      </c>
+      <c r="DY6">
+        <v>63.12</v>
+      </c>
+      <c r="DZ6">
+        <v>1499.85</v>
+      </c>
     </row>
-    <row r="7" spans="1:126">
+    <row r="7" spans="1:130">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B7">
         <v>48.23</v>
@@ -2664,10 +2748,22 @@
       <c r="DF7">
         <v>680.9</v>
       </c>
+      <c r="DW7">
+        <v>55.54</v>
+      </c>
+      <c r="DX7">
+        <v>53.56</v>
+      </c>
+      <c r="DY7">
+        <v>62.09</v>
+      </c>
+      <c r="DZ7">
+        <v>680.1</v>
+      </c>
     </row>
-    <row r="8" spans="1:126">
+    <row r="8" spans="1:130">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B8">
         <v>51.49</v>
@@ -2900,10 +2996,22 @@
       <c r="DJ8">
         <v>3067.6</v>
       </c>
+      <c r="DW8">
+        <v>67.31</v>
+      </c>
+      <c r="DX8">
+        <v>57.9</v>
+      </c>
+      <c r="DY8">
+        <v>61.03</v>
+      </c>
+      <c r="DZ8">
+        <v>3032.7</v>
+      </c>
     </row>
-    <row r="9" spans="1:126">
+    <row r="9" spans="1:130">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B9">
         <v>41.03</v>
@@ -3136,10 +3244,22 @@
       <c r="DF9">
         <v>7214.7</v>
       </c>
+      <c r="DW9">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="DX9">
+        <v>55.77</v>
+      </c>
+      <c r="DY9">
+        <v>54.29</v>
+      </c>
+      <c r="DZ9">
+        <v>7275.65</v>
+      </c>
     </row>
-    <row r="10" spans="1:126">
+    <row r="10" spans="1:130">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B10">
         <v>49.99</v>
@@ -3372,10 +3492,22 @@
       <c r="DF10">
         <v>4250.05</v>
       </c>
+      <c r="DW10">
+        <v>68.41</v>
+      </c>
+      <c r="DX10">
+        <v>70.08</v>
+      </c>
+      <c r="DY10">
+        <v>68.19</v>
+      </c>
+      <c r="DZ10">
+        <v>4249.75</v>
+      </c>
     </row>
-    <row r="11" spans="1:126">
+    <row r="11" spans="1:130">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B11">
         <v>43.07</v>
@@ -3596,10 +3728,22 @@
       <c r="DF11">
         <v>59.8</v>
       </c>
+      <c r="DW11">
+        <v>60.12</v>
+      </c>
+      <c r="DX11">
+        <v>63.74</v>
+      </c>
+      <c r="DY11">
+        <v>63.82</v>
+      </c>
+      <c r="DZ11">
+        <v>60.4</v>
+      </c>
     </row>
-    <row r="12" spans="1:126">
+    <row r="12" spans="1:130">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B12">
         <v>50.76</v>
@@ -3832,10 +3976,22 @@
       <c r="DF12">
         <v>377</v>
       </c>
+      <c r="DW12">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="DX12">
+        <v>72.87</v>
+      </c>
+      <c r="DY12">
+        <v>58.82</v>
+      </c>
+      <c r="DZ12">
+        <v>414.7</v>
+      </c>
     </row>
-    <row r="13" spans="1:126">
+    <row r="13" spans="1:130">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B13">
         <v>52.29</v>
@@ -4068,10 +4224,22 @@
       <c r="DR13">
         <v>224.4</v>
       </c>
+      <c r="DW13">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="DX13">
+        <v>71.63</v>
+      </c>
+      <c r="DY13">
+        <v>71.81</v>
+      </c>
+      <c r="DZ13">
+        <v>242.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:126">
+    <row r="14" spans="1:130">
       <c r="A14" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B14">
         <v>59.05</v>
@@ -4304,10 +4472,22 @@
       <c r="DF14">
         <v>2248.95</v>
       </c>
+      <c r="DW14">
+        <v>60.41</v>
+      </c>
+      <c r="DX14">
+        <v>71.73999999999999</v>
+      </c>
+      <c r="DY14">
+        <v>65.41</v>
+      </c>
+      <c r="DZ14">
+        <v>2369.8</v>
+      </c>
     </row>
-    <row r="15" spans="1:126">
+    <row r="15" spans="1:130">
       <c r="A15" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B15">
         <v>41.86</v>
@@ -4540,10 +4720,22 @@
       <c r="DF15">
         <v>532.7</v>
       </c>
+      <c r="DW15">
+        <v>50.38</v>
+      </c>
+      <c r="DX15">
+        <v>50.76</v>
+      </c>
+      <c r="DY15">
+        <v>59.04</v>
+      </c>
+      <c r="DZ15">
+        <v>536.45</v>
+      </c>
     </row>
-    <row r="16" spans="1:126">
+    <row r="16" spans="1:130">
       <c r="A16" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B16">
         <v>39.57</v>
@@ -4776,10 +4968,22 @@
       <c r="DF16">
         <v>153.1</v>
       </c>
+      <c r="DW16">
+        <v>68.76000000000001</v>
+      </c>
+      <c r="DX16">
+        <v>63.3</v>
+      </c>
+      <c r="DY16">
+        <v>46.92</v>
+      </c>
+      <c r="DZ16">
+        <v>156.25</v>
+      </c>
     </row>
-    <row r="17" spans="1:122">
+    <row r="17" spans="1:130">
       <c r="A17" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B17">
         <v>48.86</v>
@@ -5012,10 +5216,22 @@
       <c r="DR17">
         <v>541.2</v>
       </c>
+      <c r="DW17">
+        <v>72.56</v>
+      </c>
+      <c r="DX17">
+        <v>77.23</v>
+      </c>
+      <c r="DY17">
+        <v>84.06999999999999</v>
+      </c>
+      <c r="DZ17">
+        <v>548.25</v>
+      </c>
     </row>
-    <row r="18" spans="1:122">
+    <row r="18" spans="1:130">
       <c r="A18" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B18">
         <v>42.67</v>
@@ -5248,10 +5464,22 @@
       <c r="DF18">
         <v>261.35</v>
       </c>
+      <c r="DW18">
+        <v>70.86</v>
+      </c>
+      <c r="DX18">
+        <v>60.6</v>
+      </c>
+      <c r="DY18">
+        <v>44</v>
+      </c>
+      <c r="DZ18">
+        <v>247.8</v>
+      </c>
     </row>
-    <row r="19" spans="1:122">
+    <row r="19" spans="1:130">
       <c r="A19" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B19">
         <v>47.21</v>
@@ -5484,10 +5712,22 @@
       <c r="DF19">
         <v>9.75</v>
       </c>
+      <c r="DW19">
+        <v>73.81</v>
+      </c>
+      <c r="DX19">
+        <v>53.53</v>
+      </c>
+      <c r="DY19">
+        <v>43.28</v>
+      </c>
+      <c r="DZ19">
+        <v>10.1</v>
+      </c>
     </row>
-    <row r="20" spans="1:122">
+    <row r="20" spans="1:130">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B20">
         <v>48.65</v>
@@ -5720,10 +5960,22 @@
       <c r="DN20">
         <v>1009.3</v>
       </c>
+      <c r="DW20">
+        <v>61.46</v>
+      </c>
+      <c r="DX20">
+        <v>59.16</v>
+      </c>
+      <c r="DY20">
+        <v>50.76</v>
+      </c>
+      <c r="DZ20">
+        <v>1025.2</v>
+      </c>
     </row>
-    <row r="21" spans="1:122">
+    <row r="21" spans="1:130">
       <c r="A21" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B21">
         <v>41.16</v>
@@ -5956,10 +6208,22 @@
       <c r="DF21">
         <v>114.6</v>
       </c>
+      <c r="DW21">
+        <v>75.15000000000001</v>
+      </c>
+      <c r="DX21">
+        <v>69.26000000000001</v>
+      </c>
+      <c r="DY21">
+        <v>53.1</v>
+      </c>
+      <c r="DZ21">
+        <v>114.7</v>
+      </c>
     </row>
-    <row r="22" spans="1:122">
+    <row r="22" spans="1:130">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B22">
         <v>45.84</v>
@@ -6180,10 +6444,22 @@
       <c r="DF22">
         <v>1921.7</v>
       </c>
+      <c r="DW22">
+        <v>78.54000000000001</v>
+      </c>
+      <c r="DX22">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="DY22">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="DZ22">
+        <v>2094.8</v>
+      </c>
     </row>
-    <row r="23" spans="1:122">
+    <row r="23" spans="1:130">
       <c r="A23" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B23">
         <v>57.52</v>
@@ -6416,10 +6692,22 @@
       <c r="DF23">
         <v>208.75</v>
       </c>
+      <c r="DW23">
+        <v>53.6</v>
+      </c>
+      <c r="DX23">
+        <v>52.26</v>
+      </c>
+      <c r="DY23">
+        <v>47.88</v>
+      </c>
+      <c r="DZ23">
+        <v>211.45</v>
+      </c>
     </row>
-    <row r="24" spans="1:122">
+    <row r="24" spans="1:130">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B24">
         <v>50.63</v>
@@ -6652,10 +6940,22 @@
       <c r="DF24">
         <v>1537.55</v>
       </c>
+      <c r="DW24">
+        <v>75.73999999999999</v>
+      </c>
+      <c r="DX24">
+        <v>68.43000000000001</v>
+      </c>
+      <c r="DY24">
+        <v>63.55</v>
+      </c>
+      <c r="DZ24">
+        <v>1557.8</v>
+      </c>
     </row>
-    <row r="25" spans="1:122">
+    <row r="25" spans="1:130">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B25">
         <v>50.27</v>
@@ -6888,10 +7188,22 @@
       <c r="DF25">
         <v>168.15</v>
       </c>
+      <c r="DW25">
+        <v>58.79</v>
+      </c>
+      <c r="DX25">
+        <v>49.25</v>
+      </c>
+      <c r="DY25">
+        <v>48.85</v>
+      </c>
+      <c r="DZ25">
+        <v>170.7</v>
+      </c>
     </row>
-    <row r="26" spans="1:122">
+    <row r="26" spans="1:130">
       <c r="A26" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B26">
         <v>45.61</v>
@@ -7124,10 +7436,22 @@
       <c r="DF26">
         <v>162.45</v>
       </c>
+      <c r="DW26">
+        <v>62.07</v>
+      </c>
+      <c r="DX26">
+        <v>54.3</v>
+      </c>
+      <c r="DY26">
+        <v>54.93</v>
+      </c>
+      <c r="DZ26">
+        <v>165.4</v>
+      </c>
     </row>
-    <row r="27" spans="1:122">
+    <row r="27" spans="1:130">
       <c r="A27" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B27">
         <v>43.41</v>
@@ -7360,10 +7684,22 @@
       <c r="DF27">
         <v>1509.35</v>
       </c>
+      <c r="DW27">
+        <v>81.91</v>
+      </c>
+      <c r="DX27">
+        <v>69.84</v>
+      </c>
+      <c r="DY27">
+        <v>69.62</v>
+      </c>
+      <c r="DZ27">
+        <v>1513.15</v>
+      </c>
     </row>
-    <row r="28" spans="1:122">
+    <row r="28" spans="1:130">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B28">
         <v>37.58</v>
@@ -7596,10 +7932,22 @@
       <c r="DF28">
         <v>122.2</v>
       </c>
+      <c r="DW28">
+        <v>69.53</v>
+      </c>
+      <c r="DX28">
+        <v>60.75</v>
+      </c>
+      <c r="DY28">
+        <v>58</v>
+      </c>
+      <c r="DZ28">
+        <v>125.75</v>
+      </c>
     </row>
-    <row r="29" spans="1:122">
+    <row r="29" spans="1:130">
       <c r="A29" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B29">
         <v>47.48</v>
@@ -7832,10 +8180,22 @@
       <c r="DF29">
         <v>989.15</v>
       </c>
+      <c r="DW29">
+        <v>59.92</v>
+      </c>
+      <c r="DX29">
+        <v>64.95999999999999</v>
+      </c>
+      <c r="DY29">
+        <v>61.91</v>
+      </c>
+      <c r="DZ29">
+        <v>988.5</v>
+      </c>
     </row>
-    <row r="30" spans="1:122">
+    <row r="30" spans="1:130">
       <c r="A30" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B30">
         <v>49.8</v>
@@ -8068,10 +8428,22 @@
       <c r="DF30">
         <v>433.6</v>
       </c>
+      <c r="DW30">
+        <v>73.61</v>
+      </c>
+      <c r="DX30">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="DY30">
+        <v>67.2</v>
+      </c>
+      <c r="DZ30">
+        <v>432.25</v>
+      </c>
     </row>
-    <row r="31" spans="1:122">
+    <row r="31" spans="1:130">
       <c r="A31" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B31">
         <v>56.54</v>
@@ -8292,10 +8664,22 @@
       <c r="DF31">
         <v>108.15</v>
       </c>
+      <c r="DW31">
+        <v>66.68000000000001</v>
+      </c>
+      <c r="DX31">
+        <v>71.31999999999999</v>
+      </c>
+      <c r="DY31">
+        <v>72.64</v>
+      </c>
+      <c r="DZ31">
+        <v>113.35</v>
+      </c>
     </row>
-    <row r="32" spans="1:122">
+    <row r="32" spans="1:130">
       <c r="A32" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B32">
         <v>58.02</v>
@@ -8528,10 +8912,22 @@
       <c r="DF32">
         <v>3143.75</v>
       </c>
+      <c r="DW32">
+        <v>59.03</v>
+      </c>
+      <c r="DX32">
+        <v>58.85</v>
+      </c>
+      <c r="DY32">
+        <v>69.43000000000001</v>
+      </c>
+      <c r="DZ32">
+        <v>3183.2</v>
+      </c>
     </row>
-    <row r="33" spans="1:126">
+    <row r="33" spans="1:130">
       <c r="A33" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B33">
         <v>64.37</v>
@@ -8752,10 +9148,22 @@
       <c r="DV33">
         <v>746.15</v>
       </c>
+      <c r="DW33">
+        <v>60.86</v>
+      </c>
+      <c r="DX33">
+        <v>62.01</v>
+      </c>
+      <c r="DY33">
+        <v>61.87</v>
+      </c>
+      <c r="DZ33">
+        <v>748.2</v>
+      </c>
     </row>
-    <row r="34" spans="1:126">
+    <row r="34" spans="1:130">
       <c r="A34" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B34">
         <v>53.14</v>
@@ -8976,10 +9384,22 @@
       <c r="DF34">
         <v>10.45</v>
       </c>
+      <c r="DW34">
+        <v>67.22</v>
+      </c>
+      <c r="DX34">
+        <v>67.52</v>
+      </c>
+      <c r="DY34">
+        <v>52.97</v>
+      </c>
+      <c r="DZ34">
+        <v>10.95</v>
+      </c>
     </row>
-    <row r="35" spans="1:126">
+    <row r="35" spans="1:130">
       <c r="A35" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B35">
         <v>59.65</v>
@@ -9212,10 +9632,22 @@
       <c r="DF35">
         <v>2924.9</v>
       </c>
+      <c r="DW35">
+        <v>66.81</v>
+      </c>
+      <c r="DX35">
+        <v>69.88</v>
+      </c>
+      <c r="DY35">
+        <v>72.95999999999999</v>
+      </c>
+      <c r="DZ35">
+        <v>2933.1</v>
+      </c>
     </row>
-    <row r="36" spans="1:126">
+    <row r="36" spans="1:130">
       <c r="A36" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B36">
         <v>60.25</v>
@@ -9448,10 +9880,22 @@
       <c r="DF36">
         <v>833.85</v>
       </c>
+      <c r="DW36">
+        <v>75.17</v>
+      </c>
+      <c r="DX36">
+        <v>73.83</v>
+      </c>
+      <c r="DY36">
+        <v>83.22</v>
+      </c>
+      <c r="DZ36">
+        <v>878.6</v>
+      </c>
     </row>
-    <row r="37" spans="1:126">
+    <row r="37" spans="1:130">
       <c r="A37" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B37">
         <v>55.37</v>
@@ -9684,10 +10128,22 @@
       <c r="DF37">
         <v>673.95</v>
       </c>
+      <c r="DW37">
+        <v>50.59</v>
+      </c>
+      <c r="DX37">
+        <v>63.89</v>
+      </c>
+      <c r="DY37">
+        <v>66.95</v>
+      </c>
+      <c r="DZ37">
+        <v>675.35</v>
+      </c>
     </row>
-    <row r="38" spans="1:126">
+    <row r="38" spans="1:130">
       <c r="A38" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B38">
         <v>71.78</v>
@@ -9920,10 +10376,22 @@
       <c r="DF38">
         <v>1120.7</v>
       </c>
+      <c r="DW38">
+        <v>58.48</v>
+      </c>
+      <c r="DX38">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="DY38">
+        <v>79.64</v>
+      </c>
+      <c r="DZ38">
+        <v>1128.7</v>
+      </c>
     </row>
-    <row r="39" spans="1:126">
+    <row r="39" spans="1:130">
       <c r="A39" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B39">
         <v>67.78</v>
@@ -10155,6 +10623,18 @@
       </c>
       <c r="DF39">
         <v>1731.65</v>
+      </c>
+      <c r="DW39">
+        <v>50.3</v>
+      </c>
+      <c r="DX39">
+        <v>68.63</v>
+      </c>
+      <c r="DY39">
+        <v>84.43000000000001</v>
+      </c>
+      <c r="DZ39">
+        <v>1754.15</v>
       </c>
     </row>
   </sheetData>
